--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.137</v>
+        <v>17.958</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2007117065.922</v>
+        <v>-0.518</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1260328.079</v>
+        <v>34.655</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.548</v>
+        <v>14.437</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-1259211.721543821</v>
+        <v>20.59630263608167</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-750200.7765632503</v>
+        <v>20.6761123105985</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-406362.4936758218</v>
+        <v>20.69735604896837</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1941779.272025208</v>
+        <v>20.60448862498975</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-501979.7591191332</v>
+        <v>20.66714036816723</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-405192.9481323468</v>
+        <v>20.69505668495148</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-1901964.47486221</v>
+        <v>20.65076085790653</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>738300.5238556853</v>
+        <v>20.69935640602624</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>848615.2438978259</v>
+        <v>20.71825753019361</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>267280.1186782539</v>
+        <v>20.71210983501254</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>672112.5268248485</v>
+        <v>20.73898832588944</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>868444.3815600144</v>
+        <v>20.76385230506025</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-909446.5984719011</v>
+        <v>20.61358010942172</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-219849.6159423743</v>
+        <v>20.69805160759002</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>376036.9489063762</v>
+        <v>20.73392656865765</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-422742.9941769684</v>
+        <v>20.592097719382</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>386649.8074162597</v>
+        <v>20.71022906072675</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>987718.6530374814</v>
+        <v>20.74698262572175</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-974918.7365145741</v>
+        <v>20.57728864001746</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-198404.3695866401</v>
+        <v>20.67553481332297</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>521304.4289285673</v>
+        <v>20.72172058299795</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-907646.7138411048</v>
+        <v>20.6480849499537</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>677329.0744470145</v>
+        <v>20.724299742011</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1614226.73879768</v>
+        <v>20.75676028415319</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>535217.5255609888</v>
+        <v>20.75059130048494</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1156677.228702392</v>
+        <v>20.80259088048827</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1509072.93181944</v>
+        <v>20.84770415352495</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-396624.8504819259</v>
+        <v>20.62067391760754</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>790603.0343832977</v>
+        <v>20.76058736978393</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1141313.602041563</v>
+        <v>20.81550687666515</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-232739.1131450846</v>
+        <v>20.60347064969372</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>672112.899401843</v>
+        <v>20.7420950049937</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1117045.875395249</v>
+        <v>20.78780895571177</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-756256.3327789502</v>
+        <v>20.59178773927959</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>335104.085742551</v>
+        <v>20.71169281241863</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>674778.4317286882</v>
+        <v>20.76839956680537</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-676523.8109639476</v>
+        <v>20.67933731812224</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1289621.372226091</v>
+        <v>20.7732499327504</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1952418.379970296</v>
+        <v>20.81388378539377</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1258750.496654583</v>
+        <v>20.83655645103235</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1657002.05798883</v>
+        <v>20.89678449073278</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1859483.027359119</v>
+        <v>20.95006794248912</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-164704.1389872493</v>
+        <v>20.67063382084145</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1230368.026956682</v>
+        <v>20.84076969184288</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1541535.995865263</v>
+        <v>20.91085674054984</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-983103.8659140457</v>
+        <v>20.6064898472716</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>731415.9405434484</v>
+        <v>20.70748279716949</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1403339.232136992</v>
+        <v>20.73008941390355</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-1256833.755087959</v>
+        <v>20.61931887184441</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1176448.133455056</v>
+        <v>20.70254003560485</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1506814.265313703</v>
+        <v>20.73257391796814</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-919927.0456472492</v>
+        <v>20.67600698233218</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2866495.624608096</v>
+        <v>20.74106393753811</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>3217034.864680614</v>
+        <v>20.76111143515707</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1846907.905159985</v>
+        <v>20.76373392174117</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>2268508.107056438</v>
+        <v>20.80125243153226</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2148999.167818942</v>
+        <v>20.8238508427171</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>-572763.3108332023</v>
+        <v>20.63855735622221</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1033321.689199582</v>
+        <v>20.75093044961724</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1420357.702667901</v>
+        <v>20.78860743238677</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-422430.3105568797</v>
+        <v>20.59101528147253</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>629451.0161872831</v>
+        <v>20.73913989895796</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>950474.0069378304</v>
+        <v>20.77820293395215</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-890910.9869589414</v>
+        <v>20.57685245595079</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>189464.9672905835</v>
+        <v>20.70459492216079</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>650108.2177083424</v>
+        <v>20.75404843359376</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-684894.633802381</v>
+        <v>20.6638442227519</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1118281.71309978</v>
+        <v>20.76366631535356</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1695533.154674339</v>
+        <v>20.79799588670482</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>839738.744761691</v>
+        <v>20.80120391304599</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1256202.162638402</v>
+        <v>20.86925086603221</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1464227.677598608</v>
+        <v>20.9126740907443</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-320383.4146933468</v>
+        <v>20.63739090200953</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>973408.1584552722</v>
+        <v>20.81832508980429</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1132649.895867568</v>
+        <v>20.87571157776706</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-398570.1667612801</v>
+        <v>20.61078446890787</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>604931.9360847155</v>
+        <v>20.78439430819961</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>964649.1962191112</v>
+        <v>20.83328372080162</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-785503.9026424047</v>
+        <v>20.59853843836538</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>442912.8694336194</v>
+        <v>20.75338757346076</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>737610.5806428844</v>
+        <v>20.81443128630534</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-537698.1182092692</v>
+        <v>20.7056712948742</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1415910.403695483</v>
+        <v>20.82769439334454</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1959538.099754026</v>
+        <v>20.87100478891874</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1151020.949265039</v>
+        <v>20.90794088891969</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1490356.501809749</v>
+        <v>20.98704221110115</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1709922.643944785</v>
+        <v>21.03920145124222</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-290152.0025363307</v>
+        <v>20.70241671810922</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1169724.608514459</v>
+        <v>20.92122171544064</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1301647.173409179</v>
+        <v>20.99510603309168</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-462688.9030244043</v>
+        <v>20.60060107129876</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>685276.7089157014</v>
+        <v>20.70083723453395</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1095775.266729713</v>
+        <v>20.72272231942343</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-982243.3716202222</v>
+        <v>20.61254493689501</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>854187.7075312717</v>
+        <v>20.69487953006767</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>952659.1023494028</v>
+        <v>20.72406501907586</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-684207.0378150978</v>
+        <v>20.66935808465458</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>2482805.736053192</v>
+        <v>20.73367455042075</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>2562106.724451805</v>
+        <v>20.75301405444213</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1627468.231509821</v>
+        <v>20.75614217668314</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>1912080.189304532</v>
+        <v>20.79308738465997</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1768498.450830657</v>
+        <v>20.81503273914725</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-418570.4714039391</v>
+        <v>20.6316894016456</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>801185.6824506182</v>
+        <v>20.74289473678771</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>986414.2055223007</v>
+        <v>20.77943456492428</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-21781.16028000598</v>
+        <v>20.59314787613763</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>965128.4688129397</v>
+        <v>20.74042287632045</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1086022.646870563</v>
+        <v>20.77838578069066</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-555468.3830769063</v>
+        <v>20.57862170485733</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>501377.0960822446</v>
+        <v>20.70536112709581</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>745805.1584062573</v>
+        <v>20.75352722600194</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-275264.8075874206</v>
+        <v>20.66543329751832</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1497852.798777781</v>
+        <v>20.76441606288405</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1850257.089373736</v>
+        <v>20.79767328992199</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1044829.675551731</v>
+        <v>20.80356521485752</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1368895.130837382</v>
+        <v>20.87090112335197</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1462244.577222619</v>
+        <v>20.91328196784757</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>-75193.15686096184</v>
+        <v>20.64056702294348</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1060002.101368349</v>
+        <v>20.82014821572909</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1123319.484053893</v>
+        <v>20.87581052335417</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>-89038.37466544835</v>
+        <v>20.61312127953633</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>877779.9829731319</v>
+        <v>20.78586744070826</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1071336.041667429</v>
+        <v>20.83367691240147</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-604693.3703866877</v>
+        <v>20.60047204074828</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>630240.7616160471</v>
+        <v>20.75429940086602</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>736229.2054915201</v>
+        <v>20.81408297277657</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>-310687.5159628859</v>
+        <v>20.70736614362088</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1649561.274940394</v>
+        <v>20.82853353968743</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1999766.506843647</v>
+        <v>20.87079302598093</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1323763.705156082</v>
+        <v>20.91037549595528</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1565824.965269547</v>
+        <v>20.98874775359734</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1709433.681453398</v>
+        <v>21.039800542027</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>-89612.99369975404</v>
+        <v>20.70548762139734</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1254625.881364446</v>
+        <v>20.92292501796621</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1340004.588674624</v>
+        <v>20.99510293615194</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-909106.1450318639</v>
+        <v>20.58333702009092</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>-474462.6932363871</v>
+        <v>20.66227476419074</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>-227343.8345538603</v>
+        <v>20.68292317977889</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-1657120.896548091</v>
+        <v>20.58954753799304</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>-525764.516371068</v>
+        <v>20.65077043516611</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>-461221.7003994988</v>
+        <v>20.67798264644683</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>-1527251.363881517</v>
+        <v>20.63586962581693</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>781941.490894153</v>
+        <v>20.68322430003631</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>803258.2670543775</v>
+        <v>20.70151186614839</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>436472.6933562575</v>
+        <v>20.69135603740789</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>732603.7341836033</v>
+        <v>20.71785504554622</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1019952.031584545</v>
+        <v>20.74218908479152</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>616319.250065449</v>
+        <v>20.59427869606523</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1140287.614977177</v>
+        <v>20.67705501459592</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>1552000.015973242</v>
+        <v>20.71173731183586</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-291496.3402326754</v>
+        <v>20.57144223967312</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>287333.5842854175</v>
+        <v>20.68844545150361</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>877531.071732825</v>
+        <v>20.72432880314858</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-837976.8922982531</v>
+        <v>20.55352463797956</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>-365907.2016144647</v>
+        <v>20.64989517245284</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>327199.5534525316</v>
+        <v>20.69505375656192</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>419138.8994525314</v>
+        <v>20.69922594053625</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1280120.222583716</v>
+        <v>20.7307916619411</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>319662.6037837669</v>
+        <v>20.71913147786078</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>860034.2686574468</v>
+        <v>20.77077179342049</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>1243837.427428316</v>
+        <v>20.81520066983317</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>-162586.5328146731</v>
+        <v>20.59119317268115</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>740959.4383491464</v>
+        <v>20.72896940460159</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>986712.0436117238</v>
+        <v>20.78213778468714</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>36720.50151173965</v>
+        <v>20.58610622675019</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>581973.2607704342</v>
+        <v>20.72386116735218</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>1089682.072904904</v>
+        <v>20.76879281448002</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>-662094.5953619211</v>
+        <v>20.57113621028468</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-15469.22387883618</v>
+        <v>20.68943141642491</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>408361.3336318704</v>
+        <v>20.74520843968236</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>-466727.4827528819</v>
+        <v>20.65924944570519</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>1032491.288558542</v>
+        <v>20.75174697186617</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1737472.658712002</v>
+        <v>20.79156039485844</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>905222.9378943954</v>
+        <v>20.8096451892671</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1264814.206106632</v>
+        <v>20.86973304221159</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1566730.685621188</v>
+        <v>20.92228028217542</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>141216.9113746547</v>
+        <v>20.64553847004636</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>1118544.028890295</v>
+        <v>20.81392455983312</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1383580.753246543</v>
+        <v>20.88235683509012</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>-874442.9102940416</v>
+        <v>20.61122974383659</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>676593.7973407453</v>
+        <v>20.69440450036806</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>978404.2580324103</v>
+        <v>20.71498824797556</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-1276608.17627359</v>
+        <v>20.62232922580912</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1280118.516067041</v>
+        <v>20.68892480978557</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>1331312.308213324</v>
+        <v>20.71606304803701</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-592190.8194921283</v>
+        <v>20.66899228667405</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>3392865.93201104</v>
+        <v>20.72084734206727</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>3376814.563328908</v>
+        <v>20.73913714821485</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>1602742.069773845</v>
+        <v>20.73741317992721</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1925385.068717462</v>
+        <v>20.76665049053964</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>2086785.078092466</v>
+        <v>20.79052953153084</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-389842.7699195244</v>
+        <v>20.63483463852902</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>555223.8656622684</v>
+        <v>20.7244257136421</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>1045875.623430006</v>
+        <v>20.75908589023713</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>100706.3616890034</v>
+        <v>20.62046075760011</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>1308263.854401702</v>
+        <v>20.74322899010044</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>1469345.865928012</v>
+        <v>20.77854939500225</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>-550783.8813528472</v>
+        <v>20.61014673761197</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>736053.3577648526</v>
+        <v>20.71378844809229</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>1043520.890026797</v>
+        <v>20.75828021050775</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>2000275.514534034</v>
+        <v>20.76209546229474</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>2436193.816407</v>
+        <v>20.7932003256921</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>1392191.393555836</v>
+        <v>20.79622737467185</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>1958474.810212937</v>
+        <v>20.85138470822002</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>2151962.856223378</v>
+        <v>20.89478813436276</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>346457.4491430623</v>
+        <v>20.66120801244268</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1603760.881909416</v>
+        <v>20.80812723301914</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>1644687.993170541</v>
+        <v>20.86061085205325</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>-9585.447506414293</v>
+        <v>20.62800592479225</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>1014820.260958766</v>
+        <v>20.77134597919542</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>1304365.39409378</v>
+        <v>20.81560228057493</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>-656517.549346494</v>
+        <v>20.62025585664701</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>573901.3520866168</v>
+        <v>20.74564193731249</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>823136.0801224458</v>
+        <v>20.80062373796685</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>-352365.5236412427</v>
+        <v>20.70862873005594</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>1840221.699229285</v>
+        <v>20.80709332105084</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>2350292.782692736</v>
+        <v>20.84634463121488</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>1619437.425914718</v>
+        <v>20.87756097231144</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>1972582.842468837</v>
+        <v>20.94116734862935</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>2115357.703933683</v>
+        <v>20.99250222148629</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>239117.8632124919</v>
+        <v>20.70669832975334</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>1560435.69642061</v>
+        <v>20.88400164613064</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>1739406.663333422</v>
+        <v>20.95154310176314</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>-787373.9796453875</v>
+        <v>20.57442456466029</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-57117.55794060825</v>
+        <v>20.70497483954737</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>406308.4227031432</v>
+        <v>20.73191521407551</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-668311.9424314847</v>
+        <v>20.59416422150558</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>615132.4555222922</v>
+        <v>20.70258274442346</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>723391.4687038253</v>
+        <v>20.73864166084946</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-338888.7854275499</v>
+        <v>20.66688761898852</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>1700738.390785176</v>
+        <v>20.75188796035141</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>1861817.653094674</v>
+        <v>20.77570428670962</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>896410.6276426219</v>
+        <v>20.77739973548717</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>986646.9427564309</v>
+        <v>20.82695043257274</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>1074974.349268674</v>
+        <v>20.85524076856961</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>-399769.1831118804</v>
+        <v>20.6158719876851</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>-81930.93474267746</v>
+        <v>20.76145550205388</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>179162.3387826349</v>
+        <v>20.807025805837</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-133536.3346281321</v>
+        <v>20.59724142947682</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>682565.6075091792</v>
+        <v>20.78928691423529</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>740716.5453942852</v>
+        <v>20.83560003184626</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-492827.686310336</v>
+        <v>20.587386585058</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>435296.3119674863</v>
+        <v>20.7542945800795</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>525333.4197441342</v>
+        <v>20.81317022785313</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-259228.4208315868</v>
+        <v>20.69790700300659</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>1139620.28129076</v>
+        <v>20.82869520994421</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>1276674.203985061</v>
+        <v>20.86918076461724</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>587922.0602818996</v>
+        <v>20.88422017952079</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>895697.3075458339</v>
+        <v>20.97385496211664</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>978636.5441249819</v>
+        <v>21.02748949475347</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-23004.62413691596</v>
+        <v>20.67279428523331</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>797082.1515060827</v>
+        <v>20.90771463499972</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>808448.2536366595</v>
+        <v>20.97610109026195</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-109099.238618806</v>
+        <v>20.6148910633138</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>-467296.2612503855</v>
+        <v>20.60744843159207</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>338890.8761375724</v>
+        <v>20.8080712099106</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>428112.8572340749</v>
+        <v>20.88128777733524</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>-246968.7483462037</v>
+        <v>20.74364570268986</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>1021890.950616119</v>
+        <v>20.90204458318846</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>1212749.657796789</v>
+        <v>20.95362874136712</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>753047.9862976148</v>
+        <v>21.01057046442164</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>962777.1357686068</v>
+        <v>21.11391204654597</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>991917.1213441844</v>
+        <v>21.17797943749092</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>-49795.8459709641</v>
+        <v>20.74670283125459</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>761617.8912244814</v>
+        <v>21.02880101580209</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>797534.9331279349</v>
+        <v>21.11763369557253</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>-488729.4067511088</v>
+        <v>20.53331834589525</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-675175.7129338841</v>
+        <v>20.65062471452195</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>-452950.398589534</v>
+        <v>20.67883843288568</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-828459.362364867</v>
+        <v>20.54427604933552</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-514701.1470474729</v>
+        <v>20.63721119130492</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-538056.6264676234</v>
+        <v>20.67473902548469</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-806747.0007255605</v>
+        <v>20.61451885979039</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-1430.950161719262</v>
+        <v>20.68673139958684</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>45619.77785904836</v>
+        <v>20.71166598689722</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>87218.08140803999</v>
+        <v>20.70244644971236</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>236709.6334020482</v>
+        <v>20.74295825730849</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>270510.4277905821</v>
+        <v>20.77370105473537</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>-413741.9678221964</v>
+        <v>20.55665498393762</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-355707.920832816</v>
+        <v>20.68203639477722</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>-269312.1992068432</v>
+        <v>20.7301179286335</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>-232505.2650035448</v>
+        <v>20.52438102153731</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>98159.47879076409</v>
+        <v>20.69830219038722</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>371871.1460877535</v>
+        <v>20.74813853690043</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-461053.6287653142</v>
+        <v>20.50190355328327</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-100454.1981074556</v>
+        <v>20.64773083450672</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>207540.4030854966</v>
+        <v>20.71075050779744</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>-331145.9585588755</v>
+        <v>20.60889618285993</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>353426.5196791285</v>
+        <v>20.72222858869399</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>772930.0874416638</v>
+        <v>20.76600228659596</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>228866.1638649525</v>
+        <v>20.75776888619458</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>504186.2546044141</v>
+        <v>20.83529921940726</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>605264.5407679487</v>
+        <v>20.893428332939</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>-167606.011026267</v>
+        <v>20.56624264711736</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>340032.5316219193</v>
+        <v>20.77360806335464</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>484591.7587937296</v>
+        <v>20.84804955607769</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-209092.5997474808</v>
+        <v>20.55364660821022</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>191138.9733237307</v>
+        <v>20.75901788041479</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>436239.2664780393</v>
+        <v>20.82110825858641</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-398325.0044098473</v>
+        <v>20.53520907601337</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>164315.8105945884</v>
+        <v>20.71441541541654</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>325646.6576103966</v>
+        <v>20.79189793464977</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-293657.3661574593</v>
+        <v>20.66667058133717</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>616109.667773851</v>
+        <v>20.80731016711992</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>933562.9555666582</v>
+        <v>20.86228579601716</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>570093.1093264291</v>
+        <v>20.89745631229735</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>757049.4318015748</v>
+        <v>20.9879340596166</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>841194.4317197314</v>
+        <v>21.0572740234253</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>-78019.80498739405</v>
+        <v>20.65286830462499</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>562405.3011942343</v>
+        <v>20.90681318629887</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>713945.636297271</v>
+        <v>21.00207096155277</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>-1239411.907952283</v>
+        <v>20.55413296054325</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>-940378.5623623568</v>
+        <v>20.64794979844494</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>-782898.1521164094</v>
+        <v>20.67148510492933</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-1463578.817564394</v>
+        <v>20.56149654504687</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-638065.5137038601</v>
+        <v>20.63591131495475</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>-637931.8851526865</v>
+        <v>20.66696497843471</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-1836560.671312521</v>
+        <v>20.61674512473181</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>54274.89424419376</v>
+        <v>20.6745689025801</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>-11589.0399334693</v>
+        <v>20.69546089885852</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-219472.0894078219</v>
+        <v>20.68277006771471</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-66976.2984032548</v>
+        <v>20.71579239849623</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>106113.6953447007</v>
+        <v>20.74276519691543</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-873127.0899329298</v>
+        <v>20.56652045190888</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-607860.5707943147</v>
+        <v>20.66693227700764</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>-475233.2723845884</v>
+        <v>20.70645229688449</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-684147.8370075737</v>
+        <v>20.539829667745</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-435425.8391257742</v>
+        <v>20.67844592341016</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>-148376.6936059164</v>
+        <v>20.71895882097592</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-816701.820093227</v>
+        <v>20.52012505073288</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-649539.6326155748</v>
+        <v>20.63626819170739</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>-240620.1886372071</v>
+        <v>20.68732651118134</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-975668.0352350456</v>
+        <v>20.60452252773818</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-148639.7695692493</v>
+        <v>20.69477899707542</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>376927.9566078198</v>
+        <v>20.73043957343805</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-90274.67705292764</v>
+        <v>20.71769132329314</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>298192.0684575213</v>
+        <v>20.78026445737215</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>577326.339158092</v>
+        <v>20.8296419776018</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-533300.5043173867</v>
+        <v>20.56477253973008</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-71725.45930507607</v>
+        <v>20.73004075334685</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>23590.03975231203</v>
+        <v>20.79006985164153</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>-573001.3179571514</v>
+        <v>20.54843934691976</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-335111.1939922125</v>
+        <v>20.71084628709801</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>198704.6058448044</v>
+        <v>20.76169804794812</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-756801.3695864143</v>
+        <v>20.53136594771659</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-441516.7135406538</v>
+        <v>20.67266134840365</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>73337.54580296864</v>
+        <v>20.73585945019381</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-791864.4781800447</v>
+        <v>20.63554121994321</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>212802.4614238807</v>
+        <v>20.74636189184073</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>948000.7248042824</v>
+        <v>20.79145349523131</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>326358.2237720854</v>
+        <v>20.81074927600309</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>631028.4300417117</v>
+        <v>20.88319777339665</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>979930.0369807675</v>
+        <v>20.94172916498762</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>-440671.7424120574</v>
+        <v>20.61659341449382</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>159523.5328057165</v>
+        <v>20.81702289521201</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>456833.3362174134</v>
+        <v>20.89443865367134</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>-699024.2526333195</v>
+        <v>20.61808516110992</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>259145.6660890712</v>
+        <v>20.7409834146894</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>1055566.792969102</v>
+        <v>20.76712337784766</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>-903897.7904114079</v>
+        <v>20.64204008764591</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>1102902.040871187</v>
+        <v>20.74482688942069</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>1366909.21520455</v>
+        <v>20.77967666281239</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-584465.4693667188</v>
+        <v>20.70917130566583</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>2276993.833459316</v>
+        <v>20.78992150748718</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>2658608.409004436</v>
+        <v>20.81316070055904</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>1563634.48982034</v>
+        <v>20.82664652730526</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>1778826.313320576</v>
+        <v>20.87295072435474</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>1754378.210341426</v>
+        <v>20.89990707500616</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>-253011.7421312644</v>
+        <v>20.67571034247872</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>630427.1007815909</v>
+        <v>20.81349135755279</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>1331001.992311735</v>
+        <v>20.85825203211131</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>-254909.2195776627</v>
+        <v>20.61020699482476</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>434043.4369867729</v>
+        <v>20.79016353475025</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>560447.8624606597</v>
+        <v>20.83465486988301</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>-612947.571621775</v>
+        <v>20.6041017145467</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>248713.0429185867</v>
+        <v>20.76126323247196</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>381135.539265956</v>
+        <v>20.81774818717552</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-461660.7615519553</v>
+        <v>20.70745441287702</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>926431.2626997679</v>
+        <v>20.83078909793797</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>1160976.588959005</v>
+        <v>20.86988128935239</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>582734.4617471431</v>
+        <v>20.88844400317366</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>802173.1341848382</v>
+        <v>20.97173271207194</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>875644.1724150168</v>
+        <v>21.02239058191738</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-114833.3858753798</v>
+        <v>20.69113047688605</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>689228.8055415569</v>
+        <v>20.9117991663985</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>770622.7006129039</v>
+        <v>20.97850657168396</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-237505.9035547253</v>
+        <v>20.62640498500453</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>405276.7685100061</v>
+        <v>20.83589117167998</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>611363.9342200699</v>
+        <v>20.89156132497121</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>-514002.0897249721</v>
+        <v>20.6234875654511</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>421001.9734069474</v>
+        <v>20.81202285926051</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>508045.3382817103</v>
+        <v>20.88170791697009</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>-332087.8061837379</v>
+        <v>20.7502058187722</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>1112077.383722571</v>
+        <v>20.8992278353829</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>1370854.128391269</v>
+        <v>20.94854119336375</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>881578.8859756176</v>
+        <v>21.00577297415727</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>1064707.605769916</v>
+        <v>21.10161171161483</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>1101743.794119197</v>
+        <v>21.16205911048262</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-90731.89740494444</v>
+        <v>20.75937330891976</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>847581.0785152591</v>
+        <v>21.02393622289981</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>965367.4801227718</v>
+        <v>21.10946571941274</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-820806.2708303075</v>
+        <v>20.5429293239415</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>-710241.0612401151</v>
+        <v>20.64059233286646</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>-468593.3207409544</v>
+        <v>20.66661917857632</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-1044630.920910833</v>
+        <v>20.54416183299529</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-816186.0654568757</v>
+        <v>20.62092248102509</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-654794.4426621344</v>
+        <v>20.6552056117126</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-1123434.616052769</v>
+        <v>20.60440675086483</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-171520.6602270449</v>
+        <v>20.66376269330392</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>11054.83452446057</v>
+        <v>20.6868786639734</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-90631.83270868371</v>
+        <v>20.67068666898286</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>67601.57782110028</v>
+        <v>20.70374309270425</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>128614.0448065763</v>
+        <v>20.73114921170717</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>-629684.1871530545</v>
+        <v>20.54666305631142</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>-336017.3758982788</v>
+        <v>20.65122138787735</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>-383215.8465102654</v>
+        <v>20.69412564705932</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>-477352.2990676247</v>
+        <v>20.51803646031809</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>-234022.2292913407</v>
+        <v>20.6625042394205</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>281811.4613047151</v>
+        <v>20.70861842758703</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-645230.8700227576</v>
+        <v>20.48843599140606</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-519382.5933367588</v>
+        <v>20.60857979438995</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>104582.8080261338</v>
+        <v>20.66657593286313</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-676852.9564133348</v>
+        <v>20.57995400828744</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-200496.9153844776</v>
+        <v>20.67294099016364</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>581384.716660333</v>
+        <v>20.71370541995758</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-57514.73785679558</v>
+        <v>20.69167338298987</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>197069.7812571159</v>
+        <v>20.75500654020723</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>464993.0946064091</v>
+        <v>20.80722781947957</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>-443667.9982253435</v>
+        <v>20.52881183306064</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>23712.01844918329</v>
+        <v>20.70140359302277</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>313650.220792897</v>
+        <v>20.769059171997</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>-277803.7407291056</v>
+        <v>20.53999272897237</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-7097.484209368038</v>
+        <v>20.7112583035312</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>495815.9644328565</v>
+        <v>20.7683652863849</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-417876.8265636147</v>
+        <v>20.51228453386776</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-115951.4116759131</v>
+        <v>20.66089216148884</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>363810.7670476776</v>
+        <v>20.73184435853528</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>-399304.3264404675</v>
+        <v>20.62510286900032</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>283474.9911431932</v>
+        <v>20.74138411317596</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>1005656.529256103</v>
+        <v>20.79219935245293</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>309255.8138042227</v>
+        <v>20.80574111076852</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>451775.0656265577</v>
+        <v>20.88035938688571</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>933230.7064249452</v>
+        <v>20.94292497043316</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>-221074.8360737339</v>
+        <v>20.59812382959548</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>332850.2934311012</v>
+        <v>20.81040575946117</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>636515.6430919751</v>
+        <v>20.89667275807109</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-1503429.352557511</v>
+        <v>20.58487034260665</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-1090445.342088447</v>
+        <v>20.68630535895862</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-949181.997611011</v>
+        <v>20.7080936177536</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-1538459.666684441</v>
+        <v>20.59370334125079</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-975316.2977966411</v>
+        <v>20.67642310631705</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-964512.5523669249</v>
+        <v>20.70555155183583</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-1613258.03998011</v>
+        <v>20.65171837024013</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>126028.070562543</v>
+        <v>20.71618623075587</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>54709.32417594906</v>
+        <v>20.73534803807972</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>16831.79678711018</v>
+        <v>20.7327485040625</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>37553.13260552004</v>
+        <v>20.77021752385999</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>41760.63384292789</v>
+        <v>20.79225952872344</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-1073873.979498967</v>
+        <v>20.60583478380203</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-771674.5372573532</v>
+        <v>20.71782635343541</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-880558.9737012469</v>
+        <v>20.75371210873489</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-241240.1654469921</v>
+        <v>20.59741558488789</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>671105.9550796386</v>
+        <v>20.74696979924077</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>695384.0255898087</v>
+        <v>20.7851657159322</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-651303.5700671712</v>
+        <v>20.58078307941437</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>259730.5864550081</v>
+        <v>20.70881055235344</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>418345.6022010642</v>
+        <v>20.75729987896888</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>-398895.4435261608</v>
+        <v>20.6686616633115</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>1147775.291894987</v>
+        <v>20.76847495351785</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>1352969.802029146</v>
+        <v>20.80181304413493</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>683208.3154418914</v>
+        <v>20.80679993310197</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>1023336.069103687</v>
+        <v>20.87546311699455</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>1062938.941983161</v>
+        <v>20.91847742387324</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>-183922.8103843094</v>
+        <v>20.64040665113889</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>798812.4814076489</v>
+        <v>20.82236027233963</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>764724.5398920845</v>
+        <v>20.87756824292623</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>-150062.1234296669</v>
+        <v>20.61899583298117</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>662116.080375551</v>
+        <v>20.79471818487728</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>828710.697069519</v>
+        <v>20.84313802201675</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>-613308.7294824494</v>
+        <v>20.60362349304321</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>339760.5173266073</v>
+        <v>20.75947362876836</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>457134.4867808158</v>
+        <v>20.82001355219973</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>-349518.7331708859</v>
+        <v>20.71241114109235</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>1257533.745902903</v>
+        <v>20.83501552575854</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>1542772.262288805</v>
+        <v>20.87768865508987</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>1010588.692533912</v>
+        <v>20.91752909490993</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>1252780.787925296</v>
+        <v>20.99767557150297</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>1347006.488971307</v>
+        <v>21.04959163387588</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>-110756.7133632785</v>
+        <v>20.70834695398294</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>982733.4367889935</v>
+        <v>20.92918223202986</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>1003607.672875903</v>
+        <v>21.00151403102934</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>-622886.5678147312</v>
+        <v>20.56323899371088</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>-517126.2857266011</v>
+        <v>20.65296445426958</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>-178932.7100921326</v>
+        <v>20.67376513085741</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>-1027627.528800174</v>
+        <v>20.56736610959926</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-580293.4847274426</v>
+        <v>20.63824866139789</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-393958.8464670247</v>
+        <v>20.66600338921275</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-1070555.311249994</v>
+        <v>20.62124043483575</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>347146.7609187593</v>
+        <v>20.67615848740542</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>511162.8022743172</v>
+        <v>20.6944272928566</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>214574.2569276315</v>
+        <v>20.6840555366591</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>430300.280702317</v>
+        <v>20.71545802878038</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>448847.430943543</v>
+        <v>20.73672709087737</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-390608.3716256125</v>
+        <v>20.57203048225617</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>-98188.75655292199</v>
+        <v>20.66828855933676</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>3148.31436741989</v>
+        <v>20.70282406366121</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-570327.5364216998</v>
+        <v>20.53108057050352</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>-382767.6645170696</v>
+        <v>20.66373552129438</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>-1377.170525797385</v>
+        <v>20.70064758832522</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-841383.5506387303</v>
+        <v>20.50640821779447</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-741364.5784366535</v>
+        <v>20.61715682068785</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>-238285.5188391655</v>
+        <v>20.66393267339662</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-954976.4664917357</v>
+        <v>20.58913023683368</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-361852.8667158934</v>
+        <v>20.67499269756786</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>258819.4270935487</v>
+        <v>20.70724894867608</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-146287.3012612613</v>
+        <v>20.69173946174689</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>36761.7537602673</v>
+        <v>20.75116853726229</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>241461.066547718</v>
+        <v>20.79272933106201</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>-577268.0770745709</v>
+        <v>20.54489236212289</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>-193558.7631053824</v>
+        <v>20.70335776984427</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>9770.716847870874</v>
+        <v>20.75713464944137</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>-126259.6827125231</v>
+        <v>20.56255128768257</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>272931.1662353391</v>
+        <v>20.7200765375687</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>492068.1499767615</v>
+        <v>20.76648280471538</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>-624102.6887593149</v>
+        <v>20.5401450992319</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-81920.6908089456</v>
+        <v>20.6773423080961</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>69551.82132607102</v>
+        <v>20.73531729536153</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>-463340.5635728472</v>
+        <v>20.6420019346937</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>646184.0198120564</v>
+        <v>20.7495187652723</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>1016393.741224492</v>
+        <v>20.79044736250404</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>579264.7497971784</v>
+        <v>20.80995278366628</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>681889.5467085596</v>
+        <v>20.88007308755007</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>898088.7722295469</v>
+        <v>20.93013344897257</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>-226061.6967686576</v>
+        <v>20.62241026517551</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>461349.9841666646</v>
+        <v>20.81778941772939</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>551809.3558396259</v>
+        <v>20.88754602095195</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>-861935.0645314468</v>
+        <v>20.52606203622491</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-1142612.826642932</v>
+        <v>20.61487574411865</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>-1140639.634220873</v>
+        <v>20.63556899984678</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-818697.8394794302</v>
+        <v>20.52454098701892</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-1186799.717357745</v>
+        <v>20.59339399872624</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-1151699.292509583</v>
+        <v>20.62107609130632</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-1192043.017140032</v>
+        <v>20.57971794978027</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-739039.6984607392</v>
+        <v>20.63280193167076</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-815146.4804192102</v>
+        <v>20.65087871638113</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-599733.0704786885</v>
+        <v>20.63010113978829</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-631516.9361892856</v>
+        <v>20.66096329551899</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-588315.3799446514</v>
+        <v>20.68232538331648</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-522441.5691585004</v>
+        <v>20.51892049485237</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-608065.7330941424</v>
+        <v>20.61294046694398</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-765279.3783690196</v>
+        <v>20.64686351414083</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-606999.8699516318</v>
+        <v>20.49313315433685</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-600639.2079989215</v>
+        <v>20.62495965647245</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-446491.3093996723</v>
+        <v>20.66210499322826</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-642222.0560010165</v>
+        <v>20.46185657206737</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-798348.3117690064</v>
+        <v>20.57033889387723</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-520733.3059161632</v>
+        <v>20.61744631162199</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-864974.1582850097</v>
+        <v>20.546170182147</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-617233.2918758917</v>
+        <v>20.62993844297231</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-298223.1104331626</v>
+        <v>20.66227844766529</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-403690.3808946335</v>
+        <v>20.63619737351117</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-286824.2571073525</v>
+        <v>20.69539382167086</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-221804.0372276619</v>
+        <v>20.73762077686604</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-553383.3334527207</v>
+        <v>20.49035325922055</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-391819.7226680739</v>
+        <v>20.6466798491921</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>-380654.2819344581</v>
+        <v>20.70008556610546</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-61537.0352967897</v>
+        <v>20.52716712325174</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>39306.05309921045</v>
+        <v>20.68441325261399</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>202304.2614164405</v>
+        <v>20.73145537188988</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-434252.4489584689</v>
+        <v>20.49770718475814</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>-303406.3169279222</v>
+        <v>20.6332057213519</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>-174114.1164995529</v>
+        <v>20.69197427474921</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>-380256.5486156986</v>
+        <v>20.60182610397558</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>227063.2602295733</v>
+        <v>20.70771488686983</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>496026.3759687911</v>
+        <v>20.74908782069645</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>227810.0435323786</v>
+        <v>20.75911540028571</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>272771.9379907471</v>
+        <v>20.82936403297075</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>432125.1415330791</v>
+        <v>20.88035800541313</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-123950.3218523565</v>
+        <v>20.57185509530916</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>179502.0612634431</v>
+        <v>20.76588295130333</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>221636.1056830806</v>
+        <v>20.83590203246505</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>144357.9527888301</v>
+        <v>20.5888157187323</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>742097.4998051686</v>
+        <v>20.68025216755887</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>1199163.310099327</v>
+        <v>20.70430634139484</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-988930.4969019438</v>
+        <v>20.59697346977216</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>265266.1554129786</v>
+        <v>20.66856354365115</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>478396.3306959569</v>
+        <v>20.70024742373949</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-386440.3108543007</v>
+        <v>20.65057462301034</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>1834398.325304769</v>
+        <v>20.70605239118144</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>2083718.658225893</v>
+        <v>20.72742471834759</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>1064674.673531829</v>
+        <v>20.7206609667904</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>1395824.444424026</v>
+        <v>20.7513506714096</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>1538663.599229492</v>
+        <v>20.77926715348119</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>430635.6153225187</v>
+        <v>20.60786414874549</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>1157843.438104436</v>
+        <v>20.70448294898863</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>1660934.402370965</v>
+        <v>20.74506565637629</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-170030.0222022856</v>
+        <v>20.57255975405993</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>294078.6457635128</v>
+        <v>20.7077943187198</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>635095.728973737</v>
+        <v>20.74942428465965</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-830066.8643517938</v>
+        <v>20.55245756937055</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-410770.2752487981</v>
+        <v>20.66463629693452</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-39409.40109603722</v>
+        <v>20.71703737747971</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-669361.0816564346</v>
+        <v>20.63487492318219</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>349555.1231929269</v>
+        <v>20.7218225016213</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>897603.7994958226</v>
+        <v>20.75853936404757</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>259403.2204443787</v>
+        <v>20.74901926913088</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>582230.5888725905</v>
+        <v>20.80838029272772</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>711631.9715400896</v>
+        <v>20.85925461873787</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>-201906.7889467905</v>
+        <v>20.60052834854673</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>506514.9735593636</v>
+        <v>20.76047028646428</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>667081.3607161833</v>
+        <v>20.82254254833153</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>109293.4114013996</v>
+        <v>20.58971753628259</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>642195.1742938587</v>
+        <v>20.74876286764475</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>961266.5424354116</v>
+        <v>20.80067069063127</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>-584515.9720643252</v>
+        <v>20.57319666710068</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>86262.54995312271</v>
+        <v>20.7105550979132</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>271714.726688954</v>
+        <v>20.77502932481159</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>-311250.9555330723</v>
+        <v>20.67490587706144</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>1016348.428796414</v>
+        <v>20.7824316947608</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>1464335.669049037</v>
+        <v>20.82852385274325</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>945168.4403239952</v>
+        <v>20.85297286259184</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>1139782.610377441</v>
+        <v>20.92196658834602</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>1206751.188267235</v>
+        <v>20.98219412173997</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>-11114.94956797597</v>
+        <v>20.66294943416899</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>875321.0197576737</v>
+        <v>20.85803392779983</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>1072893.819904232</v>
+        <v>20.93749165130299</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>-533850.9589659839</v>
+        <v>20.61208017315781</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>984534.9617194179</v>
+        <v>20.70323128373424</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>1565219.68829086</v>
+        <v>20.72558685058674</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>-930969.8661801917</v>
+        <v>20.62052393969997</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>987823.2262921017</v>
+        <v>20.69413935403136</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>1448291.723848879</v>
+        <v>20.72364212000608</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>-478718.3337879951</v>
+        <v>20.67273898286476</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>2682136.479743744</v>
+        <v>20.72998986512482</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>3111807.618985595</v>
+        <v>20.74982330449544</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>1915065.256654449</v>
+        <v>20.74973516910443</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>2279266.833009623</v>
+        <v>20.78223667975486</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>2295352.429716097</v>
+        <v>20.80470377817665</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>-317827.4225483973</v>
+        <v>20.63530721516105</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>1113238.928257557</v>
+        <v>20.73522870379642</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>1497454.923150486</v>
+        <v>20.77196164493683</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>-403799.4120405581</v>
+        <v>20.59392446060891</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>467784.8950433429</v>
+        <v>20.72793957741236</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>826932.9592054475</v>
+        <v>20.76693297197872</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-692133.7863374705</v>
+        <v>20.57600198013114</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>132560.673136158</v>
+        <v>20.68970971759698</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>648520.3435725531</v>
+        <v>20.73884824175199</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>-538155.0734627469</v>
+        <v>20.65613543207375</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>887584.1052310191</v>
+        <v>20.74458194942355</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>1524139.345156892</v>
+        <v>20.77894410278748</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>701054.049184346</v>
+        <v>20.7765018187349</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>1013838.349205306</v>
+        <v>20.83657017585378</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>1195681.77053318</v>
+        <v>20.87974814314562</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>-355935.6205113861</v>
+        <v>20.62645153562081</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>720480.9361008138</v>
+        <v>20.7887358144293</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>952398.554691884</v>
+        <v>20.84563927703206</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>-396992.7084410177</v>
+        <v>20.61253584729419</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>393162.7356376812</v>
+        <v>20.77048465333641</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>885285.0073283095</v>
+        <v>20.81909632358425</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>-684373.6641245087</v>
+        <v>20.59606766555088</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>240788.9544319907</v>
+        <v>20.73522390559514</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>714614.5148452899</v>
+        <v>20.79569274194021</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>-516258.9747384489</v>
+        <v>20.69522567184919</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>1026006.39979723</v>
+        <v>20.80450961159562</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>1769853.741595219</v>
+        <v>20.84766267289675</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>906289.8024137305</v>
+        <v>20.87660444560377</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>1202370.415523612</v>
+        <v>20.94702352912056</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>1580990.978661449</v>
+        <v>20.99897475032552</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>-347433.1355289728</v>
+        <v>20.687166738054</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>862288.5472726932</v>
+        <v>20.88496532340988</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>1157975.99456496</v>
+        <v>20.9580254692235</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>-1103511.73552818</v>
+        <v>20.62486130419456</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>718675.6550622472</v>
+        <v>20.70861387798945</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>1615682.63754459</v>
+        <v>20.72931965014717</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>-1419261.575202812</v>
+        <v>20.63804709635092</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>1889353.002301157</v>
+        <v>20.70592995287102</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>2263924.286429428</v>
+        <v>20.73319429079988</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>-961876.423954073</v>
+        <v>20.68437414291099</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>3928732.781713186</v>
+        <v>20.73737574030311</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>4348168.891599828</v>
+        <v>20.75584209264244</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>2293099.460064564</v>
+        <v>20.75827118534493</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>2728901.19275215</v>
+        <v>20.7880345353653</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>2845088.379829803</v>
+        <v>20.81159359761421</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>-669605.4460103473</v>
+        <v>20.65560146689596</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>970404.4177250896</v>
+        <v>20.74680832877936</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>2126968.314061855</v>
+        <v>20.78188105526639</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>-495334.6974709313</v>
+        <v>20.62079247750079</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>747508.6655578709</v>
+        <v>20.74393842291449</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>1109630.709327057</v>
+        <v>20.77919477101609</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>-1065763.176880783</v>
+        <v>20.61176592021188</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>292834.1014875573</v>
+        <v>20.7166704421624</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>746683.9230776055</v>
+        <v>20.76107488191313</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>-956976.0515786038</v>
+        <v>20.68302792100245</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>1419190.623638269</v>
+        <v>20.76488109236714</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>2072284.719901209</v>
+        <v>20.7960172768857</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>966106.2823708596</v>
+        <v>20.80005751264113</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>1510040.46183207</v>
+        <v>20.85551689058006</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>1754227.280357592</v>
+        <v>20.89822673398023</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>-415383.0702444611</v>
+        <v>20.66510319977318</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>1116752.826883261</v>
+        <v>20.81341108984836</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>1323357.48295178</v>
+        <v>20.86619179565087</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>-430217.8796227413</v>
+        <v>20.6288147357115</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>769297.5064883757</v>
+        <v>20.77230640968743</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>1141010.413274982</v>
+        <v>20.81624436256768</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>-908013.3691532799</v>
+        <v>20.62264614245626</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>609900.2791497827</v>
+        <v>20.74907433763645</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>846728.2128730431</v>
+        <v>20.80367893430128</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>-769684.6368242942</v>
+        <v>20.71060040887097</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>1794430.59939506</v>
+        <v>20.81005066419565</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>2365090.060727767</v>
+        <v>20.84910821018896</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>1598365.372400124</v>
+        <v>20.88101194643609</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>1983325.442909331</v>
+        <v>20.94480159614723</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>2104192.891952727</v>
+        <v>20.99526958805967</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>-287224.6242657416</v>
+        <v>20.71071891011233</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>1452282.809010198</v>
+        <v>20.88910312742506</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>1706238.789549975</v>
+        <v>20.95652105758155</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>-909915.6223862049</v>
+        <v>20.63361599840612</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>1776686.943580102</v>
+        <v>20.69258690706986</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>2602489.213045062</v>
+        <v>20.70789828614311</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>-688132.1758001099</v>
+        <v>20.64277866545183</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>4224900.307158551</v>
+        <v>20.68941591389397</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>4625560.226141235</v>
+        <v>20.7095211332202</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>-288977.1388550298</v>
+        <v>20.6752048556566</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>6913108.149319937</v>
+        <v>20.71144488560856</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>7248768.508433703</v>
+        <v>20.72505809904128</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>3387944.423612038</v>
+        <v>20.72364303419405</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>3953394.349311024</v>
+        <v>20.74362080312606</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>4479308.076761593</v>
+        <v>20.76158253871246</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>-192900.0495408667</v>
+        <v>20.65089596504694</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>1756454.731652201</v>
+        <v>20.71365790945664</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>3641469.172350921</v>
+        <v>20.73950743833722</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>42929.17761955034</v>
+        <v>20.63448009169075</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>1745218.028069158</v>
+        <v>20.72153658250746</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>2220250.248222138</v>
+        <v>20.7478270063697</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>391565.6395770806</v>
+        <v>20.62781142380765</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>2256820.934812385</v>
+        <v>20.70057573380375</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>2977177.550062654</v>
+        <v>20.73360008612125</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>-485778.3236591459</v>
+        <v>20.67771471697564</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>2950923.039207209</v>
+        <v>20.73424626537107</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>3925330.90581532</v>
+        <v>20.7574299267404</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>1846362.174943293</v>
+        <v>20.75705429297866</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>2702909.488774863</v>
+        <v>20.79533096907662</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>3192124.737882067</v>
+        <v>20.82779173991788</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>55174.42491042925</v>
+        <v>20.66119926729583</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>2098090.717313348</v>
+        <v>20.76456036565022</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>2390560.28658004</v>
+        <v>20.80378673973282</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>22562.37833821805</v>
+        <v>20.64068537518028</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>1659746.81100641</v>
+        <v>20.74251753627756</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>2017465.668650703</v>
+        <v>20.77534290790934</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>434672.9341109328</v>
+        <v>20.63614523954492</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>2483842.008554075</v>
+        <v>20.7245141241103</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>2758639.362172515</v>
+        <v>20.76520345837674</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>-183026.5203773139</v>
+        <v>20.69829838081409</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>3539780.271371108</v>
+        <v>20.76758079243317</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>4298974.24072488</v>
+        <v>20.79672183218786</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>2970118.156320545</v>
+        <v>20.81693793939106</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>3415999.826002671</v>
+        <v>20.86118853480654</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>3755640.952975784</v>
+        <v>20.89950145009981</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>371540.4171650862</v>
+        <v>20.69506013979791</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>2640241.406729543</v>
+        <v>20.82020752372305</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>3086207.996860217</v>
+        <v>20.8704655726554</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>-998196.708475571</v>
+        <v>20.60409435194254</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>788726.3659784796</v>
+        <v>20.69070876980722</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>1463878.119589296</v>
+        <v>20.71195901095199</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>-1569905.845653326</v>
+        <v>20.61148032870869</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>757745.8761664837</v>
+        <v>20.68187721820757</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>1062811.964916409</v>
+        <v>20.70992594739468</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>-956717.85734733</v>
+        <v>20.66178194429741</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>3045471.683574242</v>
+        <v>20.71662014868036</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>3355662.622181301</v>
+        <v>20.73553301359122</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>2246737.496233751</v>
+        <v>20.7338973696586</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>2531881.678984383</v>
+        <v>20.76466235035844</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>2609069.472719096</v>
+        <v>20.78701865267403</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>-768207.6995063737</v>
+        <v>20.62479741839967</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>1056366.232385236</v>
+        <v>20.72005405492095</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>1441273.307604342</v>
+        <v>20.75527351358136</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>-446073.452765762</v>
+        <v>20.59100091971084</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>694306.5039362416</v>
+        <v>20.71823544867419</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>976232.3713240697</v>
+        <v>20.75487621108389</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>-894709.9609036343</v>
+        <v>20.57371034521035</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>219727.5732007281</v>
+        <v>20.68223167589095</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>616893.1704225587</v>
+        <v>20.72844887165991</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-779199.898834559</v>
+        <v>20.65045965316186</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>1175516.839204089</v>
+        <v>20.73499273245277</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>1786559.4039705</v>
+        <v>20.7673329894367</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>819104.0202936189</v>
+        <v>20.76471208534076</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>1267049.916559636</v>
+        <v>20.82152543902361</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>1415043.792415293</v>
+        <v>20.86345387426611</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>-524212.2455697151</v>
+        <v>20.62169334907948</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>812036.4206932214</v>
+        <v>20.77601546882297</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>1045741.591517513</v>
+        <v>20.8299167459815</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>-411115.6002459832</v>
+        <v>20.60133303149707</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>588971.9906146432</v>
+        <v>20.75043283407781</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>1087634.840606856</v>
+        <v>20.79618801579383</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>-896375.48364288</v>
+        <v>20.58554057501764</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>279086.350283735</v>
+        <v>20.71727015059688</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>678432.1233874141</v>
+        <v>20.77421598776996</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>-753287.8678613196</v>
+        <v>20.68004563759043</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>1278061.51340412</v>
+        <v>20.78357390981784</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>2056473.660518101</v>
+        <v>20.82424175277118</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>1161101.802890141</v>
+        <v>20.84993834938414</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>1621185.150411312</v>
+        <v>20.91607549520461</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>1911426.77406307</v>
+        <v>20.96622670508672</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>-421055.6620153922</v>
+        <v>20.67006280817241</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>1118070.633595195</v>
+        <v>20.85682024502041</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>1472084.997995191</v>
+        <v>20.92604111077761</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>-671633.9614633009</v>
+        <v>20.58415830072816</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-715693.0952737801</v>
+        <v>20.66200258439298</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>-359315.531267555</v>
+        <v>20.68289522474987</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>-1311398.533330054</v>
+        <v>20.58949815822143</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-663638.5825126808</v>
+        <v>20.65030691621297</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>-582037.3764316135</v>
+        <v>20.67773440317747</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>-1041549.803263088</v>
+        <v>20.63602175535097</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>611519.4337028603</v>
+        <v>20.6831093628269</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>749812.9926420621</v>
+        <v>20.70163278446103</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>233975.8311976893</v>
+        <v>20.69168449689713</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>461198.8636912974</v>
+        <v>20.71792355280668</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>612853.4552207119</v>
+        <v>20.74143189330037</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>-563717.9415497696</v>
+        <v>20.59355598389768</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>-373177.0081011723</v>
+        <v>20.67560190084529</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>13392.41522871397</v>
+        <v>20.71077551127614</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>-540653.7332265589</v>
+        <v>20.57384193452017</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-40449.12557472898</v>
+        <v>20.68943947112725</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>641549.0515986689</v>
+        <v>20.72599500034223</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-953828.0000862768</v>
+        <v>20.55557629834191</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>-533565.8518388254</v>
+        <v>20.65144162407386</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>284428.5333550355</v>
+        <v>20.69731631186839</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>-888795.7350619199</v>
+        <v>20.62660760569781</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>175651.2730647071</v>
+        <v>20.70088603982555</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>1218476.518460282</v>
+        <v>20.73312291166634</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>234697.9499248706</v>
+        <v>20.7209827341164</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>661026.6292057498</v>
+        <v>20.77188825688409</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>1058675.563858555</v>
+        <v>20.81533682271408</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>-486351.4560043926</v>
+        <v>20.59147844478475</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>343065.9625982228</v>
+        <v>20.72814061219033</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>814443.3686691097</v>
+        <v>20.78267068373043</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>-187736.9509596689</v>
+        <v>20.58351769166966</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>366305.3441908786</v>
+        <v>20.71963145152299</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>1011203.082149876</v>
+        <v>20.76521586087739</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>-700039.9809772207</v>
+        <v>20.56738962706306</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>-1667.175488635116</v>
+        <v>20.68496676359466</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>578073.9821606674</v>
+        <v>20.74144499399099</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>-565331.2700103661</v>
+        <v>20.65516194881483</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>825325.7737491574</v>
+        <v>20.74718808557755</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>1720363.109103801</v>
+        <v>20.78767099837846</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>823928.0690867321</v>
+        <v>20.80264088098958</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>1085989.244567506</v>
+        <v>20.86192183930327</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>1434574.989906287</v>
+        <v>20.91363507197175</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>-364325.2015733219</v>
+        <v>20.63737659845702</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>671535.0921948537</v>
+        <v>20.80435698326507</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>1229903.139684656</v>
+        <v>20.87416252805534</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>-1227520.008484864</v>
+        <v>20.62367923707654</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>631772.1268656779</v>
+        <v>20.68143487734814</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>1369894.575784068</v>
+        <v>20.6968469651918</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>-2603251.688202883</v>
+        <v>20.6311786315532</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>1256420.143532418</v>
+        <v>20.67652037740964</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>1657093.692026615</v>
+        <v>20.69673412499578</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>-1663024.92873589</v>
+        <v>20.66372467640564</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>4360444.467986866</v>
+        <v>20.69890369317987</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>4715376.983249177</v>
+        <v>20.71261634524394</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>1817855.002878635</v>
+        <v>20.70870341365776</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>2522973.958885006</v>
+        <v>20.72801671495065</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>3102221.003808752</v>
+        <v>20.74617937172042</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>-661936.5424429316</v>
+        <v>20.63742387351687</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>1103362.020945938</v>
+        <v>20.69851682857405</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>2735769.150500386</v>
+        <v>20.72452504023709</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>-931414.2230759219</v>
+        <v>20.61884513079182</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>423431.2301691631</v>
+        <v>20.70420806178843</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>1453542.848702366</v>
+        <v>20.73076917954398</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>-1375679.097418998</v>
+        <v>20.60992475821682</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>7225.660309140188</v>
+        <v>20.68087995578617</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>1312521.308140975</v>
+        <v>20.71421500531688</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-1729797.495190989</v>
+        <v>20.65998745052465</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>1146066.434927258</v>
+        <v>20.71503742602118</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>2743095.422187568</v>
+        <v>20.73849025171378</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>704393.7131456808</v>
+        <v>20.73395397996186</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>1631705.246506921</v>
+        <v>20.77129913138724</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>2395419.402926106</v>
+        <v>20.80410632412541</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>-865188.267684538</v>
+        <v>20.63996451059363</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>1088798.70845216</v>
+        <v>20.74095929847837</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>1675985.924679104</v>
+        <v>20.7806255975945</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>-867990.1764996866</v>
+        <v>20.62496424823173</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>488903.9296826267</v>
+        <v>20.7249892590094</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>1248009.197569686</v>
+        <v>20.75806749556955</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>-1295475.805583483</v>
+        <v>20.61818542083033</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>393279.3848251941</v>
+        <v>20.70462273904519</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>1078001.958348545</v>
+        <v>20.7456024228264</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>-1524302.03824806</v>
+        <v>20.68040316769592</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>1759983.342410555</v>
+        <v>20.74810212829528</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>2966678.570589036</v>
+        <v>20.77749732191963</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>1787443.102228514</v>
+        <v>20.79337872698329</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>2215166.649689975</v>
+        <v>20.83660672236657</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>2781896.564476352</v>
+        <v>20.87530459054626</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>-657319.2611954251</v>
+        <v>20.67349200529894</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>1462616.770423508</v>
+        <v>20.79609523128283</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>2190919.370943252</v>
+        <v>20.8467765271716</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>-432041.789966899</v>
+        <v>20.62254981517188</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>678463.4969151661</v>
+        <v>20.71331781566406</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>1442197.58735515</v>
+        <v>20.73493249088245</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>-980303.1600213541</v>
+        <v>20.63895701439789</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>1565865.12973904</v>
+        <v>20.71209505386985</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>1923803.754744788</v>
+        <v>20.74064655560971</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>-340289.0580408131</v>
+        <v>20.68916489478853</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>3291791.756300046</v>
+        <v>20.74625158337066</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>3723766.884318233</v>
+        <v>20.76539211075454</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>2279021.068568442</v>
+        <v>20.76832801530364</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>2198328.170156071</v>
+        <v>20.79967693619665</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>2463944.776210798</v>
+        <v>20.82342039730358</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>-405894.9397956248</v>
+        <v>20.65532620971138</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>355366.0936819756</v>
+        <v>20.75349035488125</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>1785428.574897406</v>
+        <v>20.79046596208526</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>94893.62031054116</v>
+        <v>20.61880499849646</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>862725.4021804375</v>
+        <v>20.75233857241885</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>914332.9439710068</v>
+        <v>20.78958023463515</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>-559977.3872242436</v>
+        <v>20.61105222520922</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>471166.8368906911</v>
+        <v>20.72426609316624</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>652067.335106388</v>
+        <v>20.77120333610641</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>-357279.8177741755</v>
+        <v>20.68849893255799</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>1387591.889404107</v>
+        <v>20.77679787203262</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>1676299.687253232</v>
+        <v>20.80950548224563</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>955506.4524552225</v>
+        <v>20.81377056584954</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>1223461.36106073</v>
+        <v>20.87254445350133</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>1320976.710921577</v>
+        <v>20.91648076399228</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>2744.63936912591</v>
+        <v>20.66547611380539</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>923746.2418338156</v>
+        <v>20.82546872406812</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>1090306.860214324</v>
+        <v>20.88138104931103</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>20521.08174384848</v>
+        <v>20.62846236335611</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>775056.9251144968</v>
+        <v>20.78475897833592</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>963918.7005948554</v>
+        <v>20.83134473897046</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>-535353.8010873013</v>
+        <v>20.62295279259985</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>612009.101696995</v>
+        <v>20.76027702374855</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>744260.0499157418</v>
+        <v>20.81820739405634</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>-306482.6026640403</v>
+        <v>20.71895262486161</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>1585944.797961182</v>
+        <v>20.8269699915572</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>1940667.006606048</v>
+        <v>20.86821006099622</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>1321176.773074838</v>
+        <v>20.90229002240328</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>1472748.816854059</v>
+        <v>20.97048440206122</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>1595072.681691848</v>
+        <v>21.02273387684534</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>-113938.3102922654</v>
+        <v>20.71490178308045</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>990723.2895184896</v>
+        <v>20.90856407228515</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>1252774.755576109</v>
+        <v>20.98028250914784</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>-1012030.830578787</v>
+        <v>20.60525857507508</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>516140.477334912</v>
+        <v>20.69410273481354</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>1114685.831792257</v>
+        <v>20.7159371109878</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>-1361584.012394751</v>
+        <v>20.61397884584079</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>827973.5778489806</v>
+        <v>20.68635653192299</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>1063686.821161299</v>
+        <v>20.71513273316623</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>-964104.7599200985</v>
+        <v>20.66494540137187</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>2749952.251623181</v>
+        <v>20.721377648664</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>3038868.958125886</v>
+        <v>20.74082303461977</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>2067466.559366665</v>
+        <v>20.73952683901347</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>2468386.655765397</v>
+        <v>20.77104915682725</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>2303730.622603671</v>
+        <v>20.79425922821548</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>-779314.5483477769</v>
+        <v>20.62751533720591</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>951337.0252775556</v>
+        <v>20.72542162971751</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>1242471.650580574</v>
+        <v>20.76166260163642</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>-425888.734328384</v>
+        <v>20.59302285403524</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>648471.2117992116</v>
+        <v>20.72341266865564</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>950514.4102046804</v>
+        <v>20.76102005607685</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>-791011.5002562189</v>
+        <v>20.57682163404525</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>269235.6310392591</v>
+        <v>20.68822452081515</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>722821.9524341099</v>
+        <v>20.73561482290868</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>-602643.5923588658</v>
+        <v>20.65471203038856</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>1268056.590326501</v>
+        <v>20.74155104606519</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>1935376.129874471</v>
+        <v>20.77476861834848</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>918421.9175760249</v>
+        <v>20.77260514155884</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>1368524.368558101</v>
+        <v>20.83074624036623</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>1510962.091430535</v>
+        <v>20.87401652217098</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>-402063.8794646108</v>
+        <v>20.62574077319272</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>950345.8750953133</v>
+        <v>20.78407933047255</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>1123353.847152618</v>
+        <v>20.83948015472109</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>-318435.6599132325</v>
+        <v>20.59890189329964</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>507395.7602725411</v>
+        <v>20.75128377158988</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>1013736.536748133</v>
+        <v>20.79830303633766</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>-812411.3371138007</v>
+        <v>20.58388855678376</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>149755.7762873132</v>
+        <v>20.71860464304096</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>611837.4698208565</v>
+        <v>20.77707298045094</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>-674560.470642541</v>
+        <v>20.67996970650795</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>1101111.833599298</v>
+        <v>20.78588600794967</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>1923408.462094524</v>
+        <v>20.82771008270847</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>1133665.19218908</v>
+        <v>20.85332458881679</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>1451003.004587052</v>
+        <v>20.92078795940781</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>1777454.835723908</v>
+        <v>20.97253134462788</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>-410707.6114489303</v>
+        <v>20.66900687174802</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>869381.915733084</v>
+        <v>20.85994503686171</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>1282319.505396708</v>
+        <v>20.93116304798754</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.475</v>
+        <v>0.5629999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.958</v>
+        <v>16.137</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.518</v>
+        <v>0.759</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34.655</v>
+        <v>13.817</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.703</v>
+        <v>0.9389999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.437</v>
+        <v>6.548</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>20.59630263608167</v>
+        <v>6.098007228417352</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>20.6761123105985</v>
+        <v>11.58873359078657</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>20.69735604896837</v>
+        <v>15.29773423774534</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>20.60448862498975</v>
+        <v>-4.038384969815041</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.66714036816723</v>
+        <v>13.54929231556516</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>20.69505668495148</v>
+        <v>14.73157858657673</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>20.65076085790653</v>
+        <v>-1.026256708996375</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>20.69935640602624</v>
+        <v>27.71935522675058</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>20.71825753019361</v>
+        <v>28.92039532487458</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>20.71210983501254</v>
+        <v>24.07177454176946</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>20.73898832588944</v>
+        <v>30.72209038433547</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>20.76385230506025</v>
+        <v>33.94729868701066</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>20.61358010942172</v>
+        <v>4.412902478469913</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>20.69805160759002</v>
+        <v>15.99014215550087</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>20.73392656865765</v>
+        <v>25.99413253879868</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>20.592097719382</v>
+        <v>11.79117337705368</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>20.71022906072675</v>
+        <v>26.89726518067465</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>20.74698262572175</v>
+        <v>38.11530559860137</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>20.57728864001746</v>
+        <v>-0.9236548258419965</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>20.67553481332297</v>
+        <v>15.48776152693512</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>20.72172058299795</v>
+        <v>30.69860790434091</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>20.6480849499537</v>
+        <v>2.583592412118293</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>20.724299742011</v>
+        <v>32.43994663060845</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>20.75676028415319</v>
+        <v>50.08838564149085</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>20.75059130048494</v>
+        <v>34.89287849130305</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>20.80259088048827</v>
+        <v>52.55610650697491</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>20.84770415352495</v>
+        <v>62.57195407430039</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>20.62067391760754</v>
+        <v>8.160105314798752</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>20.76058736978393</v>
+        <v>42.64539373766517</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>20.81550687666515</v>
+        <v>52.83244816320646</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>20.60347064969372</v>
+        <v>14.73959217598273</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>20.7420950049937</v>
+        <v>33.95091272497707</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>20.78780895571177</v>
+        <v>43.39748509935656</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>20.59178773927959</v>
+        <v>1.498472820660393</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>20.71169281241863</v>
+        <v>27.73773667074216</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>20.76839956680537</v>
+        <v>35.90442902660784</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>20.67933731812224</v>
+        <v>5.183777934837828</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>20.7732499327504</v>
+        <v>47.31621740803109</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>20.81388378539377</v>
+        <v>61.51926561146505</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>20.83655645103235</v>
+        <v>60.37975306510307</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>20.89678449073278</v>
+        <v>73.25636089128386</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>20.95006794248912</v>
+        <v>79.80314761601397</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>20.67063382084145</v>
+        <v>14.23833973067301</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>20.84076969184288</v>
+        <v>60.33647179330237</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>20.91085674054984</v>
+        <v>70.61856506028516</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>20.6064898472716</v>
+        <v>5.761382442209015</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>20.70748279716949</v>
+        <v>30.03721642894966</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>20.73008941390355</v>
+        <v>39.55095795419488</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>20.61931887184441</v>
+        <v>-0.4706901734943258</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>20.70254003560485</v>
+        <v>38.54397301406279</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>20.73257391796814</v>
+        <v>43.8409850140817</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>20.67600698233218</v>
+        <v>6.534731095075067</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>20.74106393753811</v>
+        <v>60.6453005140286</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>20.76111143515707</v>
+        <v>65.65474598164994</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>20.76373392174117</v>
+        <v>59.50463834675889</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>20.80125243153226</v>
+        <v>68.59532697119643</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>20.8238508427171</v>
+        <v>66.01843410075202</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>20.63855735622221</v>
+        <v>7.059382030196065</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>20.75093044961724</v>
+        <v>42.45155032653794</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>20.78860743238677</v>
+        <v>50.98039140601751</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>20.59101528147253</v>
+        <v>9.332430560166513</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>20.73913989895796</v>
+        <v>35.10089266534045</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>20.77820293395215</v>
+        <v>42.96515316861318</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>20.57685245595079</v>
+        <v>-5.034103818391714</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>20.70459492216079</v>
+        <v>24.93684212100813</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>20.75404843359376</v>
+        <v>37.7156474075534</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>20.6638442227519</v>
+        <v>2.746626795806161</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>20.76366631535356</v>
+        <v>47.33086153264458</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>20.79799588670482</v>
+        <v>61.6036273758481</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>20.80120391304599</v>
+        <v>51.00849130334468</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>20.86925086603221</v>
+        <v>66.54533989877473</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>20.9126740907443</v>
+        <v>74.30607179306898</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>20.63739090200953</v>
+        <v>7.465499468953686</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>20.81832508980429</v>
+        <v>56.79344920004088</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>20.87571157776706</v>
+        <v>62.86480457225695</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>20.61078446890787</v>
+        <v>8.573424624088268</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>20.78439430819961</v>
+        <v>36.53920361764599</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>20.83328372080162</v>
+        <v>46.56386960345381</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>20.59853843836538</v>
+        <v>-5.108322613565637</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>20.75338757346076</v>
+        <v>33.6583170807961</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>20.81443128630534</v>
+        <v>42.95845059321542</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>20.7056712948742</v>
+        <v>4.556781213245049</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>20.82769439334454</v>
+        <v>59.5067608099561</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>20.87100478891874</v>
+        <v>74.79760873147194</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>20.90794088891969</v>
+        <v>68.52962046887936</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>20.98704221110115</v>
+        <v>82.93094104071062</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>21.03920145124222</v>
+        <v>92.24927616915306</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>20.70241671810922</v>
+        <v>7.095893670711774</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>20.92122171544064</v>
+        <v>70.41456266834166</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>20.99510603309168</v>
+        <v>76.13638953826711</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>20.60060107129876</v>
+        <v>13.12992213229813</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>20.70083723453395</v>
+        <v>29.38393244643166</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>20.72272231942343</v>
+        <v>35.19616908770924</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>20.61254493689501</v>
+        <v>3.932026739814454</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>20.69487953006767</v>
+        <v>33.37692597553654</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>20.72406501907586</v>
+        <v>34.95579290440671</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>20.66935808465458</v>
+        <v>9.903331211336273</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>20.73367455042075</v>
+        <v>55.1621096085082</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>20.75301405444213</v>
+        <v>56.29537496513029</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>20.75614217668314</v>
+        <v>54.77300459509391</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>20.79308738465997</v>
+        <v>60.90990556303648</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>20.81503273914725</v>
+        <v>57.81394671209309</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>20.6316894016456</v>
+        <v>10.45722144906795</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>20.74289473678771</v>
+        <v>37.33613201534553</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>20.77943456492428</v>
+        <v>41.41788301961999</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>20.59314787613763</v>
+        <v>19.14733285369394</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>20.74042287632045</v>
+        <v>43.32415083869313</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>20.77838578069066</v>
+        <v>46.2857558855818</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>20.57862170485733</v>
+        <v>4.27148291479582</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>20.70536112709581</v>
+        <v>33.58966479175306</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>20.75352722600194</v>
+        <v>40.37039719621853</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>20.66543329751832</v>
+        <v>12.87488316881922</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>20.76441606288405</v>
+        <v>56.71590388430243</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>20.79767328992199</v>
+        <v>65.4292366879356</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>20.80356521485752</v>
+        <v>58.65974373801512</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>20.87090112335197</v>
+        <v>70.74953529630517</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>20.91328196784757</v>
+        <v>74.23208899177558</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>20.64056702294348</v>
+        <v>16.813784744514</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>20.82014821572909</v>
+        <v>60.09498690648761</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>20.87581052335417</v>
+        <v>62.50906714556071</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>20.61312127953633</v>
+        <v>17.19951286514119</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>20.78586744070826</v>
+        <v>44.14298257980715</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>20.83367691240147</v>
+        <v>49.53703800326706</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>20.60047204074828</v>
+        <v>0.5977349039145317</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>20.75429940086602</v>
+        <v>39.57005083925533</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>20.81408297277657</v>
+        <v>42.91485686021406</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>20.70736614362088</v>
+        <v>10.94200518304726</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>20.82853353968743</v>
+        <v>66.07875845621066</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>20.87079302598093</v>
+        <v>75.9291302845352</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>20.91037549595528</v>
+        <v>75.86078216235009</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>20.98874775359734</v>
+        <v>86.13380477602394</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>21.039800542027</v>
+        <v>92.22852471669407</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>20.70548762139734</v>
+        <v>15.79379527795555</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>20.92292501796621</v>
+        <v>74.09695305145547</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>20.99510293615194</v>
+        <v>77.80005101651366</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>20.58333702009092</v>
+        <v>9.588223811399606</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>20.66227476419074</v>
+        <v>14.41366420466309</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>20.68292317977889</v>
+        <v>17.15719414327724</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>20.58954753799304</v>
+        <v>-1.15232724023948</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>20.65077043516611</v>
+        <v>13.07119089167582</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>20.67798264644683</v>
+        <v>13.88262920531449</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>20.63586962581693</v>
+        <v>2.567802277964176</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>20.68322430003631</v>
+        <v>28.44310142399765</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>20.70151186614839</v>
+        <v>28.68196322318948</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>20.69135603740789</v>
+        <v>27.0605369046061</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>20.71785504554622</v>
+        <v>32.06724264516998</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>20.74218908479152</v>
+        <v>36.92545800185422</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>20.59427869606523</v>
+        <v>30.33024799042962</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>20.67705501459592</v>
+        <v>39.38373479983606</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>20.71173731183586</v>
+        <v>46.49758563759637</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>20.57144223967312</v>
+        <v>14.0818074665135</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>20.68844545150361</v>
+        <v>25.20027396579067</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>20.72432880314858</v>
+        <v>36.53709453118205</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>20.55352463797956</v>
+        <v>1.453360105972521</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>20.64989517245284</v>
+        <v>11.72178474262517</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>20.69505375656192</v>
+        <v>26.79819108688947</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>20.69922594053625</v>
+        <v>27.80695054479228</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>20.7307916619411</v>
+        <v>44.49897480608209</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>20.71913147786078</v>
+        <v>29.03165124663895</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>20.77077179342049</v>
+        <v>44.83870043249581</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>20.81520066983317</v>
+        <v>56.06577950185468</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>20.59119317268115</v>
+        <v>14.82025987077844</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>20.72896940460159</v>
+        <v>41.83191289415507</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>20.78213778468714</v>
+        <v>49.17872679715389</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>20.58610622675019</v>
+        <v>20.48336608270057</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>20.72386116735218</v>
+        <v>32.39794417875972</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>20.76879281448002</v>
+        <v>43.4921315799518</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>20.57113621028468</v>
+        <v>3.297489669773196</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>20.68943141642491</v>
+        <v>19.29812853510123</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>20.74520843968236</v>
+        <v>29.78574623445791</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>20.65924944570519</v>
+        <v>9.387406533006658</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>20.75174697186617</v>
+        <v>42.45230303593179</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>20.79156039485844</v>
+        <v>58.00049152360855</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>20.8096451892671</v>
+        <v>49.80391358507867</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>20.86973304221159</v>
+        <v>61.7700583803672</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>20.92228028217542</v>
+        <v>71.81695503588355</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>20.64553847004636</v>
+        <v>24.48330839533158</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>20.81392455983312</v>
+        <v>57.72076149188661</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>20.88235683509012</v>
+        <v>66.73426939193249</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>20.61122974383659</v>
+        <v>10.24852751914936</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>20.69440450036806</v>
+        <v>26.97963757403646</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>20.71498824797556</v>
+        <v>30.23528201410202</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>20.62232922580912</v>
+        <v>4.086923079519201</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>20.68892480978557</v>
+        <v>35.31827408966384</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>20.71606304803701</v>
+        <v>35.94362497165316</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>20.66899228667405</v>
+        <v>13.23376841697197</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>20.72084734206727</v>
+        <v>56.62066139031676</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>20.73913714821485</v>
+        <v>56.44590377492779</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>20.73741317992721</v>
+        <v>46.00984963604665</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>20.76665049053964</v>
+        <v>51.31001287443829</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>20.79052953153084</v>
+        <v>53.96138420177586</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>20.63483463852902</v>
+        <v>13.13622669921581</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>20.7244257136421</v>
+        <v>29.00239669138022</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>20.75908589023713</v>
+        <v>37.23966155990814</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>20.62046075760011</v>
+        <v>21.56056347873665</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>20.74322899010044</v>
+        <v>44.09779670735215</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>20.77854939500225</v>
+        <v>47.10414869026805</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>20.61014673761197</v>
+        <v>8.040318017728563</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>20.71378844809229</v>
+        <v>35.2372671134267</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>20.75828021050775</v>
+        <v>41.73550835894932</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>20.76209546229474</v>
+        <v>57.36042669042464</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>20.7932003256921</v>
+        <v>65.57186520400549</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>20.79622737467185</v>
+        <v>59.24992812356436</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>20.85138470822002</v>
+        <v>75.34492681671765</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>20.89478813436276</v>
+        <v>80.84427529855128</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>20.66120801244268</v>
+        <v>29.74434179641131</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>20.80812723301914</v>
+        <v>66.26510757924169</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>20.86061085205325</v>
+        <v>67.45391324506753</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>20.62800592479225</v>
+        <v>19.47746814113722</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>20.77134597919542</v>
+        <v>41.22708704528277</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>20.81560228057493</v>
+        <v>47.37455015408516</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>20.62025585664701</v>
+        <v>3.896463631172363</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>20.74564193731249</v>
+        <v>33.47907048855617</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>20.80062373796685</v>
+        <v>39.47134918819414</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>20.70862873005594</v>
+        <v>12.13015175154631</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>20.80709332105084</v>
+        <v>59.11500782784347</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>20.84634463121488</v>
+        <v>70.04529885354577</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>20.87756097231144</v>
+        <v>72.04178929304004</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>20.94116734862935</v>
+        <v>83.45998692507362</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>20.99250222148629</v>
+        <v>88.07630504410565</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>20.70669832975334</v>
+        <v>27.58205086019985</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>20.88400164613064</v>
+        <v>71.24307819545831</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>20.95154310176314</v>
+        <v>77.15691367259197</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>20.57442456466029</v>
+        <v>1.137460159448352</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>20.70497483954737</v>
+        <v>18.335757607753</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>20.73191521407551</v>
+        <v>29.24992093928076</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>20.59416422150558</v>
+        <v>1.857370428862847</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>20.70258274442346</v>
+        <v>36.08611069696848</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>20.73864166084946</v>
+        <v>38.97331769228529</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>20.66688761898852</v>
+        <v>11.62550297418525</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>20.75188796035141</v>
+        <v>60.1076920790162</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>20.77570428670962</v>
+        <v>63.93656597677242</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>20.77739973548717</v>
+        <v>51.83072348117209</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>20.82695043257274</v>
+        <v>55.06707542169701</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>20.85524076856961</v>
+        <v>58.23496379465234</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>20.6158719876851</v>
+        <v>5.027683421847737</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>20.76145550205388</v>
+        <v>16.67761090019383</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>20.807025805837</v>
+        <v>26.24762872297202</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>20.59724142947682</v>
+        <v>14.23933515722733</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>20.78928691423529</v>
+        <v>47.49338817103399</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>20.83560003184626</v>
+        <v>49.86288917500198</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>20.587386585058</v>
+        <v>-3.059959348427562</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>20.7542945800795</v>
+        <v>39.76628216321255</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>20.81317022785313</v>
+        <v>43.92084656388067</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>20.69790700300659</v>
+        <v>9.019437225083362</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>20.82869520994421</v>
+        <v>66.54915954221433</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>20.86918076461724</v>
+        <v>72.18570486917702</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>20.88422017952079</v>
+        <v>56.1626489827776</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>20.97385496211664</v>
+        <v>75.26110163425565</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>21.02748949475347</v>
+        <v>80.40775035548268</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>20.67279428523331</v>
+        <v>18.22126162501175</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>20.90771463499972</v>
+        <v>70.22888095467187</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>20.97610109026195</v>
+        <v>70.94968749664608</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>20.6148910633138</v>
+        <v>14.62330244148754</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>20.60744843159207</v>
+        <v>-4.848820671267386</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>20.8080712099106</v>
+        <v>37.46933229079563</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>20.88128777733524</v>
+        <v>42.15274792535117</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>20.74364570268986</v>
+        <v>8.125997926077286</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>20.90204458318846</v>
+        <v>67.48984217676903</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>20.95362874136712</v>
+        <v>76.41920337897791</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>21.01057046442164</v>
+        <v>72.83866959408212</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>21.11391204654597</v>
+        <v>87.64372949172437</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>21.17797943749092</v>
+        <v>89.70075987091062</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>20.74670283125459</v>
+        <v>16.08755863219236</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>21.02880101580209</v>
+        <v>74.62535927059724</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>21.11763369557253</v>
+        <v>77.21652151260213</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>20.53331834589525</v>
+        <v>8.170850134940816</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>20.65062471452195</v>
+        <v>3.779845911543074</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>20.67883843288568</v>
+        <v>9.013482950591165</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>20.54427604933552</v>
+        <v>-2.413671191829881</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>20.63721119130492</v>
+        <v>5.954083949105407</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>20.67473902548469</v>
+        <v>5.33120644838684</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>20.61451885979039</v>
+        <v>0.504455592160852</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>20.68673139958684</v>
+        <v>19.64691726747953</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>20.71166598689722</v>
+        <v>20.76531886558867</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>20.70244644971236</v>
+        <v>22.80879518145614</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>20.74295825730849</v>
+        <v>28.17035359369365</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>20.77370105473537</v>
+        <v>29.38262901044286</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>20.55665498393762</v>
+        <v>4.515530056477129</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>20.68203639477722</v>
+        <v>6.642688893307426</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>20.7301179286335</v>
+        <v>9.809406230022335</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>20.52438102153731</v>
+        <v>10.20660604889471</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>20.69830219038722</v>
+        <v>23.68034303221189</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>20.74813853690043</v>
+        <v>34.83338877911234</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>20.50190355328327</v>
+        <v>-1.593815315138563</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>20.64773083450672</v>
+        <v>15.04525267035527</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>20.71075050779744</v>
+        <v>29.25698644671018</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>20.60889618285993</v>
+        <v>6.06172209198402</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>20.72222858869399</v>
+        <v>34.21577800898896</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>20.76600228659596</v>
+        <v>51.46848284247771</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>20.75776888619458</v>
+        <v>33.88206567429739</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>20.83529921940726</v>
+        <v>50.96657056457862</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>20.893428332939</v>
+        <v>57.23880616360006</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>20.56624264711736</v>
+        <v>9.051044390395703</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>20.77360806335464</v>
+        <v>41.24406696707436</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>20.84804955607769</v>
+        <v>50.41161054982105</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>20.55364660821022</v>
+        <v>9.988211922397438</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>20.75901788041479</v>
+        <v>28.54053928536862</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>20.82110825858641</v>
+        <v>39.90191400267443</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>20.53520907601337</v>
+        <v>-1.22840047153495</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>20.71441541541654</v>
+        <v>28.30558607804184</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>20.79189793464977</v>
+        <v>36.77412042310009</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>20.66667058133717</v>
+        <v>5.941661991778073</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>20.80731016711992</v>
+        <v>48.50528707253247</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>20.86228579601716</v>
+        <v>63.35739999629733</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>20.89745631229735</v>
+        <v>59.9236412398617</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>20.9879340596166</v>
+        <v>73.1211369597907</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>21.0572740234253</v>
+        <v>79.06104453590802</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>20.65286830462499</v>
+        <v>14.0513982735568</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>20.90681318629887</v>
+        <v>60.25357044661467</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>21.00207096155277</v>
+        <v>71.18614099391559</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>20.55413296054325</v>
+        <v>2.132324641562011</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>20.64794979844494</v>
+        <v>6.366328720547731</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>20.67148510492933</v>
+        <v>8.596089077292728</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>20.56149654504687</v>
+        <v>-3.785591343056296</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>20.63591131495475</v>
+        <v>9.450492671134494</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>20.66696497843471</v>
+        <v>9.452635239548702</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>20.61674512473181</v>
+        <v>-6.564590283634686</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>20.6745689025801</v>
+        <v>20.45674305393057</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>20.69546089885852</v>
+        <v>19.51550239146539</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>20.68277006771471</v>
+        <v>14.94864186980164</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>20.71579239849623</v>
+        <v>18.23680858870761</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>20.74276519691543</v>
+        <v>21.96903459355821</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>20.56652045190888</v>
+        <v>0.4404761691690204</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>20.66693227700764</v>
+        <v>6.285968337109942</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>20.70645229688449</v>
+        <v>9.208583059190136</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>20.539829667745</v>
+        <v>2.921005629297021</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>20.67844592341016</v>
+        <v>9.014072607660252</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>20.71895882097592</v>
+        <v>16.04605885989682</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>20.52012505073288</v>
+        <v>-2.97545106923387</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>20.63626819170739</v>
+        <v>1.661831780590774</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>20.68732651118134</v>
+        <v>13.00575562565497</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>20.60452252773818</v>
+        <v>-4.442858362965808</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>20.69477899707542</v>
+        <v>16.00573635922641</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>20.73043957343805</v>
+        <v>29.00060228802998</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>20.71769132329314</v>
+        <v>16.3128203123122</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>20.78026445737215</v>
+        <v>30.80520727903776</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>20.8296419776018</v>
+        <v>41.21876754750569</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>20.56477253973008</v>
+        <v>-0.6523177373407734</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>20.73004075334685</v>
+        <v>16.94599646568246</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>20.79006985164153</v>
+        <v>20.58005796652678</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>20.54843934691976</v>
+        <v>3.712345598841107</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>20.71084628709801</v>
+        <v>10.3419108111967</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>20.76169804794812</v>
+        <v>25.21838654470323</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>20.53136594771659</v>
+        <v>-4.202521925566138</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>20.67266134840365</v>
+        <v>5.747298802972754</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>20.73585945019381</v>
+        <v>21.99517983226715</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>20.63554121994321</v>
+        <v>-2.592264328872432</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>20.74636189184073</v>
+        <v>25.66643090803159</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>20.79145349523131</v>
+        <v>46.34566583115926</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>20.81074927600309</v>
+        <v>33.53112949319673</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>20.88319777339665</v>
+        <v>46.46126097005185</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>20.94172916498762</v>
+        <v>61.2685626272952</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>20.61659341449382</v>
+        <v>0.5674586545899629</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>20.81702289521201</v>
+        <v>26.59949840218105</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>20.89443865367134</v>
+        <v>39.49460261131556</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>20.61808516110992</v>
+        <v>5.930188078511389</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>20.7409834146894</v>
+        <v>24.77878395288441</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>20.76712337784766</v>
+        <v>40.44554584245626</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>20.64204008764591</v>
+        <v>-0.4544079441040267</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>20.74482688942069</v>
+        <v>44.2493788004101</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>20.77967666281239</v>
+        <v>50.13044388545076</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>20.70917130566583</v>
+        <v>8.07676856011785</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>20.78992150748718</v>
+        <v>64.88946528165164</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>20.81316070055904</v>
+        <v>72.46621226650265</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>20.82664652730526</v>
+        <v>66.52287431942793</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>20.87295072435474</v>
+        <v>72.96941245920391</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>20.89990707500616</v>
+        <v>72.23701647065452</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>20.67571034247872</v>
+        <v>11.93467784109293</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>20.81349135755279</v>
+        <v>38.98173090927823</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>20.85825203211131</v>
+        <v>60.43028552226725</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>20.61020699482476</v>
+        <v>11.00487747010977</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>20.79016353475025</v>
+        <v>34.45342530488205</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>20.83465486988301</v>
+        <v>38.75560802964505</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>20.6041017145467</v>
+        <v>-3.943373409097411</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>20.76126323247196</v>
+        <v>29.26645268868585</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>20.81774818717552</v>
+        <v>34.3702348517772</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>20.70745441287702</v>
+        <v>3.82190188564952</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>20.83078909793797</v>
+        <v>51.50518960400763</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>20.86988128935239</v>
+        <v>59.56221470005044</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>20.88844400317366</v>
+        <v>49.88417949590579</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>20.97173271207194</v>
+        <v>61.2579395044333</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>21.02239058191738</v>
+        <v>65.0660283300019</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>20.69113047688605</v>
+        <v>13.59758166441628</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>20.9117991663985</v>
+        <v>56.18910822593672</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>20.97850657168396</v>
+        <v>60.50057850881119</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>20.62640498500453</v>
+        <v>10.48487198385752</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>20.83589117167998</v>
+        <v>35.37216226666916</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>20.89156132497121</v>
+        <v>43.35145501909189</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>20.6234875654511</v>
+        <v>-2.855738447362437</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>20.81202285926051</v>
+        <v>38.13924703655218</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>20.88170791697009</v>
+        <v>41.95563845153605</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>20.7502058187722</v>
+        <v>6.703228319929197</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>20.8992278353829</v>
+        <v>63.13863843669097</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>20.94854119336375</v>
+        <v>73.25117391125596</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>21.00577297415727</v>
+        <v>71.66055898300056</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>21.10161171161483</v>
+        <v>82.45833295199955</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>21.16205911048262</v>
+        <v>84.64208867812408</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>20.75937330891976</v>
+        <v>14.21281815005694</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>21.02393622289981</v>
+        <v>70.75442767196998</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>21.10946571941274</v>
+        <v>77.85209433287534</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>20.5429293239415</v>
+        <v>5.137399728643896</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>20.64059233286646</v>
+        <v>7.096475606712069</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>20.66661917857632</v>
+        <v>11.37816838472295</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>20.54416183299529</v>
+        <v>-1.279389202600491</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>20.62092248102509</v>
+        <v>3.304329230171628</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>20.6552056117126</v>
+        <v>6.5426326484263</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>20.60440675086483</v>
+        <v>-0.4099702111620012</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>20.66376269330392</v>
+        <v>16.61364592295572</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>20.6868786639734</v>
+        <v>19.87874684843704</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>20.67068666898286</v>
+        <v>17.23531057003481</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>20.70374309270425</v>
+        <v>21.50499003363856</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>20.73114921170717</v>
+        <v>23.15131539842425</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>20.54666305631142</v>
+        <v>2.316345798184376</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>20.65122138787735</v>
+        <v>10.41466001137579</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>20.69412564705932</v>
+        <v>9.113089555508346</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>20.51803646031809</v>
+        <v>5.046834888558099</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>20.6625042394205</v>
+        <v>12.50648824473318</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>20.70861842758703</v>
+        <v>28.32015453275796</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>20.48843599140606</v>
+        <v>-2.718963024661342</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>20.60857979438995</v>
+        <v>1.649955291619044</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>20.66657593286313</v>
+        <v>23.31138715644379</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>20.57995400828744</v>
+        <v>-1.262193794858778</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>20.67294099016364</v>
+        <v>13.47707378885219</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>20.71370541995758</v>
+        <v>37.66982375084723</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>20.69167338298987</v>
+        <v>16.99534384299609</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>20.75500654020723</v>
+        <v>28.88089094132254</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>20.80722781947957</v>
+        <v>41.38917373336407</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>20.52881183306064</v>
+        <v>-1.487936618053862</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>20.70140359302277</v>
+        <v>20.81181356440494</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>20.769059171997</v>
+        <v>34.64541630724388</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>20.53999272897237</v>
+        <v>9.992406849392983</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>20.7112583035312</v>
+        <v>19.43319036273527</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>20.7683652863849</v>
+        <v>36.97211633962293</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>20.51228453386776</v>
+        <v>3.177662728975125</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>20.66089216148884</v>
+        <v>15.10142211266833</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>20.73184435853528</v>
+        <v>34.04838218432713</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>20.62510286900032</v>
+        <v>5.625567947523866</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>20.74138411317596</v>
+        <v>29.6587603356386</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>20.79219935245293</v>
+        <v>55.07887397650898</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>20.80574111076852</v>
+        <v>36.10484540365034</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>20.88035938688571</v>
+        <v>43.67400390247044</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>20.94292497043316</v>
+        <v>69.24398135293663</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>20.59812382959548</v>
+        <v>7.681026896330643</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>20.81040575946117</v>
+        <v>37.74648362727299</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>20.89667275807109</v>
+        <v>54.22856206100682</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>20.58487034260665</v>
+        <v>-3.836848328019105</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>20.68630535895862</v>
+        <v>2.623403974607712</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>20.7080936177536</v>
+        <v>4.833167121129346</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>20.59370334125079</v>
+        <v>-7.571436811936596</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>20.67642310631705</v>
+        <v>2.404162643789753</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>20.70555155183583</v>
+        <v>2.595541683271961</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>20.65171837024013</v>
+        <v>-5.789644610943732</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>20.71618623075587</v>
+        <v>21.67086743475334</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>20.73534803807972</v>
+        <v>20.54485988351648</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>20.7327485040625</v>
+        <v>20.08189933067717</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>20.77021752385999</v>
+        <v>20.57552565431993</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>20.79225952872344</v>
+        <v>20.67575728927778</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>20.60583478380203</v>
+        <v>-6.463352223096393</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>20.71782635343541</v>
+        <v>0.8939211385434511</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>20.75371210873489</v>
+        <v>-1.756952595053363</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>20.59741558488789</v>
+        <v>13.15172656762972</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>20.74696979924077</v>
+        <v>37.8442784025276</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>20.7851657159322</v>
+        <v>38.50136182847488</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>20.58078307941437</v>
+        <v>-0.2807233776854652</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>20.70881055235344</v>
+        <v>27.64116524490744</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>20.75729987896888</v>
+        <v>32.50248770117967</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>20.6686616633115</v>
+        <v>8.784367427961868</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>20.76847495351785</v>
+        <v>51.03425648411951</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>20.80181304413493</v>
+        <v>56.63948653700664</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>20.80679993310197</v>
+        <v>47.84001441493989</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>20.87546311699455</v>
+        <v>61.85887559654387</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>20.91847742387324</v>
+        <v>63.49116573256762</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>20.64040665113889</v>
+        <v>11.93329566433868</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>20.82236027233963</v>
+        <v>53.32848650681878</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>20.87756824292623</v>
+        <v>51.8926198433854</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>20.61899583298117</v>
+        <v>15.0605553739775</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>20.79471818487728</v>
+        <v>40.06657423583968</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>20.84313802201675</v>
+        <v>45.19582802252847</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>20.60362349304321</v>
+        <v>-1.702657531200941</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>20.75947362876836</v>
+        <v>31.52666341753345</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>20.82001355219973</v>
+        <v>35.61897603288533</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>20.71241114109235</v>
+        <v>8.819406514913915</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>20.83501552575854</v>
+        <v>58.75895866765975</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>20.87768865508987</v>
+        <v>67.62281591595317</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>20.91752909490993</v>
+        <v>67.06450441900087</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>20.99767557150297</v>
+        <v>78.42029850256701</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>21.04959163387588</v>
+        <v>82.83831081105795</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>20.70834695398294</v>
+        <v>14.37319693630189</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>20.92918223202986</v>
+        <v>66.77124291454726</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>21.00151403102934</v>
+        <v>67.7714980902245</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>20.56323899371088</v>
+        <v>10.86168825079463</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>20.65296445426958</v>
+        <v>12.35914488016332</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>20.67376513085741</v>
+        <v>17.14761746972622</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>20.56736610959926</v>
+        <v>3.204347955550489</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>20.63824866139789</v>
+        <v>10.37679564605431</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>20.66600338921275</v>
+        <v>13.36444092716067</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>20.62124043483575</v>
+        <v>4.382150167862866</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>20.67615848740542</v>
+        <v>24.64208231809743</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>20.6944272928566</v>
+        <v>26.98598371645705</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>20.6840555366591</v>
+        <v>24.30769854330802</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>20.71545802878038</v>
+        <v>28.9592572985035</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>20.73672709087737</v>
+        <v>29.35917733401413</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>20.57203048225617</v>
+        <v>11.07340262332287</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>20.66828855933676</v>
+        <v>17.51724851541111</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>20.70282406366121</v>
+        <v>19.75034244792136</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>20.53108057050352</v>
+        <v>5.70931836750691</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>20.66373552129438</v>
+        <v>10.30406620525648</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>20.70064758832522</v>
+        <v>19.64717957918328</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>20.50640821779447</v>
+        <v>-3.660152361372639</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>20.61715682068785</v>
+        <v>-0.8855041502637278</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>20.66393267339662</v>
+        <v>13.07052221179475</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>20.58913023683368</v>
+        <v>-3.931251298293454</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>20.67499269756786</v>
+        <v>10.73395981419377</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>20.70724894867608</v>
+        <v>26.08032307444416</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>20.69173946174689</v>
+        <v>14.22317780254539</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>20.75116853726229</v>
+        <v>21.05212202988116</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>20.79272933106201</v>
+        <v>28.68876451478928</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>20.54489236212289</v>
+        <v>-2.328654377473555</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>20.70335776984427</v>
+        <v>12.30089967407969</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>20.75713464944137</v>
+        <v>20.05317335876055</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>20.56255128768257</v>
+        <v>16.16222268732908</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>20.7200765375687</v>
+        <v>27.28694582070943</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>20.76648280471538</v>
+        <v>33.39389511284065</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>20.5401450992319</v>
+        <v>-0.01478852393904972</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>20.6773423080961</v>
+        <v>17.09550713556159</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>20.73531729536153</v>
+        <v>21.87570912809451</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>20.6420019346937</v>
+        <v>6.648267846476813</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>20.7495187652723</v>
+        <v>37.85633872426277</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>20.79044736250404</v>
+        <v>48.26938535567522</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>20.80995278366628</v>
+        <v>44.26442262644596</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>20.88007308755007</v>
+        <v>48.61979472894554</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>20.93013344897257</v>
+        <v>57.79523871281464</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>20.62241026517551</v>
+        <v>9.875657950885028</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>20.81778941772939</v>
+        <v>39.69050145257064</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>20.88754602095195</v>
+        <v>43.61396112672105</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>20.52606203622491</v>
+        <v>6.197958943661032</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>20.61487574411865</v>
+        <v>1.807355159951367</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>20.63556899984678</v>
+        <v>1.838221538710062</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>20.52454098701892</v>
+        <v>5.178523657099859</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>20.59339399872624</v>
+        <v>-1.342083874633403</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>20.62107609130632</v>
+        <v>-0.7203100984400308</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>20.57971794978027</v>
+        <v>0.8606587166207831</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>20.63280193167076</v>
+        <v>8.012847775068765</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>20.65087871638113</v>
+        <v>6.811244893253114</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>20.63010113978829</v>
+        <v>5.39401186125909</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>20.66096329551899</v>
+        <v>4.63685252947473</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>20.68232538331648</v>
+        <v>5.666005551830501</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>20.51892049485237</v>
+        <v>6.961685736105126</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>20.61294046694398</v>
+        <v>4.877100881269481</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>20.64686351414083</v>
+        <v>1.049616105363192</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>20.49313315433685</v>
+        <v>3.252478618413544</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>20.62495965647245</v>
+        <v>3.424629265451127</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>20.66210499322826</v>
+        <v>7.596625935099521</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>20.46185657206737</v>
+        <v>-0.002388012908980386</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>20.57033889387723</v>
+        <v>-4.787433549794478</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>20.61744631162199</v>
+        <v>3.721067715378398</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>20.546170182147</v>
+        <v>-3.947349503783379</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>20.62993844297231</v>
+        <v>2.820105185020353</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>20.66227844766529</v>
+        <v>11.5344000023133</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>20.63619737351117</v>
+        <v>3.041900240579334</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>20.69539382167086</v>
+        <v>7.858707891728608</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>20.73762077686604</v>
+        <v>10.53861103599386</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>20.49035325922055</v>
+        <v>-3.629276463597421</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>20.6466798491921</v>
+        <v>3.176174157227308</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>20.70008556610546</v>
+        <v>3.64648956552514</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>20.52716712325174</v>
+        <v>17.78613950468591</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>20.68441325261399</v>
+        <v>20.89098048503205</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>20.73145537188988</v>
+        <v>25.90950505579001</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>20.49770718475814</v>
+        <v>4.540245209957632</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>20.6332057213519</v>
+        <v>9.102272712891303</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>20.69197427474921</v>
+        <v>13.61012147475905</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>20.60182610397558</v>
+        <v>7.864221318751145</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>20.70771488686983</v>
+        <v>26.73683416877101</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>20.74908782069645</v>
+        <v>35.09492932778259</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>20.75911540028571</v>
+        <v>30.36193104760702</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>20.82936403297075</v>
+        <v>32.47008414092436</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>20.88035800541313</v>
+        <v>39.94176550632537</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>20.57185509530916</v>
+        <v>13.74098337303058</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>20.76588295130333</v>
+        <v>28.28186599597518</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>20.83590203246505</v>
+        <v>30.30085226342524</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>20.5888157187323</v>
+        <v>21.72508016919652</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>20.68025216755887</v>
+        <v>30.18845630286745</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>20.70430634139484</v>
+        <v>36.66003726094456</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>20.59697346977216</v>
+        <v>3.824806963187141</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>20.66856354365115</v>
+        <v>23.93429784931273</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>20.70024742373949</v>
+        <v>27.35157639929263</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>20.65057462301034</v>
+        <v>14.15862137649349</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>20.70605239118144</v>
+        <v>45.89592427566399</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>20.72742471834759</v>
+        <v>49.45888233844541</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>20.7206609667904</v>
+        <v>42.63785624268947</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>20.7513506714096</v>
+        <v>49.77822155013894</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>20.77926715348119</v>
+        <v>52.85816855650441</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>20.60786414874549</v>
+        <v>29.17058016861764</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>20.70448294898863</v>
+        <v>45.19554874113408</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>20.74506565637629</v>
+        <v>56.28181134574483</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>20.57255975405993</v>
+        <v>15.51560645694938</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>20.7077943187198</v>
+        <v>26.8851082430249</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>20.74942428465965</v>
+        <v>35.23917401308692</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>20.55245756937055</v>
+        <v>-3.346213688834013</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>20.66463629693452</v>
+        <v>8.285584811633555</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>20.71703737747971</v>
+        <v>18.5875881461773</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>20.63487492318219</v>
+        <v>3.130699899007428</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>20.7218225016213</v>
+        <v>28.32379836229072</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>20.75853936404757</v>
+        <v>41.87451450465667</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>20.74901926913088</v>
+        <v>29.35812589589026</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>20.80838029272772</v>
+        <v>41.40172860006754</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>20.85925461873787</v>
+        <v>46.22925871254243</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>20.60052834854673</v>
+        <v>11.98261734205315</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>20.76047028646428</v>
+        <v>38.99237209278795</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>20.82254254833153</v>
+        <v>45.11423193370349</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>20.58971753628259</v>
+        <v>22.72665912702994</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>20.74876286764475</v>
+        <v>37.57766231283561</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>20.80067069063127</v>
+        <v>46.46960119299623</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>20.57319666710068</v>
+        <v>1.234497563390882</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>20.7105550979132</v>
+        <v>22.40306988255534</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>20.77502932481159</v>
+        <v>28.25560941106113</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>20.67490587706144</v>
+        <v>10.92615707809701</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>20.7824316947608</v>
+        <v>48.26811083369591</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>20.82852385274325</v>
+        <v>60.86883888921611</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>20.85297286259184</v>
+        <v>59.79328868889151</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>20.92196658834602</v>
+        <v>68.05266802519387</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>20.98219412173997</v>
+        <v>70.89479862777324</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>20.66294943416899</v>
+        <v>19.1984608748403</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>20.85803392779983</v>
+        <v>57.64550859411637</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>20.93749165130299</v>
+        <v>66.2147579681497</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>20.61208017315781</v>
+        <v>12.50159108795108</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>20.70323128373424</v>
+        <v>32.92174226181575</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>20.72558685058674</v>
+        <v>40.73113362892698</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>20.62052393969997</v>
+        <v>5.503059303920644</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>20.69413935403136</v>
+        <v>34.72497727524444</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>20.72364212000608</v>
+        <v>41.73760032291596</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>20.67273898286476</v>
+        <v>13.18315427892393</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>20.72998986512482</v>
+        <v>56.08763924288032</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>20.74982330449544</v>
+        <v>61.91986502374375</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>20.74973516910443</v>
+        <v>58.90253951213065</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>20.78223667975486</v>
+        <v>66.36157933903024</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>20.80470377817665</v>
+        <v>66.69102081941571</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>20.63530721516105</v>
+        <v>13.02863621321705</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>20.73522870379642</v>
+        <v>42.98185833204314</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>20.77196164493683</v>
+        <v>51.02376849934862</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>20.59392446060891</v>
+        <v>10.28516684375387</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>20.72793957741236</v>
+        <v>30.56555623046677</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>20.76693297197872</v>
+        <v>38.92236409115414</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>20.57600198013114</v>
+        <v>1.44357277555568</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>20.68970971759698</v>
+        <v>23.17377410637749</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>20.73884824175199</v>
+        <v>36.76900005748142</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>20.65613543207375</v>
+        <v>7.042432278679208</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>20.74458194942355</v>
+        <v>40.52573823186961</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>20.77894410278748</v>
+        <v>55.47515827521264</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>20.7765018187349</v>
+        <v>44.52248142724523</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>20.83657017585378</v>
+        <v>55.60596170848</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>20.87974814314562</v>
+        <v>62.04956509402388</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>20.62645153562081</v>
+        <v>6.790911362940674</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>20.7887358144293</v>
+        <v>45.77202555330302</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>20.84563927703206</v>
+        <v>54.17063956339322</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>20.61253584729419</v>
+        <v>9.172485220913339</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>20.77048465333641</v>
+        <v>30.08789142343457</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>20.81909632358425</v>
+        <v>43.11436272202793</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>20.59606766555088</v>
+        <v>-0.8332141611270956</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>20.73522390559514</v>
+        <v>26.89843068371179</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>20.79569274194021</v>
+        <v>41.10129826205139</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>20.69522567184919</v>
+        <v>5.888381119600719</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>20.80450961159562</v>
+        <v>47.09189315727984</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>20.84766267289675</v>
+        <v>66.96468768928247</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>20.87660444560377</v>
+        <v>56.21359240974906</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>20.94702352912056</v>
+        <v>68.14874726539708</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>20.99897475032552</v>
+        <v>83.41112802420008</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>20.687166738054</v>
+        <v>5.367544536557396</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>20.88496532340988</v>
+        <v>55.20389414952123</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>20.9580254692235</v>
+        <v>67.38519436834113</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>20.62486130419456</v>
+        <v>8.565784467053279</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>20.70861387798945</v>
+        <v>26.92025290709537</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>20.72931965014717</v>
+        <v>35.95559495560853</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>20.63804709635092</v>
+        <v>3.492361497807259</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>20.70592995287102</v>
+        <v>41.23208721344231</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>20.73319429079988</v>
+        <v>45.50463609842502</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>20.68437414291099</v>
+        <v>9.902312159541143</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>20.73737574030311</v>
+        <v>59.62253834072222</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>20.75584209264244</v>
+        <v>63.88672248938625</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>20.75827118534493</v>
+        <v>54.85624935860471</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>20.7880345353653</v>
+        <v>61.54125914069191</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>20.81159359761421</v>
+        <v>63.3235202560336</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>20.65560146689596</v>
+        <v>9.183859673145289</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>20.74680832877936</v>
+        <v>34.89386855406089</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>20.78188105526639</v>
+        <v>53.0250205084992</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>20.62079247750079</v>
+        <v>11.04853527597933</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>20.74393842291449</v>
+        <v>32.70837677362204</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>20.77919477101609</v>
+        <v>39.01931369790837</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>20.61176592021188</v>
+        <v>-1.352093677629558</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>20.7166704421624</v>
+        <v>25.46016514951752</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>20.76107488191313</v>
+        <v>34.41700547216301</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>20.68302792100245</v>
+        <v>2.848061173237298</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>20.76488109236714</v>
+        <v>44.64429379910808</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>20.7960172768857</v>
+        <v>56.13207075461026</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>20.80005751264113</v>
+        <v>45.32147185121384</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>20.85551689058006</v>
+        <v>59.75756070319753</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>20.89822673398023</v>
+        <v>66.23831286370785</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>20.66510319977318</v>
+        <v>8.414218819571516</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>20.81341108984836</v>
+        <v>49.97112011988661</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>20.86619179565087</v>
+        <v>55.57496330150158</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>20.6288147357115</v>
+        <v>11.15169262179288</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>20.77230640968743</v>
+        <v>34.93277292852556</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>20.81624436256768</v>
+        <v>42.30219443799159</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>20.62264614245626</v>
+        <v>-0.7045625018778807</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>20.74907433763645</v>
+        <v>33.37363444848695</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>20.80367893430128</v>
+        <v>38.69058312853332</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>20.71060040887097</v>
+        <v>4.279614558537979</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>20.81005066419565</v>
+        <v>55.58756374026428</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>20.84910821018896</v>
+        <v>67.00646029707389</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>20.88101194643609</v>
+        <v>67.9384513479061</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>20.94480159614723</v>
+        <v>79.56111745516239</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>20.99526958805967</v>
+        <v>83.21033229868691</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>20.71071891011233</v>
+        <v>10.81832901539194</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>20.88910312742506</v>
+        <v>64.49172042215278</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>20.95652105758155</v>
+        <v>72.32766207026125</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>20.63361599840612</v>
+        <v>14.40037984611475</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>20.69258690706986</v>
+        <v>29.99269661704609</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>20.70789828614311</v>
+        <v>34.78543028698594</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>20.64277866545183</v>
+        <v>15.15872483256363</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>20.68941591389397</v>
+        <v>47.44817469315236</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>20.7095211332202</v>
+        <v>50.08139326233661</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>20.6752048556566</v>
+        <v>17.98853659913644</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>20.71144488560856</v>
+        <v>60.17633327111263</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>20.72505809904128</v>
+        <v>62.1425375598051</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>20.72364303419405</v>
+        <v>49.62508762196782</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>20.74362080312606</v>
+        <v>54.62273598146787</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>20.76158253871246</v>
+        <v>59.27094930289224</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>20.65089596504694</v>
+        <v>17.93882642760924</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>20.71365790945664</v>
+        <v>35.54662671687339</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>20.73950743833722</v>
+        <v>52.57326452258214</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>20.63448009169075</v>
+        <v>20.11227340827968</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>20.72153658250746</v>
+        <v>37.20575706051109</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>20.7478270063697</v>
+        <v>41.97577919119838</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>20.62781142380765</v>
+        <v>24.13369319530494</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>20.70057573380375</v>
+        <v>45.34363095125026</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>20.73360008612125</v>
+        <v>53.53485228731657</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>20.67771471697564</v>
+        <v>14.75789361608424</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>20.73424626537107</v>
+        <v>49.58845558513195</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>20.7574299267404</v>
+        <v>59.46396410261266</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>20.75705429297866</v>
+        <v>47.91549654250603</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>20.79533096907662</v>
+        <v>61.01373835234499</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>20.82779173991788</v>
+        <v>68.49477241361836</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>20.66119926729583</v>
+        <v>20.54335910760688</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>20.76456036565022</v>
+        <v>52.47012225333217</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>20.80378673973282</v>
+        <v>57.04084632070074</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>20.64068537518028</v>
+        <v>19.93890657448616</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>20.74251753627756</v>
+        <v>38.64063785697023</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>20.77534290790934</v>
+        <v>42.72689827873409</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>20.63614523954492</v>
+        <v>25.3039178864496</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>20.7245141241103</v>
+        <v>51.81123569939661</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>20.76520345837674</v>
+        <v>55.36591592435502</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>20.69829838081409</v>
+        <v>17.57099162238513</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>20.76758079243317</v>
+        <v>60.49260751608737</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>20.79672183218786</v>
+        <v>69.24563547704506</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>20.81693793939106</v>
+        <v>71.34912817417032</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>20.86118853480654</v>
+        <v>79.10567010905299</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>20.89950145009981</v>
+        <v>85.01405527782774</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>20.69506013979791</v>
+        <v>26.2864207722993</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>20.82020752372305</v>
+        <v>66.62015744692519</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>20.8704655726554</v>
+        <v>74.54870294267408</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>20.60409435194254</v>
+        <v>8.639953266967105</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>20.69070876980722</v>
+        <v>28.40542123691811</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>20.71195901095199</v>
+        <v>35.87339260716138</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>20.61148032870869</v>
+        <v>0.01684583147635976</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>20.68187721820757</v>
+        <v>29.17251605640263</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>20.70992594739468</v>
+        <v>32.99370897672864</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>20.66178194429741</v>
+        <v>9.000312787081064</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>20.71662014868036</v>
+        <v>53.681042484474</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>20.73553301359122</v>
+        <v>57.1440362634476</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>20.7338973696586</v>
+        <v>57.52688553345548</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>20.76466235035844</v>
+        <v>62.33007900484878</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>20.78701865267403</v>
+        <v>63.63029107076441</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>20.62479741839967</v>
+        <v>6.45632776863097</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>20.72005405492095</v>
+        <v>37.86645547276855</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>20.75527351358136</v>
+        <v>44.49264922438233</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>20.59100091971084</v>
+        <v>11.14417084893302</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>20.71823544867419</v>
+        <v>32.9685009631516</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>20.75487621108389</v>
+        <v>38.36393356563576</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>20.57371034521035</v>
+        <v>0.2909904618743475</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>20.68223167589095</v>
+        <v>24.44286607695279</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>20.72844887165991</v>
+        <v>33.05016241177937</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>20.65045965316186</v>
+        <v>4.630149156270853</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>20.73499273245277</v>
+        <v>42.3870673122268</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>20.7673329894367</v>
+        <v>54.18984346834861</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>20.76471208534076</v>
+        <v>43.55315067215982</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>20.82152543902361</v>
+        <v>56.6082815166131</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>20.86345387426611</v>
+        <v>60.92147967196784</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>20.62169334907948</v>
+        <v>4.067124614984868</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>20.77601546882297</v>
+        <v>43.86735842856491</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>20.8299167459815</v>
+        <v>50.82827871016388</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>20.60133303149707</v>
+        <v>10.73057586358121</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>20.75043283407781</v>
+        <v>32.50347520996086</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>20.79618801579383</v>
+        <v>43.35986033050457</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>20.58554057501764</v>
+        <v>-2.418053713168092</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>20.71727015059688</v>
+        <v>26.56142339584495</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>20.77421598776996</v>
+        <v>36.4067721398187</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>20.68004563759043</v>
+        <v>3.128582245974531</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>20.78357390981784</v>
+        <v>47.7644736820389</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>20.82424175277118</v>
+        <v>64.86892671780791</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>20.84993834938414</v>
+        <v>58.17650179112658</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>20.91607549520461</v>
+        <v>73.43033736974894</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>20.96622670508672</v>
+        <v>83.05315468993734</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>20.67006280817241</v>
+        <v>5.413992629264044</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>20.85682024502041</v>
+        <v>57.56461268954916</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>20.92604111077761</v>
+        <v>69.55977427333758</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>20.58415830072816</v>
+        <v>12.22465572388941</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>20.66200258439298</v>
+        <v>11.73550830178286</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>20.68289522474987</v>
+        <v>15.69203562436153</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>20.58949815822143</v>
+        <v>3.194126616388118</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>20.65030691621297</v>
+        <v>11.33782524841138</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>20.67773440317747</v>
+        <v>12.36372323653952</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>20.63602175535097</v>
+        <v>8.010255103290353</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>20.6831093628269</v>
+        <v>26.53346373315337</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>20.70163278446103</v>
+        <v>28.08309056493585</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>20.69168449689713</v>
+        <v>23.63690998801264</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>20.71792355280668</v>
+        <v>27.47858378889319</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>20.74143189330037</v>
+        <v>30.0426173055138</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>20.59355598389768</v>
+        <v>9.940751478178328</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>20.67560190084529</v>
+        <v>13.23304914946942</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>20.71077551127614</v>
+        <v>19.91246227706609</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>20.57384193452017</v>
+        <v>9.295862563343894</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>20.68943947112725</v>
+        <v>18.90405304795033</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>20.72599500034223</v>
+        <v>32.00422904832361</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>20.55557629834191</v>
+        <v>-1.06662453373356</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>20.65144162407386</v>
+        <v>8.074886311128868</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>20.69731631186839</v>
+        <v>25.86783905376551</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>20.62660760569781</v>
+        <v>2.449749331533877</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>20.70088603982555</v>
+        <v>23.08640521146542</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>20.73312291166634</v>
+        <v>43.30387547333267</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>20.7209827341164</v>
+        <v>26.54624990176892</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>20.77188825688409</v>
+        <v>39.01729314995465</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>20.81533682271408</v>
+        <v>50.64939134709104</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>20.59147844478475</v>
+        <v>5.141255099080745</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>20.72814061219033</v>
+        <v>29.93682304786229</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>20.78267068373043</v>
+        <v>44.02872688253596</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>20.58351769166966</v>
+        <v>15.57863923574503</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>20.71963145152299</v>
+        <v>27.68528167266833</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>20.76521586087739</v>
+        <v>41.77724972310183</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>20.56738962706306</v>
+        <v>2.358537320218105</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>20.68496676359466</v>
+        <v>19.639657960999</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>20.74144499399099</v>
+        <v>33.9852579142417</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>20.65516194881483</v>
+        <v>7.212724570070598</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>20.74718808557755</v>
+        <v>37.88331921767526</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>20.78767099837846</v>
+        <v>57.62314466947976</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>20.80264088098958</v>
+        <v>47.09865832094886</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>20.86192183930327</v>
+        <v>55.81928712435845</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>20.91363507197175</v>
+        <v>67.41920033425082</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>20.63737659845702</v>
+        <v>7.290567125494114</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>20.80435698326507</v>
+        <v>42.51864717327196</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>20.87416252805534</v>
+        <v>61.50792052550852</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>20.62367923707654</v>
+        <v>12.58575900971271</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>20.68143487734814</v>
+        <v>23.33316511020872</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>20.6968469651918</v>
+        <v>27.59978978934873</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>20.6311786315532</v>
+        <v>2.641019741426277</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>20.67652037740964</v>
+        <v>27.90548983601036</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>20.69673412499578</v>
+        <v>30.5282011246732</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>20.66372467640564</v>
+        <v>9.978951796466012</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>20.69890369317987</v>
+        <v>45.12075929602337</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>20.71261634524394</v>
+        <v>47.1914878587793</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>20.70870341365776</v>
+        <v>35.68342175832505</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>20.72801671495065</v>
+        <v>41.8904359347077</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>20.74617937172042</v>
+        <v>46.98942609635837</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>20.63742387351687</v>
+        <v>13.72625466303127</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>20.69851682857405</v>
+        <v>29.60737684384454</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>20.72452504023709</v>
+        <v>44.29297032414313</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>20.61884513079182</v>
+        <v>10.36607052094729</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>20.70420806178843</v>
+        <v>23.91596420441346</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>20.73076917954398</v>
+        <v>34.2181746002904</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>20.60992475821682</v>
+        <v>4.101190385776089</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>20.68087995578617</v>
+        <v>19.76300886891297</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>20.71421500531688</v>
+        <v>34.54588049396418</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>20.65998745052465</v>
+        <v>2.220455953120311</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>20.71503742602118</v>
+        <v>31.24970647391414</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>20.73849025171378</v>
+        <v>47.37027256698181</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>20.73395397996186</v>
+        <v>30.4092759661046</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>20.77129913138724</v>
+        <v>44.53257357428616</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>20.80410632412541</v>
+        <v>56.16422262710207</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>20.63996451059363</v>
+        <v>6.214313304404662</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>20.74095929847837</v>
+        <v>36.62840046353558</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>20.7806255975945</v>
+        <v>45.76805358873948</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>20.62496424823173</v>
+        <v>9.805931401723138</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>20.7249892590094</v>
+        <v>25.24350230181896</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>20.75806749556955</v>
+        <v>33.87994735692538</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>20.61818542083033</v>
+        <v>2.990770115215533</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>20.70462273904519</v>
+        <v>24.74799456959807</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>20.7456024228264</v>
+        <v>33.56967743147278</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>20.68040316769592</v>
+        <v>2.177652776932948</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>20.74810212829528</v>
+        <v>39.89101534942304</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>20.77749732191963</v>
+        <v>53.74746489025585</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>20.79337872698329</v>
+        <v>50.65022719875987</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>20.83660672236657</v>
+        <v>58.06094864359486</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>20.87530459054626</v>
+        <v>67.88008896884071</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>20.67349200529894</v>
+        <v>8.042031932573391</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>20.79609523128283</v>
+        <v>45.57930828144765</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>20.8467765271716</v>
+        <v>58.47521437179973</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>20.62254981517188</v>
+        <v>14.18981501620754</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>20.71331781566406</v>
+        <v>28.30454962041436</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>20.73493249088245</v>
+        <v>38.01175599042013</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>20.63895701439789</v>
+        <v>5.57146457754703</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>20.71209505386985</v>
+        <v>42.21884845241652</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>20.74064655560971</v>
+        <v>47.3707130196487</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>20.68916489478853</v>
+        <v>15.31577274389359</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>20.74625158337066</v>
+        <v>61.90966052348829</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>20.76539211075454</v>
+        <v>67.45122241797665</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>20.76832801530364</v>
+        <v>63.79383032711316</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>20.79967693619665</v>
+        <v>62.23193573450543</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>20.82342039730358</v>
+        <v>67.37322014572929</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>20.65532620971138</v>
+        <v>11.65180150708655</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>20.75349035488125</v>
+        <v>26.71068171228398</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>20.79046596208526</v>
+        <v>54.99945342596799</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>20.61880499849646</v>
+        <v>21.76775834507935</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>20.75233857241885</v>
+        <v>38.65303858075635</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>20.78958023463515</v>
+        <v>39.78793274114859</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>20.61105222520922</v>
+        <v>5.735974797999154</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>20.72426609316624</v>
+        <v>31.41422274144795</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>20.77120333610641</v>
+        <v>35.9191287843088</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>20.68849893255799</v>
+        <v>11.75098320240669</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>20.77679787203262</v>
+        <v>50.47915973390092</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>20.80950548224563</v>
+        <v>56.88715323572821</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>20.81377056584954</v>
+        <v>51.68001438940756</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>20.87254445350133</v>
+        <v>60.65364577089937</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>20.91648076399228</v>
+        <v>63.91936987441485</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>20.66547611380539</v>
+        <v>19.77466187394795</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>20.82546872406812</v>
+        <v>51.29635715031482</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>20.88138104931103</v>
+        <v>56.99696944412944</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>20.62846236335611</v>
+        <v>20.19427521558829</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>20.78475897833592</v>
+        <v>39.07023065471198</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>20.83134473897046</v>
+        <v>43.79491867244205</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>20.62295279259985</v>
+        <v>4.514747352620486</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>20.76027702374855</v>
+        <v>37.01851151176275</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>20.81820739405634</v>
+        <v>40.76506251170726</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>20.71895262486161</v>
+        <v>11.94241148796988</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>20.8269699915572</v>
+        <v>59.7249981224882</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>20.86821006099622</v>
+        <v>68.68150797864448</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>20.90229002240328</v>
+        <v>70.01382319234082</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>20.97048440206122</v>
+        <v>75.78829805046831</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>21.02273387684534</v>
+        <v>80.44849833834925</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>20.71490178308045</v>
+        <v>15.24448663111097</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>20.90856407228515</v>
+        <v>58.25407812018945</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>20.98028250914784</v>
+        <v>68.45695518786627</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>20.60525857507508</v>
+        <v>8.051187398158842</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>20.69410273481354</v>
+        <v>25.61251996091529</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>20.7159371109878</v>
+        <v>32.49084176232961</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>20.61397884584079</v>
+        <v>1.962369385596535</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>20.68635653192299</v>
+        <v>30.45585531653979</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>20.71513273316623</v>
+        <v>33.52327496879374</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>20.66494540137187</v>
+        <v>8.498873932027372</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>20.721377648664</v>
+        <v>51.57685608929451</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>20.74082303461977</v>
+        <v>54.92789477528607</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>20.73952683901347</v>
+        <v>55.86269381479682</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>20.77104915682725</v>
+        <v>62.87898447565622</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>20.79425922821548</v>
+        <v>59.99742628462409</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>20.62751533720591</v>
+        <v>5.742894777618863</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>20.72542162971751</v>
+        <v>36.69584573691429</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>20.76166260163642</v>
+        <v>41.90283015647786</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>20.59302285403524</v>
+        <v>11.21318641510021</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>20.72341266865564</v>
+        <v>32.57437120445358</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>20.76102005607685</v>
+        <v>38.57980783559452</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>20.57682163404525</v>
+        <v>1.871029948386916</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>20.68822452081515</v>
+        <v>25.7428988304011</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>20.73561482290868</v>
+        <v>35.95556800101431</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>20.65471203038856</v>
+        <v>7.587352996112095</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>20.74155104606519</v>
+        <v>45.12794154030731</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>20.77476861834848</v>
+        <v>58.51948792146494</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>20.77260514155884</v>
+        <v>47.48959271204563</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>20.83074624036623</v>
+        <v>61.11819211316847</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>20.87401652217098</v>
+        <v>65.4310472429286</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>20.62574077319272</v>
+        <v>7.239151410665997</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>20.78407933047255</v>
+        <v>49.08870356820294</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>20.83948015472109</v>
+        <v>54.44233705529472</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>20.59890189329964</v>
+        <v>12.47843991302614</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>20.75128377158988</v>
+        <v>31.15744800682958</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>20.79830303633766</v>
+        <v>42.61008014315961</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>20.58388855678376</v>
+        <v>-1.127671965717955</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>20.71860464304096</v>
+        <v>23.51664028636471</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>20.77707298045094</v>
+        <v>35.35209525339073</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>20.67996970650795</v>
+        <v>4.281519302324206</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>20.78588600794967</v>
+        <v>44.81805111546731</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>20.82771008270847</v>
+        <v>63.59012598604497</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>20.85332458881679</v>
+        <v>58.72986702787237</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>20.92078795940781</v>
+        <v>69.66058153849501</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>20.97253134462788</v>
+        <v>80.90522881409707</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>20.66900687174802</v>
+        <v>5.222908166645809</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>20.85994503686171</v>
+        <v>50.28483359386217</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>20.93116304798754</v>
+        <v>64.82113162332618</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6.098007228417352</v>
+        <v>6.098007228417375</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>11.58873359078657</v>
+        <v>11.58873359078666</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>15.29773423774534</v>
+        <v>15.29773423774501</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-4.038384969815041</v>
+        <v>-4.038384969814963</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>13.54929231556516</v>
+        <v>13.54929231556556</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>14.73157858657673</v>
+        <v>14.73157858657635</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-1.026256708996375</v>
+        <v>-1.02625670899657</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>27.71935522675058</v>
+        <v>27.71935522675092</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.92039532487458</v>
+        <v>28.92039532487487</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>24.07177454176946</v>
+        <v>24.07177454177003</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>30.72209038433547</v>
+        <v>30.72209038433621</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>33.94729868701066</v>
+        <v>33.94729868701108</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4.412902478469913</v>
+        <v>4.412902478469215</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>15.99014215550087</v>
+        <v>15.99014215550066</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>25.99413253879868</v>
+        <v>25.99413253879833</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>11.79117337705368</v>
+        <v>11.7911733770535</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.89726518067465</v>
+        <v>26.89726518067445</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>38.11530559860137</v>
+        <v>38.11530559860074</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.9236548258419965</v>
+        <v>-0.9236548258419148</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>15.48776152693512</v>
+        <v>15.48776152693523</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>30.69860790434091</v>
+        <v>30.69860790434072</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2.583592412118293</v>
+        <v>2.583592412118083</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>32.43994663060845</v>
+        <v>32.43994663060793</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>50.08838564149085</v>
+        <v>50.08838564149146</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>34.89287849130305</v>
+        <v>34.89287849130292</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>52.55610650697491</v>
+        <v>52.55610650697441</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>62.57195407430039</v>
+        <v>62.57195407429979</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>8.160105314798752</v>
+        <v>8.160105314798521</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>42.64539373766517</v>
+        <v>42.64539373766492</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>52.83244816320646</v>
+        <v>52.83244816320635</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>14.73959217598273</v>
+        <v>14.73959217598316</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>33.95091272497707</v>
+        <v>33.95091272497733</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>43.39748509935656</v>
+        <v>43.39748509935617</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1.498472820660393</v>
+        <v>1.498472820660442</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>27.73773667074216</v>
+        <v>27.73773667074244</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>35.90442902660784</v>
+        <v>35.90442902660767</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5.183777934837828</v>
+        <v>5.183777934837735</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>47.31621740803109</v>
+        <v>47.31621740803137</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>61.51926561146505</v>
+        <v>61.51926561146541</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>60.37975306510307</v>
+        <v>60.37975306510353</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>73.25636089128386</v>
+        <v>73.25636089128329</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>79.80314761601397</v>
+        <v>79.80314761601377</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>14.23833973067301</v>
+        <v>14.23833973067325</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>60.33647179330237</v>
+        <v>60.33647179330276</v>
       </c>
     </row>
     <row r="46">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5.761382442209015</v>
+        <v>5.761382442208896</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>30.03721642894966</v>
+        <v>30.03721642894973</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>39.55095795419488</v>
+        <v>39.55095795419479</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-0.4706901734943258</v>
+        <v>-0.4706901734942903</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>38.54397301406279</v>
+        <v>38.54397301406256</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>43.8409850140817</v>
+        <v>43.84098501408139</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6.534731095075067</v>
+        <v>6.534731095074772</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>60.6453005140286</v>
+        <v>60.64530051402745</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>65.65474598164994</v>
+        <v>65.6547459816497</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>59.50463834675889</v>
+        <v>59.50463834675842</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>68.59532697119643</v>
+        <v>68.59532697119624</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>66.01843410075202</v>
+        <v>66.01843410075222</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>7.059382030196065</v>
+        <v>7.059382030195748</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>42.45155032653794</v>
+        <v>42.45155032653774</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>50.98039140601751</v>
+        <v>50.98039140601743</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>9.332430560166513</v>
+        <v>9.332430560166603</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>35.10089266534045</v>
+        <v>35.1008926653401</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>42.96515316861318</v>
+        <v>42.9651531686134</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-5.034103818391714</v>
+        <v>-5.034103818391735</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>24.93684212100813</v>
+        <v>24.93684212100821</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>37.7156474075534</v>
+        <v>37.71564740755347</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>2.746626795806161</v>
+        <v>2.746626795806097</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>47.33086153264458</v>
+        <v>47.3308615326446</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>61.6036273758481</v>
+        <v>61.60362737584813</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>51.00849130334468</v>
+        <v>51.00849130334532</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>66.54533989877473</v>
+        <v>66.5453398987753</v>
       </c>
     </row>
     <row r="73">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>7.465499468953686</v>
+        <v>7.465499468953459</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>56.79344920004088</v>
+        <v>56.79344920004049</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>62.86480457225695</v>
+        <v>62.86480457225566</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>8.573424624088268</v>
+        <v>8.573424624088094</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>36.53920361764599</v>
+        <v>36.53920361764652</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>46.56386960345381</v>
+        <v>46.56386960345417</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-5.108322613565637</v>
+        <v>-5.108322613565623</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>33.6583170807961</v>
+        <v>33.65831708079617</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>42.95845059321542</v>
+        <v>42.95845059321552</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4.556781213245049</v>
+        <v>4.55678121324528</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>59.5067608099561</v>
+        <v>59.50676080995575</v>
       </c>
     </row>
     <row r="85">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>68.52962046887936</v>
+        <v>68.52962046887917</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>82.93094104071062</v>
+        <v>82.93094104070987</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>92.24927616915306</v>
+        <v>92.24927616915275</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>7.095893670711774</v>
+        <v>7.095893670711746</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>70.41456266834166</v>
+        <v>70.41456266834197</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>76.13638953826711</v>
+        <v>76.13638953826751</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>13.12992213229813</v>
+        <v>13.12992213229799</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.38393244643166</v>
+        <v>29.38393244643168</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>35.19616908770924</v>
+        <v>35.19616908770906</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>3.932026739814454</v>
+        <v>3.932026739814377</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>33.37692597553654</v>
+        <v>33.37692597553642</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>34.95579290440671</v>
+        <v>34.95579290440629</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>9.903331211336273</v>
+        <v>9.903331211336379</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>55.1621096085082</v>
+        <v>55.16210960850807</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>56.29537496513029</v>
+        <v>56.29537496513038</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>54.77300459509391</v>
+        <v>54.77300459509367</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>60.90990556303648</v>
+        <v>60.90990556303638</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>57.81394671209309</v>
+        <v>57.81394671209275</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>10.45722144906795</v>
+        <v>10.45722144906766</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>37.33613201534553</v>
+        <v>37.33613201534564</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>41.41788301961999</v>
+        <v>41.4178830196199</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>19.14733285369394</v>
+        <v>19.14733285369382</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>43.32415083869313</v>
+        <v>43.32415083869252</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>46.2857558855818</v>
+        <v>46.28575588558203</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>4.27148291479582</v>
+        <v>4.271482914795811</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>33.58966479175306</v>
+        <v>33.58966479175336</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>40.37039719621853</v>
+        <v>40.37039719621918</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>12.87488316881922</v>
+        <v>12.87488316881962</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>56.71590388430243</v>
+        <v>56.71590388430248</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>65.4292366879356</v>
+        <v>65.42923668793568</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>58.65974373801512</v>
+        <v>58.65974373801527</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>70.74953529630517</v>
+        <v>70.74953529630545</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>74.23208899177558</v>
+        <v>74.23208899177544</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>16.813784744514</v>
+        <v>16.81378474451406</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>60.09498690648761</v>
+        <v>60.09498690648746</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>62.50906714556071</v>
+        <v>62.50906714556007</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>17.19951286514119</v>
+        <v>17.19951286514128</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>44.14298257980715</v>
+        <v>44.14298257980754</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>49.53703800326706</v>
+        <v>49.5370380032674</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.5977349039145317</v>
+        <v>0.5977349039145921</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>39.57005083925533</v>
+        <v>39.57005083925569</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>42.91485686021406</v>
+        <v>42.91485686021447</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>10.94200518304726</v>
+        <v>10.94200518304753</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>66.07875845621066</v>
+        <v>66.07875845621038</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>75.9291302845352</v>
+        <v>75.92913028453496</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>75.86078216235009</v>
+        <v>75.86078216235029</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>86.13380477602394</v>
+        <v>86.13380477602362</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>92.22852471669407</v>
+        <v>92.22852471669376</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>15.79379527795555</v>
+        <v>15.79379527795514</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>74.09695305145547</v>
+        <v>74.09695305145598</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>77.80005101651366</v>
+        <v>77.80005101651346</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>9.588223811399606</v>
+        <v>9.58822381139969</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>14.41366420466309</v>
+        <v>14.41366420466274</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>17.15719414327724</v>
+        <v>17.15719414327755</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-1.15232724023948</v>
+        <v>-1.152327240239764</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>13.07119089167582</v>
+        <v>13.07119089167547</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>13.88262920531449</v>
+        <v>13.88262920531445</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>2.567802277964176</v>
+        <v>2.567802277964184</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>28.44310142399765</v>
+        <v>28.44310142399772</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.68196322318948</v>
+        <v>28.68196322318981</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>27.0605369046061</v>
+        <v>27.06053690460605</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>32.06724264516998</v>
+        <v>32.06724264516989</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>36.92545800185422</v>
+        <v>36.92545800185438</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>30.33024799042962</v>
+        <v>30.33024799042951</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>39.38373479983606</v>
+        <v>39.3837347998363</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>46.49758563759637</v>
+        <v>46.49758563759628</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>14.0818074665135</v>
+        <v>14.08180746651353</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>25.20027396579067</v>
+        <v>25.20027396579034</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>36.53709453118205</v>
+        <v>36.53709453118224</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1.453360105972521</v>
+        <v>1.453360105972067</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>11.72178474262517</v>
+        <v>11.72178474262534</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>26.79819108688947</v>
+        <v>26.79819108688925</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>27.80695054479228</v>
+        <v>27.80695054479205</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>44.49897480608209</v>
+        <v>44.49897480608197</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.03165124663895</v>
+        <v>29.03165124663879</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>44.83870043249581</v>
+        <v>44.83870043249548</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>56.06577950185468</v>
+        <v>56.06577950185508</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>14.82025987077844</v>
+        <v>14.82025987077898</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>41.83191289415507</v>
+        <v>41.83191289415527</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>49.17872679715389</v>
+        <v>49.17872679715439</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>20.48336608270057</v>
+        <v>20.48336608270061</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>32.39794417875972</v>
+        <v>32.39794417875941</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>43.4921315799518</v>
+        <v>43.49213157995137</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>3.297489669773196</v>
+        <v>3.297489669772936</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>19.29812853510123</v>
+        <v>19.29812853510122</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.78574623445791</v>
+        <v>29.78574623445779</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>9.387406533006658</v>
+        <v>9.387406533006459</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>42.45230303593179</v>
+        <v>42.45230303593168</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>58.00049152360855</v>
+        <v>58.00049152360882</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>49.80391358507867</v>
+        <v>49.80391358507939</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>61.7700583803672</v>
+        <v>61.77005838036705</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>71.81695503588355</v>
+        <v>71.8169550358846</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>24.48330839533158</v>
+        <v>24.48330839533182</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>57.72076149188661</v>
+        <v>57.72076149188585</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>66.73426939193249</v>
+        <v>66.73426939193232</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>10.24852751914936</v>
+        <v>10.24852751914955</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>26.97963757403646</v>
+        <v>26.97963757403659</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>30.23528201410202</v>
+        <v>30.23528201410204</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>4.086923079519201</v>
+        <v>4.086923079519632</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>35.31827408966384</v>
+        <v>35.31827408966416</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>35.94362497165316</v>
+        <v>35.94362497165277</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>13.23376841697197</v>
+        <v>13.23376841697169</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>56.62066139031676</v>
+        <v>56.6206613903168</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>56.44590377492779</v>
+        <v>56.44590377492802</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>46.00984963604665</v>
+        <v>46.00984963604663</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>51.31001287443829</v>
+        <v>51.31001287443834</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>53.96138420177586</v>
+        <v>53.96138420177591</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>13.13622669921581</v>
+        <v>13.13622669921605</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>29.00239669138022</v>
+        <v>29.00239669138017</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>37.23966155990814</v>
+        <v>37.23966155990841</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>21.56056347873665</v>
+        <v>21.56056347873691</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>44.09779670735215</v>
+        <v>44.09779670735211</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>47.10414869026805</v>
+        <v>47.10414869026773</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>8.040318017728563</v>
+        <v>8.040318017727984</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>35.2372671134267</v>
+        <v>35.23726711342697</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>41.73550835894932</v>
+        <v>41.73550835894933</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>57.36042669042464</v>
+        <v>57.36042669042491</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>65.57186520400549</v>
+        <v>65.57186520400575</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>59.24992812356436</v>
+        <v>59.24992812356386</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>75.34492681671765</v>
+        <v>75.34492681671804</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>80.84427529855128</v>
+        <v>80.84427529855148</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>29.74434179641131</v>
+        <v>29.74434179641106</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>66.26510757924169</v>
+        <v>66.26510757924181</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>67.45391324506753</v>
+        <v>67.45391324506737</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>19.47746814113722</v>
+        <v>19.47746814113743</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>41.22708704528277</v>
+        <v>41.22708704528222</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>47.37455015408516</v>
+        <v>47.37455015408521</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>3.896463631172363</v>
+        <v>3.896463631172114</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>33.47907048855617</v>
+        <v>33.47907048855584</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>39.47134918819414</v>
+        <v>39.47134918819336</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>12.13015175154631</v>
+        <v>12.13015175154602</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>59.11500782784347</v>
+        <v>59.11500782784324</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>70.04529885354577</v>
+        <v>70.04529885354594</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>72.04178929304004</v>
+        <v>72.04178929304049</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>83.45998692507362</v>
+        <v>83.45998692507322</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>88.07630504410565</v>
+        <v>88.07630504410574</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>27.58205086019985</v>
+        <v>27.5820508601992</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>71.24307819545831</v>
+        <v>71.24307819545697</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>77.15691367259197</v>
+        <v>77.156913672592</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>1.137460159448352</v>
+        <v>1.137460159448381</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>18.335757607753</v>
+        <v>18.33575760775317</v>
       </c>
     </row>
     <row r="227">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>1.857370428862847</v>
+        <v>1.857370428862701</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>36.08611069696848</v>
+        <v>36.08611069696808</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>38.97331769228529</v>
+        <v>38.97331769228528</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>11.62550297418525</v>
+        <v>11.62550297418557</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>60.1076920790162</v>
+        <v>60.10769207901604</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>63.93656597677242</v>
+        <v>63.93656597677283</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>51.83072348117209</v>
+        <v>51.83072348117271</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>55.06707542169701</v>
+        <v>55.0670754216967</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>58.23496379465234</v>
+        <v>58.23496379465193</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>5.027683421847737</v>
+        <v>5.027683421847819</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>16.67761090019383</v>
+        <v>16.67761090019363</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>26.24762872297202</v>
+        <v>26.24762872297211</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>14.23933515722733</v>
+        <v>14.23933515722736</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>47.49338817103399</v>
+        <v>47.49338817103413</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>49.86288917500198</v>
+        <v>49.86288917500157</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-3.059959348427562</v>
+        <v>-3.059959348427771</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>39.76628216321255</v>
+        <v>39.76628216321207</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>43.92084656388067</v>
+        <v>43.92084656388052</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>9.019437225083362</v>
+        <v>9.019437225083188</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>66.54915954221433</v>
+        <v>66.54915954221386</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>72.18570486917702</v>
+        <v>72.18570486917709</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>56.1626489827776</v>
+        <v>56.16264898277787</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>75.26110163425565</v>
+        <v>75.26110163425548</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>80.40775035548268</v>
+        <v>80.40775035548242</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>18.22126162501175</v>
+        <v>18.22126162501171</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>70.22888095467187</v>
+        <v>70.22888095467242</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>70.94968749664608</v>
+        <v>70.94968749664596</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>14.62330244148754</v>
+        <v>14.62330244148766</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>-4.848820671267386</v>
+        <v>-4.848820671267564</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>37.46933229079563</v>
+        <v>37.46933229079598</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>42.15274792535117</v>
+        <v>42.15274792535109</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>8.125997926077286</v>
+        <v>8.12599792607732</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>67.48984217676903</v>
+        <v>67.48984217676892</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>76.41920337897791</v>
+        <v>76.41920337897838</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>72.83866959408212</v>
+        <v>72.83866959408263</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>87.64372949172437</v>
+        <v>87.64372949172355</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>89.70075987091062</v>
+        <v>89.70075987091144</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>16.08755863219236</v>
+        <v>16.0875586321922</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>74.62535927059724</v>
+        <v>74.62535927059648</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>77.21652151260213</v>
+        <v>77.21652151260238</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>8.170850134940816</v>
+        <v>8.170850134941162</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>3.779845911543074</v>
+        <v>3.779845911543067</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>9.013482950591165</v>
+        <v>9.01348295059138</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-2.413671191829881</v>
+        <v>-2.413671191830296</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>5.954083949105407</v>
+        <v>5.954083949105527</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>5.33120644838684</v>
+        <v>5.331206448386773</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0.504455592160852</v>
+        <v>0.5044555921604825</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>19.64691726747953</v>
+        <v>19.64691726747905</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>20.76531886558867</v>
+        <v>20.76531886558803</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>22.80879518145614</v>
+        <v>22.80879518145623</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>28.17035359369365</v>
+        <v>28.17035359369392</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.38262901044286</v>
+        <v>29.38262901044328</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>4.515530056477129</v>
+        <v>4.515530056477271</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>6.642688893307426</v>
+        <v>6.642688893306891</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>9.809406230022335</v>
+        <v>9.809406230022347</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>10.20660604889471</v>
+        <v>10.20660604889496</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>23.68034303221189</v>
+        <v>23.68034303221174</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>34.83338877911234</v>
+        <v>34.83338877911184</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-1.593815315138563</v>
+        <v>-1.593815315138631</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>15.04525267035527</v>
+        <v>15.04525267035494</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.25698644671018</v>
+        <v>29.25698644670997</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>6.06172209198402</v>
+        <v>6.06172209198435</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>34.21577800898896</v>
+        <v>34.21577800898933</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>51.46848284247771</v>
+        <v>51.4684828424782</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>33.88206567429739</v>
+        <v>33.88206567429754</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>50.96657056457862</v>
+        <v>50.96657056457826</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>57.23880616360006</v>
+        <v>57.23880616359983</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>9.051044390395703</v>
+        <v>9.051044390395624</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>41.24406696707436</v>
+        <v>41.24406696707386</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>50.41161054982105</v>
+        <v>50.41161054982086</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>9.988211922397438</v>
+        <v>9.988211922397509</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>28.54053928536862</v>
+        <v>28.54053928536819</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>39.90191400267443</v>
+        <v>39.90191400267423</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-1.22840047153495</v>
+        <v>-1.228400471535313</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>28.30558607804184</v>
+        <v>28.30558607804191</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>36.77412042310009</v>
+        <v>36.77412042309997</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>5.941661991778073</v>
+        <v>5.941661991778107</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>48.50528707253247</v>
+        <v>48.50528707253265</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>63.35739999629733</v>
+        <v>63.3573999962975</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>59.9236412398617</v>
+        <v>59.92364123986206</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>73.1211369597907</v>
+        <v>73.12113695979043</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>79.06104453590802</v>
+        <v>79.06104453590831</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>14.0513982735568</v>
+        <v>14.05139827355691</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>60.25357044661467</v>
+        <v>60.25357044661451</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>71.18614099391559</v>
+        <v>71.18614099391556</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>2.132324641562011</v>
+        <v>2.132324641561866</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>6.366328720547731</v>
+        <v>6.366328720547294</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>8.596089077292728</v>
+        <v>8.596089077292593</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-3.785591343056296</v>
+        <v>-3.785591343056524</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>9.450492671134494</v>
+        <v>9.450492671134343</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>9.452635239548702</v>
+        <v>9.452635239548945</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-6.564590283634686</v>
+        <v>-6.56459028363534</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>20.45674305393057</v>
+        <v>20.45674305392996</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>19.51550239146539</v>
+        <v>19.51550239146569</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>14.94864186980164</v>
+        <v>14.94864186980174</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>18.23680858870761</v>
+        <v>18.23680858870748</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>21.96903459355821</v>
+        <v>21.96903459355819</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>0.4404761691690204</v>
+        <v>0.4404761691684804</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>6.285968337109942</v>
+        <v>6.285968337109853</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>9.208583059190136</v>
+        <v>9.208583059190305</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>2.921005629297021</v>
+        <v>2.921005629297177</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>9.014072607660252</v>
+        <v>9.014072607659871</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>16.04605885989682</v>
+        <v>16.04605885989644</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-2.97545106923387</v>
+        <v>-2.975451069234115</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>1.661831780590774</v>
+        <v>1.661831780591129</v>
       </c>
     </row>
     <row r="333">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-4.442858362965808</v>
+        <v>-4.442858362966014</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>16.00573635922641</v>
+        <v>16.0057363592262</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>29.00060228802998</v>
+        <v>29.00060228802953</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>16.3128203123122</v>
+        <v>16.31282031231163</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>30.80520727903776</v>
+        <v>30.80520727903749</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>41.21876754750569</v>
+        <v>41.21876754750525</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-0.6523177373407734</v>
+        <v>-0.6523177373403648</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>16.94599646568246</v>
+        <v>16.9459964656825</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>20.58005796652678</v>
+        <v>20.58005796652681</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>3.712345598841107</v>
+        <v>3.712345598840788</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>10.3419108111967</v>
+        <v>10.34191081119675</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>25.21838654470323</v>
+        <v>25.21838654470271</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-4.202521925566138</v>
+        <v>-4.202521925566053</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>5.747298802972754</v>
+        <v>5.747298802972502</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>21.99517983226715</v>
+        <v>21.99517983226732</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-2.592264328872432</v>
+        <v>-2.592264328872346</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>25.66643090803159</v>
+        <v>25.66643090803202</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>46.34566583115926</v>
+        <v>46.34566583115895</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>33.53112949319673</v>
+        <v>33.53112949319674</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>46.46126097005185</v>
+        <v>46.46126097005212</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>61.2685626272952</v>
+        <v>61.26856262729519</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>0.5674586545899629</v>
+        <v>0.5674586545904035</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>26.59949840218105</v>
+        <v>26.59949840218143</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>39.49460261131556</v>
+        <v>39.49460261131553</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>5.930188078511389</v>
+        <v>5.930188078511947</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>24.77878395288441</v>
+        <v>24.77878395288455</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>40.44554584245626</v>
+        <v>40.44554584245704</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>-0.4544079441040267</v>
+        <v>-0.4544079441040338</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>44.2493788004101</v>
+        <v>44.24937880041024</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>50.13044388545076</v>
+        <v>50.13044388545097</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>8.07676856011785</v>
+        <v>8.076768560117998</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>64.88946528165164</v>
+        <v>64.88946528165158</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>72.46621226650265</v>
+        <v>72.4662122665024</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>66.52287431942793</v>
+        <v>66.52287431942833</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>72.96941245920391</v>
+        <v>72.96941245920365</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>72.23701647065452</v>
+        <v>72.23701647065431</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>11.93467784109293</v>
+        <v>11.93467784109282</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>38.98173090927823</v>
+        <v>38.9817309092779</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>60.43028552226725</v>
+        <v>60.43028552226718</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>11.00487747010977</v>
+        <v>11.00487747010983</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>34.45342530488205</v>
+        <v>34.45342530488259</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>38.75560802964505</v>
+        <v>38.75560802964517</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>-3.943373409097411</v>
+        <v>-3.943373409097525</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>29.26645268868585</v>
+        <v>29.26645268868611</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>34.3702348517772</v>
+        <v>34.3702348517771</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>3.82190188564952</v>
+        <v>3.821901885649469</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>51.50518960400763</v>
+        <v>51.50518960400697</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>59.56221470005044</v>
+        <v>59.56221470005008</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>49.88417949590579</v>
+        <v>49.88417949590573</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>61.2579395044333</v>
+        <v>61.25793950443351</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>65.0660283300019</v>
+        <v>65.06602833000221</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>13.59758166441628</v>
+        <v>13.59758166441675</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>56.18910822593672</v>
+        <v>56.18910822593615</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>60.50057850881119</v>
+        <v>60.50057850881124</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>10.48487198385752</v>
+        <v>10.4848719838577</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>35.37216226666916</v>
+        <v>35.37216226666953</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>43.35145501909189</v>
+        <v>43.35145501909206</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>-2.855738447362437</v>
+        <v>-2.855738447362462</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>38.13924703655218</v>
+        <v>38.13924703655209</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>41.95563845153605</v>
+        <v>41.95563845153598</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>6.703228319929197</v>
+        <v>6.703228319928964</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>63.13863843669097</v>
+        <v>63.13863843669038</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>73.25117391125596</v>
+        <v>73.25117391125579</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>71.66055898300056</v>
+        <v>71.6605589830007</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>82.45833295199955</v>
+        <v>82.4583329519993</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>84.64208867812408</v>
+        <v>84.64208867812434</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>14.21281815005694</v>
+        <v>14.21281815005732</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>70.75442767196998</v>
+        <v>70.75442767196948</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>77.85209433287534</v>
+        <v>77.85209433287541</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>5.137399728643896</v>
+        <v>5.137399728643604</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>7.096475606712069</v>
+        <v>7.096475606711749</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>11.37816838472295</v>
+        <v>11.37816838472293</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-1.279389202600491</v>
+        <v>-1.279389202600825</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>3.304329230171628</v>
+        <v>3.304329230171469</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>6.5426326484263</v>
+        <v>6.542632648426066</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-0.4099702111620012</v>
+        <v>-0.4099702111619763</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>16.61364592295572</v>
+        <v>16.61364592295582</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>19.87874684843704</v>
+        <v>19.87874684843727</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>17.23531057003481</v>
+        <v>17.23531057003437</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>21.50499003363856</v>
+        <v>21.50499003363835</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>23.15131539842425</v>
+        <v>23.15131539842386</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>2.316345798184376</v>
+        <v>2.316345798184379</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>10.41466001137579</v>
+        <v>10.41466001137539</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>9.113089555508346</v>
+        <v>9.113089555508441</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>5.046834888558099</v>
+        <v>5.046834888557765</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>12.50648824473318</v>
+        <v>12.50648824473311</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>28.32015453275796</v>
+        <v>28.32015453275805</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-2.718963024661342</v>
+        <v>-2.718963024661448</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>1.649955291619044</v>
+        <v>1.649955291618994</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>23.31138715644379</v>
+        <v>23.31138715644398</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-1.262193794858778</v>
+        <v>-1.262193794859105</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>13.47707378885219</v>
+        <v>13.47707378885246</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>37.66982375084723</v>
+        <v>37.66982375084707</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>16.99534384299609</v>
+        <v>16.99534384299668</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>28.88089094132254</v>
+        <v>28.88089094132225</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>41.38917373336407</v>
+        <v>41.38917373336469</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>-1.487936618053862</v>
+        <v>-1.487936618054018</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>20.81181356440494</v>
+        <v>20.81181356440522</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>34.64541630724388</v>
+        <v>34.64541630724362</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>9.992406849392983</v>
+        <v>9.992406849392998</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>19.43319036273527</v>
+        <v>19.43319036273544</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>36.97211633962293</v>
+        <v>36.97211633962318</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>3.177662728975125</v>
+        <v>3.177662728975069</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>15.10142211266833</v>
+        <v>15.10142211266824</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>34.04838218432713</v>
+        <v>34.04838218432701</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>5.625567947523866</v>
+        <v>5.625567947523944</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.6587603356386</v>
+        <v>29.65876033563846</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>55.07887397650898</v>
+        <v>55.07887397650914</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>36.10484540365034</v>
+        <v>36.10484540365053</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>43.67400390247044</v>
+        <v>43.67400390247032</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>69.24398135293663</v>
+        <v>69.2439813529361</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>7.681026896330643</v>
+        <v>7.681026896330607</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>37.74648362727299</v>
+        <v>37.74648362727302</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>54.22856206100682</v>
+        <v>54.22856206100666</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-3.836848328019105</v>
+        <v>-3.836848328018924</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>2.623403974607712</v>
+        <v>2.623403974608198</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>4.833167121129346</v>
+        <v>4.833167121129987</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-7.571436811936596</v>
+        <v>-7.571436811936714</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>2.404162643789753</v>
+        <v>2.404162643789579</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>2.595541683271961</v>
+        <v>2.595541683272145</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-5.789644610943732</v>
+        <v>-5.789644610943952</v>
       </c>
     </row>
     <row r="455">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>20.54485988351648</v>
+        <v>20.54485988351666</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>20.08189933067717</v>
+        <v>20.08189933067721</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>20.57552565431993</v>
+        <v>20.57552565432003</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>20.67575728927778</v>
+        <v>20.67575728927721</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-6.463352223096393</v>
+        <v>-6.4633522230965</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>0.8939211385434511</v>
+        <v>0.893921138543341</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-1.756952595053363</v>
+        <v>-1.756952595053129</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>13.15172656762972</v>
+        <v>13.15172656762974</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>37.8442784025276</v>
+        <v>37.84427840252773</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>38.50136182847488</v>
+        <v>38.50136182847542</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-0.2807233776854652</v>
+        <v>-0.2807233776853622</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>27.64116524490744</v>
+        <v>27.64116524490779</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>32.50248770117967</v>
+        <v>32.5024877011796</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>8.784367427961868</v>
+        <v>8.784367427961637</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>51.03425648411951</v>
+        <v>51.03425648412012</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>56.63948653700664</v>
+        <v>56.6394865370064</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>47.84001441493989</v>
+        <v>47.84001441493957</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>61.85887559654387</v>
+        <v>61.85887559654455</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>63.49116573256762</v>
+        <v>63.49116573256775</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>11.93329566433868</v>
+        <v>11.93329566433894</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>53.32848650681878</v>
+        <v>53.32848650681886</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>51.8926198433854</v>
+        <v>51.89261984338555</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>15.0605553739775</v>
+        <v>15.06055537397719</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>40.06657423583968</v>
+        <v>40.06657423583948</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>45.19582802252847</v>
+        <v>45.1958280225284</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>-1.702657531200941</v>
+        <v>-1.702657531201073</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>31.52666341753345</v>
+        <v>31.52666341753329</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>35.61897603288533</v>
+        <v>35.61897603288547</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>8.819406514913915</v>
+        <v>8.819406514913929</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>58.75895866765975</v>
+        <v>58.75895866765995</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>67.62281591595317</v>
+        <v>67.62281591595321</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>67.06450441900087</v>
+        <v>67.06450441900128</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>78.42029850256701</v>
+        <v>78.42029850256719</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>82.83831081105795</v>
+        <v>82.83831081105814</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>14.37319693630189</v>
+        <v>14.37319693630185</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>66.77124291454726</v>
+        <v>66.77124291454703</v>
       </c>
     </row>
     <row r="492">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>10.86168825079463</v>
+        <v>10.86168825079464</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>12.35914488016332</v>
+        <v>12.35914488016359</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>17.14761746972622</v>
+        <v>17.14761746972579</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>3.204347955550489</v>
+        <v>3.204347955550222</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>10.37679564605431</v>
+        <v>10.37679564605408</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>13.36444092716067</v>
+        <v>13.36444092716074</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>4.382150167862866</v>
+        <v>4.382150167863287</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>24.64208231809743</v>
+        <v>24.6420823180974</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>26.98598371645705</v>
+        <v>26.98598371645687</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>24.30769854330802</v>
+        <v>24.30769854330756</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.9592572985035</v>
+        <v>28.95925729850402</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.35917733401413</v>
+        <v>29.35917733401428</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>11.07340262332287</v>
+        <v>11.07340262332305</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>17.51724851541111</v>
+        <v>17.51724851541096</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>19.75034244792136</v>
+        <v>19.75034244792123</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>5.70931836750691</v>
+        <v>5.709318367507141</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>10.30406620525648</v>
+        <v>10.3040662052565</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>19.64717957918328</v>
+        <v>19.64717957918289</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-3.660152361372639</v>
+        <v>-3.660152361372536</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-0.8855041502637278</v>
+        <v>-0.8855041502637349</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>13.07052221179475</v>
+        <v>13.07052221179466</v>
       </c>
     </row>
     <row r="514">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>10.73395981419377</v>
+        <v>10.7339598141942</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>26.08032307444416</v>
+        <v>26.08032307444442</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>14.22317780254539</v>
+        <v>14.22317780254554</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>21.05212202988116</v>
+        <v>21.05212202988183</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>28.68876451478928</v>
+        <v>28.68876451478939</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>-2.328654377473555</v>
+        <v>-2.328654377473065</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>12.30089967407969</v>
+        <v>12.30089967407952</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>20.05317335876055</v>
+        <v>20.0531733587607</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>16.16222268732908</v>
+        <v>16.16222268732939</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>27.28694582070943</v>
+        <v>27.28694582070934</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>33.39389511284065</v>
+        <v>33.39389511284097</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>-0.01478852393904972</v>
+        <v>-0.01478852393902486</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>17.09550713556159</v>
+        <v>17.0955071355614</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>21.87570912809451</v>
+        <v>21.87570912809408</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>6.648267846476813</v>
+        <v>6.648267846476951</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>37.85633872426277</v>
+        <v>37.85633872426286</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>48.26938535567522</v>
+        <v>48.26938535567534</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>44.26442262644596</v>
+        <v>44.26442262644581</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>48.61979472894554</v>
+        <v>48.61979472894566</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>57.79523871281464</v>
+        <v>57.79523871281462</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>9.875657950885028</v>
+        <v>9.875657950884971</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>39.69050145257064</v>
+        <v>39.6905014525712</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>43.61396112672105</v>
+        <v>43.61396112672051</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>6.197958943661032</v>
+        <v>6.197958943661121</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>1.807355159951367</v>
+        <v>1.807355159951488</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>1.838221538710062</v>
+        <v>1.838221538709874</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>5.178523657099859</v>
+        <v>5.178523657099795</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-1.342083874633403</v>
+        <v>-1.342083874633545</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-0.7203100984400308</v>
+        <v>-0.7203100984399597</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>0.8606587166207831</v>
+        <v>0.8606587166204882</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>8.012847775068765</v>
+        <v>8.012847775068357</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>6.811244893253114</v>
+        <v>6.811244893253082</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>5.39401186125909</v>
+        <v>5.394011861258793</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>4.63685252947473</v>
+        <v>4.636852529474817</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>5.666005551830501</v>
+        <v>5.666005551830548</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>6.961685736105126</v>
+        <v>6.961685736104982</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>4.877100881269481</v>
+        <v>4.877100881269728</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>1.049616105363192</v>
+        <v>1.049616105363004</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>3.252478618413544</v>
+        <v>3.252478618413743</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>3.424629265451127</v>
+        <v>3.424629265450985</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>7.596625935099521</v>
+        <v>7.596625935099468</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-0.002388012908980386</v>
+        <v>-0.002388012909033677</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-4.787433549794478</v>
+        <v>-4.7874335497944</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>3.721067715378398</v>
+        <v>3.721067715378254</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-3.947349503783379</v>
+        <v>-3.947349503783396</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>2.820105185020353</v>
+        <v>2.820105185020328</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>11.5344000023133</v>
+        <v>11.53440000231359</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>3.041900240579334</v>
+        <v>3.041900240579654</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>7.858707891728608</v>
+        <v>7.85870789172853</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>10.53861103599386</v>
+        <v>10.53861103599426</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-3.629276463597421</v>
+        <v>-3.629276463597613</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>3.176174157227308</v>
+        <v>3.176174157227557</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>3.64648956552514</v>
+        <v>3.646489565525368</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>17.78613950468591</v>
+        <v>17.78613950468572</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>20.89098048503205</v>
+        <v>20.89098048503201</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>25.90950505579001</v>
+        <v>25.90950505578955</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>4.540245209957632</v>
+        <v>4.540245209957723</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>9.102272712891303</v>
+        <v>9.102272712891452</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>13.61012147475905</v>
+        <v>13.61012147475901</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>7.864221318751145</v>
+        <v>7.864221318750957</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>26.73683416877101</v>
+        <v>26.73683416877118</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>35.09492932778259</v>
+        <v>35.09492932778242</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>30.36193104760702</v>
+        <v>30.36193104760714</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>32.47008414092436</v>
+        <v>32.47008414092429</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>39.94176550632537</v>
+        <v>39.94176550632557</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>13.74098337303058</v>
+        <v>13.74098337303073</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>28.28186599597518</v>
+        <v>28.28186599597495</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>30.30085226342524</v>
+        <v>30.30085226342547</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>21.72508016919652</v>
+        <v>21.72508016919692</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>30.18845630286745</v>
+        <v>30.1884563028674</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>36.66003726094456</v>
+        <v>36.66003726094405</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>3.824806963187141</v>
+        <v>3.824806963187315</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>23.93429784931273</v>
+        <v>23.93429784931277</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>27.35157639929263</v>
+        <v>27.35157639929244</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>14.15862137649349</v>
+        <v>14.15862137649287</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>45.89592427566399</v>
+        <v>45.89592427566322</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>49.45888233844541</v>
+        <v>49.45888233844506</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>42.63785624268947</v>
+        <v>42.63785624268962</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>49.77822155013894</v>
+        <v>49.77822155013871</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>52.85816855650441</v>
+        <v>52.85816855650426</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.17058016861764</v>
+        <v>29.17058016861728</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>45.19554874113408</v>
+        <v>45.19554874113395</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>56.28181134574483</v>
+        <v>56.28181134574474</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>15.51560645694938</v>
+        <v>15.51560645694988</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>26.8851082430249</v>
+        <v>26.88510824302541</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>35.23917401308692</v>
+        <v>35.23917401308704</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-3.346213688834013</v>
+        <v>-3.346213688834187</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>8.285584811633555</v>
+        <v>8.285584811633358</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>18.5875881461773</v>
+        <v>18.58758814617757</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>3.130699899007428</v>
+        <v>3.130699899007212</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>28.32379836229072</v>
+        <v>28.32379836229066</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>41.87451450465667</v>
+        <v>41.87451450465645</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.35812589589026</v>
+        <v>29.35812589589049</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>41.40172860006754</v>
+        <v>41.40172860006768</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>46.22925871254243</v>
+        <v>46.2292587125425</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>11.98261734205315</v>
+        <v>11.98261734205301</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>38.99237209278795</v>
+        <v>38.99237209278793</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>45.11423193370349</v>
+        <v>45.11423193370311</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>22.72665912702994</v>
+        <v>22.72665912703035</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>37.57766231283561</v>
+        <v>37.57766231283604</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>46.46960119299623</v>
+        <v>46.469601192996</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>1.234497563390882</v>
+        <v>1.234497563391109</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>22.40306988255534</v>
+        <v>22.40306988255515</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>28.25560941106113</v>
+        <v>28.25560941106095</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>10.92615707809701</v>
+        <v>10.9261570780969</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>48.26811083369591</v>
+        <v>48.26811083369613</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>60.86883888921611</v>
+        <v>60.86883888921583</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>59.79328868889151</v>
+        <v>59.79328868889171</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>68.05266802519387</v>
+        <v>68.05266802519395</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>70.89479862777324</v>
+        <v>70.8947986277731</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>19.1984608748403</v>
+        <v>19.19846087484071</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>57.64550859411637</v>
+        <v>57.64550859411647</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>66.2147579681497</v>
+        <v>66.21475796815037</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>12.50159108795108</v>
+        <v>12.50159108795086</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>32.92174226181575</v>
+        <v>32.92174226181592</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>40.73113362892698</v>
+        <v>40.73113362892664</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>5.503059303920644</v>
+        <v>5.503059303920544</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>34.72497727524444</v>
+        <v>34.72497727524473</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>41.73760032291596</v>
+        <v>41.73760032291618</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>13.18315427892393</v>
+        <v>13.18315427892413</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>56.08763924288032</v>
+        <v>56.08763924288046</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>61.91986502374375</v>
+        <v>61.91986502374385</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>58.90253951213065</v>
+        <v>58.90253951213051</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>66.36157933903024</v>
+        <v>66.36157933903041</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>66.69102081941571</v>
+        <v>66.69102081941597</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>13.02863621321705</v>
+        <v>13.02863621321722</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>42.98185833204314</v>
+        <v>42.98185833204302</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>51.02376849934862</v>
+        <v>51.02376849934838</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>10.28516684375387</v>
+        <v>10.28516684375406</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>30.56555623046677</v>
+        <v>30.5655562304666</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>38.92236409115414</v>
+        <v>38.92236409115376</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>1.44357277555568</v>
+        <v>1.443572775555452</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>23.17377410637749</v>
+        <v>23.17377410637758</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>36.76900005748142</v>
+        <v>36.76900005748131</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>7.042432278679208</v>
+        <v>7.042432278679005</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>40.52573823186961</v>
+        <v>40.52573823186937</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>55.47515827521264</v>
+        <v>55.47515827521317</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>44.52248142724523</v>
+        <v>44.52248142724557</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>55.60596170848</v>
+        <v>55.6059617084798</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>62.04956509402388</v>
+        <v>62.04956509402378</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>6.790911362940674</v>
+        <v>6.790911362940244</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>45.77202555330302</v>
+        <v>45.77202555330217</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>54.17063956339322</v>
+        <v>54.17063956339308</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>9.172485220913339</v>
+        <v>9.172485220913314</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>30.08789142343457</v>
+        <v>30.08789142343435</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>43.11436272202793</v>
+        <v>43.11436272202756</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>-0.8332141611270956</v>
+        <v>-0.8332141611270032</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>26.89843068371179</v>
+        <v>26.89843068371169</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>41.10129826205139</v>
+        <v>41.10129826205165</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>5.888381119600719</v>
+        <v>5.888381119600858</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>47.09189315727984</v>
+        <v>47.09189315727944</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>66.96468768928247</v>
+        <v>66.96468768928207</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>56.21359240974906</v>
+        <v>56.21359240974895</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>68.14874726539708</v>
+        <v>68.14874726539658</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>83.41112802420008</v>
+        <v>83.41112802419991</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>5.367544536557396</v>
+        <v>5.367544536557418</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>55.20389414952123</v>
+        <v>55.20389414952098</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>67.38519436834113</v>
+        <v>67.38519436834095</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>8.565784467053279</v>
+        <v>8.565784467053287</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>26.92025290709537</v>
+        <v>26.92025290709483</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>35.95559495560853</v>
+        <v>35.95559495560819</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>3.492361497807259</v>
+        <v>3.492361497807188</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>41.23208721344231</v>
+        <v>41.23208721344176</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>45.50463609842502</v>
+        <v>45.50463609842524</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>9.902312159541143</v>
+        <v>9.902312159541161</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>59.62253834072222</v>
+        <v>59.62253834072216</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>63.88672248938625</v>
+        <v>63.88672248938635</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>54.85624935860471</v>
+        <v>54.85624935860538</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>61.54125914069191</v>
+        <v>61.54125914069221</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>63.3235202560336</v>
+        <v>63.32352025603329</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>9.183859673145289</v>
+        <v>9.183859673145232</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>34.89386855406089</v>
+        <v>34.89386855406132</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>53.0250205084992</v>
+        <v>53.02502050849915</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>11.04853527597933</v>
+        <v>11.04853527597965</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>32.70837677362204</v>
+        <v>32.70837677362243</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>39.01931369790837</v>
+        <v>39.01931369790831</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>-1.352093677629558</v>
+        <v>-1.35209367762948</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>25.46016514951752</v>
+        <v>25.46016514951754</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>34.41700547216301</v>
+        <v>34.41700547216331</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>2.848061173237298</v>
+        <v>2.848061173236811</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>44.64429379910808</v>
+        <v>44.6442937991086</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>56.13207075461026</v>
+        <v>56.13207075461051</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>45.32147185121384</v>
+        <v>45.32147185121386</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>59.75756070319753</v>
+        <v>59.75756070319786</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>66.23831286370785</v>
+        <v>66.23831286370708</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>8.414218819571516</v>
+        <v>8.414218819571502</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>49.97112011988661</v>
+        <v>49.97112011988713</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>55.57496330150158</v>
+        <v>55.57496330150237</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>11.15169262179288</v>
+        <v>11.15169262179335</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>34.93277292852556</v>
+        <v>34.93277292852582</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>42.30219443799159</v>
+        <v>42.30219443799139</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>-0.7045625018778807</v>
+        <v>-0.7045625018783355</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>33.37363444848695</v>
+        <v>33.3736344484871</v>
       </c>
     </row>
     <row r="708">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>4.279614558537979</v>
+        <v>4.279614558538103</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>55.58756374026428</v>
+        <v>55.58756374026469</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>67.00646029707389</v>
+        <v>67.00646029707431</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>67.9384513479061</v>
+        <v>67.93845134790701</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>79.56111745516239</v>
+        <v>79.56111745516186</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>83.21033229868691</v>
+        <v>83.21033229868634</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>10.81832901539194</v>
+        <v>10.81832901539184</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>64.49172042215278</v>
+        <v>64.49172042215322</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>72.32766207026125</v>
+        <v>72.32766207026171</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>14.40037984611475</v>
+        <v>14.40037984611437</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.99269661704609</v>
+        <v>29.99269661704643</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>34.78543028698594</v>
+        <v>34.7854302869857</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>15.15872483256363</v>
+        <v>15.15872483256355</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>47.44817469315236</v>
+        <v>47.44817469315251</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>50.08139326233661</v>
+        <v>50.08139326233666</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>17.98853659913644</v>
+        <v>17.98853659913619</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>60.17633327111263</v>
+        <v>60.17633327111295</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>62.1425375598051</v>
+        <v>62.14253755980452</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>49.62508762196782</v>
+        <v>49.62508762196796</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>54.62273598146787</v>
+        <v>54.62273598146763</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>59.27094930289224</v>
+        <v>59.27094930289197</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>17.93882642760924</v>
+        <v>17.93882642760897</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>35.54662671687339</v>
+        <v>35.5466267168737</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>52.57326452258214</v>
+        <v>52.57326452258165</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>20.11227340827968</v>
+        <v>20.11227340827991</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>37.20575706051109</v>
+        <v>37.20575706051073</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>41.97577919119838</v>
+        <v>41.97577919119824</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>24.13369319530494</v>
+        <v>24.13369319530496</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>45.34363095125026</v>
+        <v>45.34363095125008</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>53.53485228731657</v>
+        <v>53.53485228731673</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>14.75789361608424</v>
+        <v>14.75789361608441</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>49.58845558513195</v>
+        <v>49.58845558513222</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>59.46396410261266</v>
+        <v>59.46396410261237</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>47.91549654250603</v>
+        <v>47.91549654250622</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>61.01373835234499</v>
+        <v>61.01373835234462</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>68.49477241361836</v>
+        <v>68.49477241361754</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>20.54335910760688</v>
+        <v>20.54335910760733</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>52.47012225333217</v>
+        <v>52.47012225333196</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>57.04084632070074</v>
+        <v>57.0408463207013</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>19.93890657448616</v>
+        <v>19.93890657448635</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>38.64063785697023</v>
+        <v>38.64063785697005</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>42.72689827873409</v>
+        <v>42.72689827873398</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>25.3039178864496</v>
+        <v>25.30391788644946</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>51.81123569939661</v>
+        <v>51.8112356993968</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>55.36591592435502</v>
+        <v>55.36591592435543</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>17.57099162238513</v>
+        <v>17.57099162238484</v>
       </c>
     </row>
     <row r="755">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>69.24563547704506</v>
+        <v>69.24563547704537</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>71.34912817417032</v>
+        <v>71.34912817417016</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>79.10567010905299</v>
+        <v>79.10567010905308</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>85.01405527782774</v>
+        <v>85.01405527782759</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>26.2864207722993</v>
+        <v>26.28642077229904</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>66.62015744692519</v>
+        <v>66.62015744692512</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>74.54870294267408</v>
+        <v>74.54870294267437</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>8.639953266967105</v>
+        <v>8.639953266967165</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>28.40542123691811</v>
+        <v>28.4054212369178</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>35.87339260716138</v>
+        <v>35.87339260716182</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>0.01684583147635976</v>
+        <v>0.01684583147623187</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>29.17251605640263</v>
+        <v>29.17251605640271</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>32.99370897672864</v>
+        <v>32.99370897672829</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>9.000312787081064</v>
+        <v>9.000312787081143</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>53.681042484474</v>
+        <v>53.68104248447398</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>57.1440362634476</v>
+        <v>57.14403626344728</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>57.52688553345548</v>
+        <v>57.52688553345535</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>62.33007900484878</v>
+        <v>62.33007900484849</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>63.63029107076441</v>
+        <v>63.63029107076444</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>6.45632776863097</v>
+        <v>6.456327768630477</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>37.86645547276855</v>
+        <v>37.86645547276868</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>44.49264922438233</v>
+        <v>44.49264922438266</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>11.14417084893302</v>
+        <v>11.14417084893308</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>32.9685009631516</v>
+        <v>32.96850096315193</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>38.36393356563576</v>
+        <v>38.36393356563581</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>0.2909904618743475</v>
+        <v>0.2909904618741166</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>24.44286607695279</v>
+        <v>24.44286607695253</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>33.05016241177937</v>
+        <v>33.05016241177903</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>4.630149156270853</v>
+        <v>4.630149156271113</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>42.3870673122268</v>
+        <v>42.38706731222692</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>54.18984346834861</v>
+        <v>54.189843468349</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>43.55315067215982</v>
+        <v>43.55315067215965</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>56.6082815166131</v>
+        <v>56.60828151661246</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>60.92147967196784</v>
+        <v>60.92147967196757</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>4.067124614984868</v>
+        <v>4.067124614985444</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>43.86735842856491</v>
+        <v>43.86735842856543</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>50.82827871016388</v>
+        <v>50.82827871016449</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>10.73057586358121</v>
+        <v>10.73057586358149</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>32.50347520996086</v>
+        <v>32.50347520996134</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>43.35986033050457</v>
+        <v>43.35986033050484</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>-2.418053713168092</v>
+        <v>-2.418053713168284</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>26.56142339584495</v>
+        <v>26.56142339584485</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>36.4067721398187</v>
+        <v>36.40677213981871</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>3.128582245974531</v>
+        <v>3.12858224597484</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>47.7644736820389</v>
+        <v>47.76447368203879</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>64.86892671780791</v>
+        <v>64.86892671780819</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>58.17650179112658</v>
+        <v>58.17650179112682</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>73.43033736974894</v>
+        <v>73.43033736974945</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>83.05315468993734</v>
+        <v>83.05315468993689</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>5.413992629264044</v>
+        <v>5.41399262926403</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>57.56461268954916</v>
+        <v>57.56461268954964</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>69.55977427333758</v>
+        <v>69.55977427333775</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>12.22465572388941</v>
+        <v>12.22465572388977</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>11.73550830178286</v>
+        <v>11.73550830178331</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>15.69203562436153</v>
+        <v>15.69203562436149</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>3.194126616388118</v>
+        <v>3.194126616387692</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>11.33782524841138</v>
+        <v>11.33782524841185</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>12.36372323653952</v>
+        <v>12.36372323654004</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>8.010255103290353</v>
+        <v>8.010255103290778</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>26.53346373315337</v>
+        <v>26.53346373315375</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>28.08309056493585</v>
+        <v>28.08309056493593</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>23.63690998801264</v>
+        <v>23.63690998801263</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>27.47858378889319</v>
+        <v>27.47858378889336</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>30.0426173055138</v>
+        <v>30.04261730551418</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>9.940751478178328</v>
+        <v>9.940751478178424</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>13.23304914946942</v>
+        <v>13.2330491494694</v>
       </c>
     </row>
     <row r="822">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>9.295862563343894</v>
+        <v>9.295862563343732</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>18.90405304795033</v>
+        <v>18.90405304795046</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>32.00422904832361</v>
+        <v>32.00422904832362</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-1.06662453373356</v>
+        <v>-1.066624533733904</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>8.074886311128868</v>
+        <v>8.074886311128676</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>25.86783905376551</v>
+        <v>25.86783905376539</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>2.449749331533877</v>
+        <v>2.449749331533845</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>23.08640521146542</v>
+        <v>23.08640521146571</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>43.30387547333267</v>
+        <v>43.30387547333252</v>
       </c>
     </row>
     <row r="832">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>39.01729314995465</v>
+        <v>39.0172931499546</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>50.64939134709104</v>
+        <v>50.64939134709095</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>5.141255099080745</v>
+        <v>5.141255099080549</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.93682304786229</v>
+        <v>29.93682304786173</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>44.02872688253596</v>
+        <v>44.02872688253578</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>15.57863923574503</v>
+        <v>15.57863923574494</v>
       </c>
     </row>
     <row r="839">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>41.77724972310183</v>
+        <v>41.77724972310236</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>2.358537320218105</v>
+        <v>2.358537320218204</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>19.639657960999</v>
+        <v>19.63965796099889</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>33.9852579142417</v>
+        <v>33.98525791424166</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>7.212724570070598</v>
+        <v>7.212724570070783</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>37.88331921767526</v>
+        <v>37.8833192176754</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>57.62314466947976</v>
+        <v>57.62314466947985</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>47.09865832094886</v>
+        <v>47.09865832094879</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>55.81928712435845</v>
+        <v>55.81928712435903</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>67.41920033425082</v>
+        <v>67.41920033425042</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>7.290567125494114</v>
+        <v>7.290567125494238</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>42.51864717327196</v>
+        <v>42.51864717327233</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>61.50792052550852</v>
+        <v>61.50792052550883</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>12.58575900971271</v>
+        <v>12.58575900971285</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>23.33316511020872</v>
+        <v>23.33316511020894</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>27.59978978934873</v>
+        <v>27.59978978934834</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>2.641019741426277</v>
+        <v>2.641019741426071</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>27.90548983601036</v>
+        <v>27.90548983601078</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>30.5282011246732</v>
+        <v>30.52820112467333</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>9.978951796466012</v>
+        <v>9.978951796465914</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>45.12075929602337</v>
+        <v>45.12075929602275</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>47.1914878587793</v>
+        <v>47.19148785877968</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>35.68342175832505</v>
+        <v>35.68342175832557</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>41.8904359347077</v>
+        <v>41.89043593470778</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>46.98942609635837</v>
+        <v>46.98942609635892</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>13.72625466303127</v>
+        <v>13.72625466303087</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.60737684384454</v>
+        <v>29.60737684384485</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>44.29297032414313</v>
+        <v>44.29297032414307</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>10.36607052094729</v>
+        <v>10.36607052094711</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>23.91596420441346</v>
+        <v>23.9159642044137</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>34.2181746002904</v>
+        <v>34.21817460029087</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>4.101190385776089</v>
+        <v>4.101190385776576</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>19.76300886891297</v>
+        <v>19.7630088689127</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>34.54588049396418</v>
+        <v>34.54588049396406</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>2.220455953120311</v>
+        <v>2.220455953120442</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>31.24970647391414</v>
+        <v>31.24970647391419</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>47.37027256698181</v>
+        <v>47.3702725669815</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>30.4092759661046</v>
+        <v>30.40927596610432</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>44.53257357428616</v>
+        <v>44.53257357428576</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>56.16422262710207</v>
+        <v>56.16422262710226</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>6.214313304404662</v>
+        <v>6.214313304404694</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>36.62840046353558</v>
+        <v>36.62840046353595</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>45.76805358873948</v>
+        <v>45.76805358873865</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>9.805931401723138</v>
+        <v>9.80593140172312</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>25.24350230181896</v>
+        <v>25.243502301819</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>33.87994735692538</v>
+        <v>33.87994735692499</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>2.990770115215533</v>
+        <v>2.990770115215518</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>24.74799456959807</v>
+        <v>24.74799456959822</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>33.56967743147278</v>
+        <v>33.5696774314725</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>2.177652776932948</v>
+        <v>2.17765277693313</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>39.89101534942304</v>
+        <v>39.89101534942297</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>53.74746489025585</v>
+        <v>53.74746489025559</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>50.65022719875987</v>
+        <v>50.65022719876002</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>58.06094864359486</v>
+        <v>58.06094864359444</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>67.88008896884071</v>
+        <v>67.88008896884077</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>8.042031932573391</v>
+        <v>8.042031932573419</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>45.57930828144765</v>
+        <v>45.57930828144742</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>58.47521437179973</v>
+        <v>58.47521437179942</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>14.18981501620754</v>
+        <v>14.18981501620774</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>28.30454962041436</v>
+        <v>28.30454962041413</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>38.01175599042013</v>
+        <v>38.01175599042027</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>5.57146457754703</v>
+        <v>5.571464577546525</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>42.21884845241652</v>
+        <v>42.21884845241642</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>47.3707130196487</v>
+        <v>47.37071301964851</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>15.31577274389359</v>
+        <v>15.31577274389405</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>61.90966052348829</v>
+        <v>61.90966052348856</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>67.45122241797665</v>
+        <v>67.45122241797722</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>63.79383032711316</v>
+        <v>63.79383032711346</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>62.23193573450543</v>
+        <v>62.2319357345058</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>67.37322014572929</v>
+        <v>67.37322014572945</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>11.65180150708655</v>
+        <v>11.65180150708714</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>26.71068171228398</v>
+        <v>26.71068171228436</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>54.99945342596799</v>
+        <v>54.99945342596828</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>21.76775834507935</v>
+        <v>21.76775834507983</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>38.65303858075635</v>
+        <v>38.65303858075672</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>39.78793274114859</v>
+        <v>39.78793274114856</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>5.735974797999154</v>
+        <v>5.73597479799885</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>31.41422274144795</v>
+        <v>31.41422274144774</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>35.9191287843088</v>
+        <v>35.91912878430828</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>11.75098320240669</v>
+        <v>11.75098320240687</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>50.47915973390092</v>
+        <v>50.47915973390118</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>56.88715323572821</v>
+        <v>56.88715323572822</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>51.68001438940756</v>
+        <v>51.68001438940755</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>60.65364577089937</v>
+        <v>60.65364577089951</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>63.91936987441485</v>
+        <v>63.91936987441459</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>19.77466187394795</v>
+        <v>19.77466187394782</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>51.29635715031482</v>
+        <v>51.29635715031536</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>56.99696944412944</v>
+        <v>56.99696944412991</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>20.19427521558829</v>
+        <v>20.19427521558839</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>39.07023065471198</v>
+        <v>39.07023065471179</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>43.79491867244205</v>
+        <v>43.79491867244199</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>4.514747352620486</v>
+        <v>4.514747352620034</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>37.01851151176275</v>
+        <v>37.01851151176271</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>40.76506251170726</v>
+        <v>40.76506251170723</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>11.94241148796988</v>
+        <v>11.9424114879699</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>59.7249981224882</v>
+        <v>59.72499812248837</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>68.68150797864448</v>
+        <v>68.68150797864476</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>70.01382319234082</v>
+        <v>70.01382319234091</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>75.78829805046831</v>
+        <v>75.78829805046774</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>80.44849833834925</v>
+        <v>80.44849833835016</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>15.24448663111097</v>
+        <v>15.2444866311114</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>58.25407812018945</v>
+        <v>58.25407812018946</v>
       </c>
     </row>
     <row r="942">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>8.051187398158842</v>
+        <v>8.051187398159122</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>25.61251996091529</v>
+        <v>25.61251996091561</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>32.49084176232961</v>
+        <v>32.49084176232962</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>1.962369385596535</v>
+        <v>1.962369385596777</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>30.45585531653979</v>
+        <v>30.45585531653956</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>33.52327496879374</v>
+        <v>33.52327496879394</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>8.498873932027372</v>
+        <v>8.498873932027283</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>51.57685608929451</v>
+        <v>51.5768560892941</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>54.92789477528607</v>
+        <v>54.92789477528576</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>55.86269381479682</v>
+        <v>55.86269381479689</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>62.87898447565622</v>
+        <v>62.87898447565599</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>59.99742628462409</v>
+        <v>59.99742628462479</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>5.742894777618863</v>
+        <v>5.742894777618284</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>36.69584573691429</v>
+        <v>36.69584573691458</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>41.90283015647786</v>
+        <v>41.90283015647772</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>11.21318641510021</v>
+        <v>11.21318641510043</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>32.57437120445358</v>
+        <v>32.57437120445346</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>38.57980783559452</v>
+        <v>38.57980783559438</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>1.871029948386916</v>
+        <v>1.871029948387047</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>25.7428988304011</v>
+        <v>25.74289883040107</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>35.95556800101431</v>
+        <v>35.95556800101399</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>7.587352996112095</v>
+        <v>7.587352996112044</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>45.12794154030731</v>
+        <v>45.1279415403071</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>58.51948792146494</v>
+        <v>58.51948792146472</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>47.48959271204563</v>
+        <v>47.48959271204548</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>61.11819211316847</v>
+        <v>61.11819211316784</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>65.4310472429286</v>
+        <v>65.43104724292874</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>7.239151410665997</v>
+        <v>7.239151410665841</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>49.08870356820294</v>
+        <v>49.08870356820286</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>54.44233705529472</v>
+        <v>54.44233705529442</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>12.47843991302614</v>
+        <v>12.47843991302634</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>31.15744800682958</v>
+        <v>31.15744800682982</v>
       </c>
     </row>
     <row r="975">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>-1.127671965717955</v>
+        <v>-1.127671965717855</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>23.51664028636471</v>
+        <v>23.5166402863652</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>35.35209525339073</v>
+        <v>35.35209525339082</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>4.281519302324206</v>
+        <v>4.28151930232427</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>44.81805111546731</v>
+        <v>44.81805111546727</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>63.59012598604497</v>
+        <v>63.59012598604438</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>58.72986702787237</v>
+        <v>58.72986702787246</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>69.66058153849501</v>
+        <v>69.66058153849517</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>80.90522881409707</v>
+        <v>80.90522881409744</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>5.222908166645809</v>
+        <v>5.222908166645766</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>50.28483359386217</v>
+        <v>50.28483359386204</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>64.82113162332618</v>
+        <v>64.82113162332642</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.137</v>
+        <v>16.283</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.759</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.817</v>
+        <v>12.875</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.548</v>
+        <v>3.958</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6.098007228417375</v>
+        <v>7.331640484547403</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>11.58873359078666</v>
+        <v>10.5718291687096</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>15.29773423774501</v>
+        <v>15.39646883431155</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-4.038384969814963</v>
+        <v>-3.16319088726415</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>13.54929231556556</v>
+        <v>13.65445504032358</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>14.73157858657635</v>
+        <v>16.39096769432227</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-1.02625670899657</v>
+        <v>0.3697965952303264</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>27.71935522675092</v>
+        <v>23.07317280289212</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.92039532487487</v>
+        <v>26.01153102095969</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>24.07177454177003</v>
+        <v>23.76041556339117</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>30.72209038433621</v>
+        <v>27.86245696366375</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>33.94729868701108</v>
+        <v>32.72013192865131</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4.412902478469215</v>
+        <v>4.622177866061467</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>15.99014215550066</v>
+        <v>17.45792605592864</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>25.99413253879833</v>
+        <v>19.64978616849088</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>11.7911733770535</v>
+        <v>10.04930579236768</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.89726518067445</v>
+        <v>25.74311372265146</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>38.11530559860074</v>
+        <v>38.59566619793678</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.9236548258419148</v>
+        <v>0.09741438607361275</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>15.48776152693523</v>
+        <v>15.87404284107282</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>30.69860790434072</v>
+        <v>34.20585468823955</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2.583592412118083</v>
+        <v>0.5006023311300005</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>32.43994663060793</v>
+        <v>27.44692853287225</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>50.08838564149146</v>
+        <v>56.03609833262924</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>34.89287849130292</v>
+        <v>32.60036601791973</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>52.55610650697441</v>
+        <v>53.20227779526195</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>62.57195407429979</v>
+        <v>73.38560546078088</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>8.160105314798521</v>
+        <v>5.952607213108923</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>42.64539373766492</v>
+        <v>45.21993674155998</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>52.83244816320635</v>
+        <v>63.4833421463253</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>14.73959217598316</v>
+        <v>14.31096839174656</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>33.95091272497733</v>
+        <v>34.014804705674</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>43.39748509935617</v>
+        <v>43.23275796958185</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1.498472820660442</v>
+        <v>2.019093936478409</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>27.73773667074244</v>
+        <v>28.58994314520276</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>35.90442902660767</v>
+        <v>38.88444871429088</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5.183777934837735</v>
+        <v>3.50005649422603</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>47.31621740803137</v>
+        <v>46.86340027213895</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>61.51926561146541</v>
+        <v>60.70281087478327</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>60.37975306510353</v>
+        <v>60.92374288726513</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>73.25636089128329</v>
+        <v>77.12777399681404</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>79.80314761601377</v>
+        <v>83.98216682501256</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>14.23833973067325</v>
+        <v>14.84779857063634</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>60.33647179330276</v>
+        <v>64.35595974024028</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>70.61856506028516</v>
+        <v>70.10547106930947</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5.761382442208896</v>
+        <v>6.023610029064365</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>30.03721642894973</v>
+        <v>31.11536089266174</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>39.55095795419479</v>
+        <v>39.01521671458619</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-0.4706901734942903</v>
+        <v>2.83726084197653</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>38.54397301406256</v>
+        <v>41.56557156926489</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>43.84098501408139</v>
+        <v>42.59109938562268</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6.534731095074772</v>
+        <v>6.571941930889501</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>60.64530051402745</v>
+        <v>64.91236334095603</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>65.6547459816497</v>
+        <v>66.59605033311976</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>59.50463834675842</v>
+        <v>62.04047664271125</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>68.59532697119624</v>
+        <v>76.39868616067305</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>66.01843410075222</v>
+        <v>64.51942335118788</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>7.059382030195748</v>
+        <v>6.438347043581906</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>42.45155032653774</v>
+        <v>45.88722414328579</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>50.98039140601743</v>
+        <v>53.41630692036611</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>9.332430560166603</v>
+        <v>8.620189870229229</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>35.1008926653401</v>
+        <v>34.02882274530781</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>42.9651531686134</v>
+        <v>40.84785149616233</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-5.034103818391735</v>
+        <v>1.148126911704885</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>24.93684212100821</v>
+        <v>24.88574174261297</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>37.71564740755347</v>
+        <v>37.50482647111085</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>2.746626795806097</v>
+        <v>2.662852809872401</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>47.3308615326446</v>
+        <v>45.25975432184528</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>61.60362737584813</v>
+        <v>60.9667164149113</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>51.00849130334532</v>
+        <v>51.08809896322317</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>66.5453398987753</v>
+        <v>65.57397545418699</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>74.30607179306898</v>
+        <v>73.91152093833453</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>7.465499468953459</v>
+        <v>5.97797668212095</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>56.79344920004049</v>
+        <v>57.60126459755082</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>62.86480457225566</v>
+        <v>62.39824142467424</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>8.573424624088094</v>
+        <v>9.33204690282442</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>36.53920361764652</v>
+        <v>36.28157178076535</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>46.56386960345417</v>
+        <v>46.7368237139801</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-5.108322613565623</v>
+        <v>1.29887454731664</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>33.65831708079617</v>
+        <v>34.61683568442975</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>42.95845059321552</v>
+        <v>44.52157468926403</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4.55678121324528</v>
+        <v>4.951498857044882</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>59.50676080995575</v>
+        <v>59.69105861076041</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>74.79760873147194</v>
+        <v>77.77918754711649</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>68.52962046887917</v>
+        <v>68.00653614639504</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>82.93094104070987</v>
+        <v>84.93609746950064</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>92.24927616915275</v>
+        <v>91.54610165963322</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>7.095893670711746</v>
+        <v>6.672527096048267</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>70.41456266834197</v>
+        <v>71.59898415189618</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>76.13638953826751</v>
+        <v>76.54379050537831</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>13.12992213229799</v>
+        <v>11.72287058379703</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.38393244643168</v>
+        <v>29.99346390855226</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>35.19616908770906</v>
+        <v>34.64688419418625</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>3.932026739814377</v>
+        <v>1.9021548339093</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>33.37692597553642</v>
+        <v>35.91252929670019</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>34.95579290440629</v>
+        <v>35.22373502336168</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>9.903331211336379</v>
+        <v>6.33083290057429</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>55.16210960850807</v>
+        <v>60.8168452716309</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>56.29537496513038</v>
+        <v>56.85341090751993</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>54.77300459509367</v>
+        <v>51.24168904229917</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>60.90990556303638</v>
+        <v>61.24768267246787</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>57.81394671209275</v>
+        <v>57.97412866121743</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>10.45722144906766</v>
+        <v>11.33763944136903</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>37.33613201534564</v>
+        <v>37.04666018237226</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>41.4178830196199</v>
+        <v>41.84332062811119</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>19.14733285369382</v>
+        <v>18.59325061285893</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>43.32415083869252</v>
+        <v>42.2521886556095</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>46.28575588558203</v>
+        <v>45.17978651651937</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>4.271482914795811</v>
+        <v>4.007233956641436</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>33.58966479175336</v>
+        <v>32.6793562470568</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>40.37039719621918</v>
+        <v>39.64331716691666</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>12.87488316881962</v>
+        <v>5.110057545614644</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>56.71590388430248</v>
+        <v>56.55813530024614</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>65.42923668793568</v>
+        <v>64.60715503252852</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>58.65974373801527</v>
+        <v>58.97875857282534</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>70.74953529630545</v>
+        <v>70.17858334542895</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>74.23208899177544</v>
+        <v>74.24475092555906</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>16.81378474451406</v>
+        <v>17.16390492144764</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>60.09498690648746</v>
+        <v>62.57433594050234</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>62.50906714556007</v>
+        <v>62.83118795342048</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>17.19951286514128</v>
+        <v>17.95034244619464</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>44.14298257980754</v>
+        <v>43.26338542691258</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>49.5370380032674</v>
+        <v>50.12914265533726</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.5977349039145921</v>
+        <v>2.246247226156143</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>39.57005083925569</v>
+        <v>40.64236352566967</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>42.91485686021447</v>
+        <v>44.23285078682644</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>10.94200518304753</v>
+        <v>4.476269954945675</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>66.07875845621038</v>
+        <v>66.53508205327044</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>75.92913028453496</v>
+        <v>76.84447936498061</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>75.86078216235029</v>
+        <v>75.49253641794357</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>86.13380477602362</v>
+        <v>83.0192751645429</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>92.22852471669376</v>
+        <v>91.44943449510255</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>15.79379527795514</v>
+        <v>16.12871142569387</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>74.09695305145598</v>
+        <v>71.9780668131571</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>77.80005101651346</v>
+        <v>77.69045161608365</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>9.58822381139969</v>
+        <v>10.15523003922658</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>14.41366420466274</v>
+        <v>12.91898250118987</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>17.15719414327755</v>
+        <v>17.64422923563438</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-1.152327240239764</v>
+        <v>-0.786584360663106</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>13.07119089167547</v>
+        <v>13.59633279831317</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>13.88262920531445</v>
+        <v>13.84006002632893</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>2.567802277964184</v>
+        <v>4.009681081595062</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>28.44310142399772</v>
+        <v>26.39343460064001</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.68196322318981</v>
+        <v>27.49710956610816</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>27.06053690460605</v>
+        <v>23.43333819286238</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>32.06724264516989</v>
+        <v>26.33751328037468</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>36.92545800185438</v>
+        <v>34.40868624230827</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>30.33024799042951</v>
+        <v>63.10516281410872</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>39.3837347998363</v>
+        <v>63.90654928808281</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>46.49758563759628</v>
+        <v>60.98146156633396</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>14.08180746651353</v>
+        <v>9.093075255707685</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>25.20027396579034</v>
+        <v>24.66255962158558</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>36.53709453118224</v>
+        <v>38.92478735949834</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1.453360105972067</v>
+        <v>0.1230770057859552</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>11.72178474262534</v>
+        <v>12.24137713017099</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>26.79819108688925</v>
+        <v>29.87477633706671</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>27.80695054479205</v>
+        <v>31.7381100541552</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>44.49897480608197</v>
+        <v>58.96330109496067</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.03165124663879</v>
+        <v>31.95233914786923</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>44.83870043249548</v>
+        <v>47.90168356920368</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>56.06577950185508</v>
+        <v>69.69999910354024</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>14.82025987077898</v>
+        <v>7.107629243112211</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>41.83191289415527</v>
+        <v>45.04331325757353</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>49.17872679715439</v>
+        <v>54.52899521837129</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>20.48336608270061</v>
+        <v>20.06380312691451</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>32.39794417875941</v>
+        <v>32.54873034509576</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>43.49213157995137</v>
+        <v>44.34979768734046</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>3.297489669772936</v>
+        <v>3.383800056721306</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>19.29812853510122</v>
+        <v>18.89103811647854</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.78574623445779</v>
+        <v>31.68153926831557</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>9.387406533006459</v>
+        <v>9.970745482123309</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>42.45230303593168</v>
+        <v>44.83416266208711</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>58.00049152360882</v>
+        <v>64.62662078626231</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>49.80391358507939</v>
+        <v>44.39613583147941</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>61.77005838036705</v>
+        <v>62.67872916807161</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>71.8169550358846</v>
+        <v>80.86925226939582</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>24.48330839533182</v>
+        <v>24.79037000685685</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>57.72076149188585</v>
+        <v>60.93355148412331</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>66.73426939193232</v>
+        <v>68.12459848179145</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>10.24852751914955</v>
+        <v>7.097108276854303</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>26.97963757403659</v>
+        <v>22.83371547637279</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>30.23528201410204</v>
+        <v>30.67972756785075</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>4.086923079519632</v>
+        <v>3.06838973193398</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>35.31827408966416</v>
+        <v>33.43765229384184</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>35.94362497165277</v>
+        <v>38.26383272090757</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>13.23376841697169</v>
+        <v>8.762202406654893</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>56.6206613903168</v>
+        <v>62.12822177257242</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>56.44590377492802</v>
+        <v>62.41698516767175</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>46.00984963604663</v>
+        <v>52.84171989425141</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>51.31001287443834</v>
+        <v>65.40516933024027</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>53.96138420177591</v>
+        <v>66.01752544638731</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>13.13622669921605</v>
+        <v>12.02952835147851</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>29.00239669138017</v>
+        <v>10.41570872223791</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>37.23966155990841</v>
+        <v>11.0340656550054</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>21.56056347873691</v>
+        <v>20.44621796506354</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>44.09779670735211</v>
+        <v>42.05307599032424</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>47.10414869026773</v>
+        <v>43.91183021421735</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>8.040318017727984</v>
+        <v>4.957311457306655</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>35.23726711342697</v>
+        <v>34.13947702082901</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>41.73550835894933</v>
+        <v>42.79548155628801</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>57.36042669042491</v>
+        <v>60.67768654984498</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>65.57186520400575</v>
+        <v>66.45678961103016</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>59.24992812356386</v>
+        <v>65.16726287121048</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>75.34492681671804</v>
+        <v>75.51150483741976</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>80.84427529855148</v>
+        <v>81.46862202672465</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>29.74434179641106</v>
+        <v>32.22414199356317</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>66.26510757924181</v>
+        <v>68.25524618517295</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>67.45391324506737</v>
+        <v>70.64916067999457</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>19.47746814113743</v>
+        <v>21.88632917637961</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>41.22708704528222</v>
+        <v>41.54893937366916</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>47.37455015408521</v>
+        <v>48.75777986728788</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>3.896463631172114</v>
+        <v>3.569950873503416</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>33.47907048855584</v>
+        <v>32.26307893495841</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>39.47134918819336</v>
+        <v>41.8196480741647</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>12.13015175154602</v>
+        <v>10.85516198633741</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>59.11500782784324</v>
+        <v>62.75222233072212</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>70.04529885354594</v>
+        <v>74.75839610613794</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>72.04178929304049</v>
+        <v>74.38528884998981</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>83.45998692507322</v>
+        <v>84.62493609098109</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>88.07630504410574</v>
+        <v>86.66559395571204</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>27.5820508601992</v>
+        <v>32.73113694094718</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>71.24307819545697</v>
+        <v>71.05691353265702</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>77.156913672592</v>
+        <v>77.42013640601375</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>1.137460159448381</v>
+        <v>3.541142219855939</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>18.33575760775317</v>
+        <v>19.10304613376753</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.24992093928076</v>
+        <v>31.12073265697061</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>1.857370428862701</v>
+        <v>2.949972351492505</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>36.08611069696808</v>
+        <v>37.26045265171745</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>38.97331769228528</v>
+        <v>38.15835806008175</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>11.62550297418557</v>
+        <v>10.24944633610839</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>60.10769207901604</v>
+        <v>66.69369463312576</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>63.93656597677283</v>
+        <v>65.08034867681087</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>51.83072348117271</v>
+        <v>53.8116934920386</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>55.0670754216967</v>
+        <v>66.54103164200359</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>58.23496379465193</v>
+        <v>69.22662620270816</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>5.027683421847819</v>
+        <v>5.903559168495185</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>16.67761090019363</v>
+        <v>6.722269109012746</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>26.24762872297211</v>
+        <v>7.259039978750891</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>14.23933515722736</v>
+        <v>14.57717789750521</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>47.49338817103413</v>
+        <v>44.24771287359304</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>49.86288917500157</v>
+        <v>45.92763434991402</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-3.059959348427771</v>
+        <v>4.598055158127298</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>39.76628216321207</v>
+        <v>39.15516869922585</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>43.92084656388052</v>
+        <v>45.16383549440253</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>9.019437225083188</v>
+        <v>4.645002693526038</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>66.54915954221386</v>
+        <v>66.90791227271245</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>72.18570486917709</v>
+        <v>69.91734721649976</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>56.16264898277787</v>
+        <v>53.29052032912696</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>75.26110163425548</v>
+        <v>69.62165388567166</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>80.40775035548242</v>
+        <v>79.50178539605633</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>18.22126162501171</v>
+        <v>17.48166515971829</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>70.22888095467242</v>
+        <v>68.66767996909293</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>70.94968749664596</v>
+        <v>71.62105341199343</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>14.62330244148766</v>
+        <v>17.73829728742775</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>-4.848820671267564</v>
+        <v>3.861880953765876</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>37.46933229079598</v>
+        <v>38.35363539270017</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>42.15274792535109</v>
+        <v>43.31396360918268</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>8.12599792607732</v>
+        <v>8.533343314250853</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>67.48984217676892</v>
+        <v>67.71570443549716</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>76.41920337897838</v>
+        <v>74.74383894537254</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>72.83866959408263</v>
+        <v>72.34096303691196</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>87.64372949172355</v>
+        <v>82.43378139829049</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>89.70075987091144</v>
+        <v>88.30049645807337</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>16.0875586321922</v>
+        <v>16.57729707380731</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>74.62535927059648</v>
+        <v>76.03587259176992</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>77.21652151260238</v>
+        <v>78.72705317879773</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>8.170850134941162</v>
+        <v>3.608901035719736</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>3.779845911543067</v>
+        <v>6.907146464946784</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>9.01348295059138</v>
+        <v>8.687922521370528</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-2.413671191830296</v>
+        <v>-2.746060590343752</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>5.954083949105527</v>
+        <v>12.2432653888557</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>5.331206448386773</v>
+        <v>12.0269438135546</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0.5044555921604825</v>
+        <v>0.1890665929729813</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>19.64691726747905</v>
+        <v>18.90989195193668</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>20.76531886558803</v>
+        <v>20.29254969446326</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>22.80879518145623</v>
+        <v>22.53375123848223</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>28.17035359369392</v>
+        <v>28.8574916525975</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.38262901044328</v>
+        <v>29.95200294243347</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>4.515530056477271</v>
+        <v>3.24228175549694</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>6.642688893306891</v>
+        <v>7.919193562923322</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>9.809406230022347</v>
+        <v>9.915131829884242</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>10.20660604889496</v>
+        <v>8.620232808549591</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>23.68034303221174</v>
+        <v>24.49547082919938</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>34.83338877911184</v>
+        <v>33.4849743707281</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-1.593815315138631</v>
+        <v>2.178118992592328</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>15.04525267035494</v>
+        <v>19.03917356024853</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.25698644670997</v>
+        <v>30.533001128918</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>6.06172209198435</v>
+        <v>6.936576905207566</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>34.21577800898933</v>
+        <v>32.19249991712732</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>51.4684828424782</v>
+        <v>52.03845296204163</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>33.88206567429754</v>
+        <v>34.11319755996443</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>50.96657056457826</v>
+        <v>50.16885769107603</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>57.23880616359983</v>
+        <v>57.33087585665969</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>9.051044390395624</v>
+        <v>7.911923416143818</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>41.24406696707386</v>
+        <v>41.97825016122271</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>50.41161054982086</v>
+        <v>50.59806683822011</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>9.988211922397509</v>
+        <v>9.376979435503486</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>28.54053928536819</v>
+        <v>29.99737253565649</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>39.90191400267423</v>
+        <v>38.60150825778366</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-1.228400471535313</v>
+        <v>2.16502053594558</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>28.30558607804191</v>
+        <v>30.76424754264234</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>36.77412042309997</v>
+        <v>36.83872757148418</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>5.941661991778107</v>
+        <v>6.02849390549569</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>48.50528707253265</v>
+        <v>49.45891278527888</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>63.3573999962975</v>
+        <v>60.30944257613443</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>59.92364123986206</v>
+        <v>62.34025195870105</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>73.12113695979043</v>
+        <v>73.90140350376264</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>79.06104453590831</v>
+        <v>78.55125001336401</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>14.05139827355691</v>
+        <v>10.41671837856313</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>60.25357044661451</v>
+        <v>61.38019651141568</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>71.18614099391556</v>
+        <v>72.75284490500782</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>2.132324641561866</v>
+        <v>1.801929432483576</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>6.366328720547294</v>
+        <v>5.935390424114825</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>8.596089077292593</v>
+        <v>10.34774531065372</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-3.785591343056524</v>
+        <v>-3.691148155493156</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>9.450492671134343</v>
+        <v>8.942106605529865</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>9.452635239548945</v>
+        <v>11.11324129552486</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-6.56459028363534</v>
+        <v>-1.967940779107138</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>20.45674305392996</v>
+        <v>16.09079746600011</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>19.51550239146569</v>
+        <v>15.11261770479399</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>14.94864186980174</v>
+        <v>14.75285288777547</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>18.23680858870748</v>
+        <v>16.72756590527896</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>21.96903459355819</v>
+        <v>16.63179189357467</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>0.4404761691684804</v>
+        <v>4.253804621875386</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>6.285968337109853</v>
+        <v>12.0308069190443</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>9.208583059190305</v>
+        <v>11.93899885665196</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>2.921005629297177</v>
+        <v>2.469562281732742</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>9.014072607659871</v>
+        <v>7.588712626384179</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>16.04605885989644</v>
+        <v>17.81819671017794</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-2.975451069234115</v>
+        <v>-3.583353126480077</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>1.661831780591129</v>
+        <v>1.438327291136609</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>13.00575562565497</v>
+        <v>12.57904386997186</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-4.442858362966014</v>
+        <v>-0.5849338775045361</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>16.0057363592262</v>
+        <v>9.815161696182933</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>29.00060228802953</v>
+        <v>28.44321214833787</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>16.31282031231163</v>
+        <v>14.17477005256263</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>30.80520727903749</v>
+        <v>24.3734302080213</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>41.21876754750525</v>
+        <v>41.39825632103047</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-0.6523177373403648</v>
+        <v>-2.184113754530159</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>16.9459964656825</v>
+        <v>13.24676253853919</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>20.58005796652681</v>
+        <v>14.11448647053504</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>3.712345598840788</v>
+        <v>5.354784200818145</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>10.34191081119675</v>
+        <v>10.50386985065072</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>25.21838654470271</v>
+        <v>30.38313536282797</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-4.202521925566053</v>
+        <v>-5.04058227824553</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>5.747298802972502</v>
+        <v>4.336261789722172</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>21.99517983226732</v>
+        <v>22.9338230807574</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-2.592264328872346</v>
+        <v>-0.7872859759111641</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>25.66643090803202</v>
+        <v>14.86231389446253</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>46.34566583115895</v>
+        <v>51.93595517469797</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>33.53112949319674</v>
+        <v>20.65931588033348</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>46.46126097005212</v>
+        <v>48.43909235415042</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>61.26856262729519</v>
+        <v>66.33310516243701</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>0.5674586545904035</v>
+        <v>-4.827243430798255</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>26.59949840218143</v>
+        <v>12.272210425038</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>39.49460261131553</v>
+        <v>23.24798624202206</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>5.930188078511947</v>
+        <v>8.49366053723331</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>24.77878395288455</v>
+        <v>22.36110045910185</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>40.44554584245704</v>
+        <v>36.29646035697527</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>-0.4544079441040338</v>
+        <v>5.544497986733866</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>44.24937880041024</v>
+        <v>44.62861122687102</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>50.13044388545097</v>
+        <v>46.77176881180896</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>8.076768560117998</v>
+        <v>7.912798055306872</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>64.88946528165158</v>
+        <v>66.92296811908935</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>72.4662122665024</v>
+        <v>69.10040568896009</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>66.52287431942833</v>
+        <v>61.66490588639154</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>72.96941245920365</v>
+        <v>70.50566296672288</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>72.23701647065431</v>
+        <v>65.66912842469179</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>11.93467784109282</v>
+        <v>22.65720340842894</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>38.9817309092779</v>
+        <v>41.08289669868353</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>60.43028552226718</v>
+        <v>66.95365278875076</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>11.00487747010983</v>
+        <v>9.91793875665163</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>34.45342530488259</v>
+        <v>33.95991343938658</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>38.75560802964517</v>
+        <v>36.8672661063642</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>-3.943373409097525</v>
+        <v>2.471686166331711</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>29.26645268868611</v>
+        <v>30.12386405770276</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>34.3702348517771</v>
+        <v>35.03260900943079</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>3.821901885649469</v>
+        <v>3.522317211279887</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>51.50518960400697</v>
+        <v>51.20894376863236</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>59.56221470005008</v>
+        <v>55.76386656396267</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>49.88417949590573</v>
+        <v>48.93546809923094</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>61.25793950443351</v>
+        <v>57.93014253539151</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>65.06602833000221</v>
+        <v>62.66826300366208</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>13.59758166441675</v>
+        <v>15.52550437494607</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>56.18910822593615</v>
+        <v>56.20690821056803</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>60.50057850881124</v>
+        <v>57.51904641270293</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>10.4848719838577</v>
+        <v>12.88372329057033</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>35.37216226666953</v>
+        <v>35.84605709190657</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>43.35145501909206</v>
+        <v>43.76505547115426</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>-2.855738447362462</v>
+        <v>3.978061942343903</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>38.13924703655209</v>
+        <v>39.42914515791661</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>41.95563845153598</v>
+        <v>43.68522002158137</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>6.703228319928964</v>
+        <v>7.796109836898019</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>63.13863843669038</v>
+        <v>62.35715324643901</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>73.25117391125579</v>
+        <v>72.16701890771402</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>71.6605589830007</v>
+        <v>68.64956895104973</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>82.4583329519993</v>
+        <v>79.15327980508714</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>84.64208867812434</v>
+        <v>82.49662196439195</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>14.21281815005732</v>
+        <v>14.24431804729308</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>70.75442767196948</v>
+        <v>69.56808739709295</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>77.85209433287541</v>
+        <v>78.89157730776932</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>5.137399728643604</v>
+        <v>4.38234876437615</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>7.096475606711749</v>
+        <v>11.35394736631312</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>11.37816838472293</v>
+        <v>12.92774727308299</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-1.279389202600825</v>
+        <v>-1.598225298904563</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>3.304329230171469</v>
+        <v>9.798045604321683</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>6.542632648426066</v>
+        <v>11.08256834437046</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-0.4099702111619763</v>
+        <v>1.242095942980995</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>16.61364592295582</v>
+        <v>17.42813570766885</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>19.87874684843727</v>
+        <v>20.04748662133889</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>17.23531057003437</v>
+        <v>18.07322276827095</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>21.50499003363835</v>
+        <v>22.22272954195841</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>23.15131539842386</v>
+        <v>25.67295401709308</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>2.316345798184379</v>
+        <v>3.056791345642026</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>10.41466001137539</v>
+        <v>13.4244148524029</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>9.113089555508441</v>
+        <v>13.71403769628763</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>5.046834888557765</v>
+        <v>5.671001532673237</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>12.50648824473311</v>
+        <v>15.29383730682146</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>28.32015453275805</v>
+        <v>28.40045116441199</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-2.718963024661448</v>
+        <v>-0.7841994622878161</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>1.649955291618994</v>
+        <v>7.458563389332735</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>23.31138715644398</v>
+        <v>24.29420415779192</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-1.262193794859105</v>
+        <v>1.322728427531491</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>13.47707378885246</v>
+        <v>12.43957481588445</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>37.66982375084707</v>
+        <v>41.96926550184507</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>16.99534384299668</v>
+        <v>16.77247531280666</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>28.88089094132225</v>
+        <v>29.01467652923309</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>41.38917373336469</v>
+        <v>41.37661973422311</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>-1.487936618054018</v>
+        <v>0.7548174640250949</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>20.81181356440522</v>
+        <v>25.9941552843635</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>34.64541630724362</v>
+        <v>36.54474556666214</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>9.992406849392998</v>
+        <v>11.6739849657421</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>19.43319036273544</v>
+        <v>23.04763081874802</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>36.97211633962318</v>
+        <v>37.15705639329279</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>3.177662728975069</v>
+        <v>3.120871211239876</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>15.10142211266824</v>
+        <v>16.13163754493429</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>34.04838218432701</v>
+        <v>30.59742017619346</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>5.625567947523944</v>
+        <v>8.765124929274538</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.65876033563846</v>
+        <v>29.1938143061385</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>55.07887397650914</v>
+        <v>54.45925344924395</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>36.10484540365053</v>
+        <v>33.17059152626474</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>43.67400390247032</v>
+        <v>43.01868890479217</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>69.2439813529361</v>
+        <v>68.9135618141529</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>7.681026896330607</v>
+        <v>15.8673396757072</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>37.74648362727302</v>
+        <v>39.45379251897494</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>54.22856206100666</v>
+        <v>54.43083434585589</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-3.836848328018924</v>
+        <v>2.67702966205599</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>2.623403974608198</v>
+        <v>2.72629998746288</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>4.833167121129987</v>
+        <v>7.653089934241056</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-7.571436811936714</v>
+        <v>-4.958468363822803</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>2.404162643789579</v>
+        <v>2.485534856124417</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>2.595541683272145</v>
+        <v>3.926732704411286</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-5.789644610943952</v>
+        <v>3.160481321647929</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>21.67086743475334</v>
+        <v>12.58132118086789</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>20.54485988351666</v>
+        <v>12.43519879632862</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>20.08189933067721</v>
+        <v>3.566238424209221</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>20.57552565432003</v>
+        <v>3.967014167264793</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>20.67575728927721</v>
+        <v>17.91976240616111</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-6.4633522230965</v>
+        <v>-3.432166716311205</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>0.893921138543341</v>
+        <v>-3.412374365994999</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-1.756952595053129</v>
+        <v>3.496553978405668</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>13.15172656762974</v>
+        <v>16.89310361875567</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>37.84427840252773</v>
+        <v>36.55595940009467</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>38.50136182847542</v>
+        <v>38.61188093617972</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-0.2807233776853622</v>
+        <v>4.670330100902678</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>27.64116524490779</v>
+        <v>27.15499413855223</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>32.5024877011796</v>
+        <v>34.07615793479248</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>8.784367427961637</v>
+        <v>8.279043816332738</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>51.03425648412012</v>
+        <v>51.44188503045874</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>56.6394865370064</v>
+        <v>56.85017467807167</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>47.84001441493957</v>
+        <v>48.61386486286797</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>61.85887559654455</v>
+        <v>57.28199954368932</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>63.49116573256775</v>
+        <v>62.73760899903702</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>11.93329566433894</v>
+        <v>14.3973019441921</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>53.32848650681886</v>
+        <v>52.7573975778094</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>51.89261984338555</v>
+        <v>53.3530531702083</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>15.06055537397719</v>
+        <v>17.17906253397965</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>40.06657423583948</v>
+        <v>39.28400082250866</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>45.1958280225284</v>
+        <v>46.24857946417659</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>-1.702657531201073</v>
+        <v>2.691267025526251</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>31.52666341753329</v>
+        <v>35.07848205655479</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>35.61897603288547</v>
+        <v>38.85165517609153</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>8.819406514913929</v>
+        <v>8.079499889147307</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>58.75895866765995</v>
+        <v>62.57125003160797</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>67.62281591595321</v>
+        <v>69.34441323044875</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>67.06450441900128</v>
+        <v>67.54857525272094</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>78.42029850256719</v>
+        <v>77.59418318791846</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>82.83831081105814</v>
+        <v>83.43329224973071</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>14.37319693630185</v>
+        <v>14.6589353701513</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>66.77124291454703</v>
+        <v>66.6137268433074</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>67.7714980902245</v>
+        <v>70.44670498062257</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>10.86168825079464</v>
+        <v>9.862561819964682</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>12.35914488016359</v>
+        <v>15.15256954315342</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>17.14761746972579</v>
+        <v>17.05447278052269</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>3.204347955550222</v>
+        <v>0.4927532305908287</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>10.37679564605408</v>
+        <v>15.06595644013701</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>13.36444092716074</v>
+        <v>13.97448515431347</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>4.382150167863287</v>
+        <v>8.3561040415719</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>24.6420823180974</v>
+        <v>26.37855319264748</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>26.98598371645687</v>
+        <v>23.94121748210866</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>24.30769854330756</v>
+        <v>25.14412991759371</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.95925729850402</v>
+        <v>28.90358774210307</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.35917733401428</v>
+        <v>30.07171543377712</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>11.07340262332305</v>
+        <v>10.22710626328655</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>17.51724851541096</v>
+        <v>16.58043023718236</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>19.75034244792123</v>
+        <v>18.29913889204255</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>5.709318367507141</v>
+        <v>4.683070454799278</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>10.3040662052565</v>
+        <v>12.14336302064825</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>19.64717957918289</v>
+        <v>20.37827053892116</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-3.660152361372536</v>
+        <v>-5.077298581922186</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-0.8855041502637349</v>
+        <v>2.193714354239152</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>13.07052221179466</v>
+        <v>13.84145390327916</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-3.931251298293454</v>
+        <v>-3.834832856681629</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>10.7339598141942</v>
+        <v>9.586398078029692</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>26.08032307444442</v>
+        <v>28.17684148395264</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>14.22317780254554</v>
+        <v>13.03577224335207</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>21.05212202988183</v>
+        <v>20.18182566895004</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>28.68876451478939</v>
+        <v>28.50758149503723</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>-2.328654377473065</v>
+        <v>-2.997088939562371</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>12.30089967407952</v>
+        <v>14.7180563644227</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>20.0531733587607</v>
+        <v>20.83924878566922</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>16.16222268732939</v>
+        <v>14.88635529635733</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>27.28694582070934</v>
+        <v>28.82397602740063</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>33.39389511284097</v>
+        <v>33.96174219359227</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>-0.01478852393902486</v>
+        <v>0.5379797347862905</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>17.0955071355614</v>
+        <v>20.74482047754575</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>21.87570912809408</v>
+        <v>24.7132037019305</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>6.648267846476951</v>
+        <v>5.402574604615761</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>37.85633872426286</v>
+        <v>39.29341310372789</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>48.26938535567534</v>
+        <v>48.56643040374328</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>44.26442262644581</v>
+        <v>45.51507731026389</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>48.61979472894566</v>
+        <v>48.46044495454568</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>57.79523871281462</v>
+        <v>63.05908457500864</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>9.875657950884971</v>
+        <v>12.86655527423755</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>39.6905014525712</v>
+        <v>40.88237911664383</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>43.61396112672051</v>
+        <v>44.6635972737559</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>6.197958943661121</v>
+        <v>4.784374573764598</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>1.807355159951488</v>
+        <v>5.990586867736297</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>1.838221538709874</v>
+        <v>6.393543046457911</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>5.178523657099795</v>
+        <v>-2.293595905392987</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-1.342083874633545</v>
+        <v>3.949336465174465</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-0.7203100984399597</v>
+        <v>2.641827610555172</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>0.8606587166204882</v>
+        <v>4.892035780357357</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>8.012847775068357</v>
+        <v>10.17568520289646</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>6.811244893253082</v>
+        <v>8.047507477836465</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>5.394011861258793</v>
+        <v>6.719404202482579</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>4.636852529474817</v>
+        <v>6.132561666590263</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>5.666005551830548</v>
+        <v>11.14826068219608</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>6.961685736104982</v>
+        <v>5.256600356292598</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>4.877100881269728</v>
+        <v>7.039024358878894</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>1.049616105363004</v>
+        <v>7.879167429714567</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>3.252478618413743</v>
+        <v>2.217337671165133</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>3.424629265450985</v>
+        <v>5.846810253457793</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>7.596625935099468</v>
+        <v>7.270146519961354</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-0.002388012909033677</v>
+        <v>-4.497596995457595</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-4.7874335497944</v>
+        <v>-3.194031611829406</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>3.721067715378254</v>
+        <v>1.862639527417748</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-3.947349503783396</v>
+        <v>-3.809077608741898</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>2.820105185020328</v>
+        <v>2.445753912153179</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>11.53440000231359</v>
+        <v>7.079984537363387</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>3.041900240579654</v>
+        <v>4.53672286027782</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>7.85870789172853</v>
+        <v>7.273281578218544</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>10.53861103599426</v>
+        <v>7.293206247735018</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-3.629276463597613</v>
+        <v>-4.564659463345517</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>3.176174157227557</v>
+        <v>3.673971255518769</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>3.646489565525368</v>
+        <v>4.277121691551727</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>17.78613950468572</v>
+        <v>15.45792144420608</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>20.89098048503201</v>
+        <v>23.29188138987208</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>25.90950505578955</v>
+        <v>25.84858919600548</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>4.540245209957723</v>
+        <v>2.458455225664199</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>9.102272712891452</v>
+        <v>13.86440091669778</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>13.61012147475901</v>
+        <v>15.95800399557211</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>7.864221318750957</v>
+        <v>7.258120372986966</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>26.73683416877118</v>
+        <v>29.9432955166855</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>35.09492932778242</v>
+        <v>33.20075474161123</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>30.36193104760714</v>
+        <v>32.55298610761024</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>32.47008414092429</v>
+        <v>34.56235056075273</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>39.94176550632557</v>
+        <v>42.2407274795182</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>13.74098337303073</v>
+        <v>20.92310230351728</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>28.28186599597495</v>
+        <v>29.44997266538559</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>30.30085226342547</v>
+        <v>31.51759274266576</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>21.72508016919692</v>
+        <v>20.14213511711252</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>30.1884563028674</v>
+        <v>29.95071278940825</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>36.66003726094405</v>
+        <v>36.53019329848067</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>3.824806963187315</v>
+        <v>4.022158850066063</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>23.93429784931277</v>
+        <v>24.00887488483856</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>27.35157639929244</v>
+        <v>29.27688035790069</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>14.15862137649287</v>
+        <v>13.50769337219681</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>45.89592427566322</v>
+        <v>45.71272787083265</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>49.45888233844506</v>
+        <v>48.81533431900137</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>42.63785624268962</v>
+        <v>43.33472619450495</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>49.77822155013871</v>
+        <v>50.46184295309192</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>52.85816855650426</v>
+        <v>53.04798597655959</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.17058016861728</v>
+        <v>29.3758050389639</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>45.19554874113395</v>
+        <v>56.97109436084084</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>56.28181134574474</v>
+        <v>58.70019280706644</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>15.51560645694988</v>
+        <v>11.33509345940654</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>26.88510824302541</v>
+        <v>24.2140888662685</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>35.23917401308704</v>
+        <v>29.6338643997744</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-3.346213688834187</v>
+        <v>-2.721856566897991</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>8.285584811633358</v>
+        <v>9.346480825966218</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>18.58758814617757</v>
+        <v>15.77793508657811</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>3.130699899007212</v>
+        <v>3.128302464295619</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>28.32379836229066</v>
+        <v>26.73490660108278</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>41.87451450465645</v>
+        <v>37.80320214916122</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.35812589589049</v>
+        <v>28.61746069352816</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>41.40172860006768</v>
+        <v>37.10165187935483</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>46.2292587125425</v>
+        <v>45.18831679002429</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>11.98261734205301</v>
+        <v>15.73055280609728</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>38.99237209278793</v>
+        <v>41.9419495112504</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>45.11423193370311</v>
+        <v>48.42875768614687</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>22.72665912703035</v>
+        <v>20.96801974893531</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>37.57766231283604</v>
+        <v>36.26273117640437</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>46.469601192996</v>
+        <v>45.54997435853954</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>1.234497563391109</v>
+        <v>3.213166786958706</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>22.40306988255515</v>
+        <v>24.25549433435886</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>28.25560941106095</v>
+        <v>30.50595204512447</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>10.9261570780969</v>
+        <v>11.9701655411622</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>48.26811083369613</v>
+        <v>49.0260124578427</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>60.86883888921583</v>
+        <v>61.05326854210188</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>59.79328868889171</v>
+        <v>62.55923122433018</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>68.05266802519395</v>
+        <v>69.82789882272294</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>70.8947986277731</v>
+        <v>75.44119506353347</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>19.19846087484071</v>
+        <v>29.02469880844034</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>57.64550859411647</v>
+        <v>58.89144508385517</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>66.21475796815037</v>
+        <v>68.75456761922624</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>12.50159108795086</v>
+        <v>14.09990115005182</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>32.92174226181592</v>
+        <v>33.32834671854272</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>40.73113362892664</v>
+        <v>38.80469141842328</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>5.503059303920544</v>
+        <v>5.608099264500922</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>34.72497727524473</v>
+        <v>37.66115104349083</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>41.73760032291618</v>
+        <v>39.13515260139961</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>13.18315427892413</v>
+        <v>12.59783273374878</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>56.08763924288046</v>
+        <v>58.5281677134542</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>61.91986502374385</v>
+        <v>62.17557742406235</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>58.90253951213051</v>
+        <v>60.78525565362914</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>66.36157933903041</v>
+        <v>68.9587463793666</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>66.69102081941597</v>
+        <v>67.50170099375126</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>13.02863621321722</v>
+        <v>12.9619871927921</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>42.98185833204302</v>
+        <v>41.45486166709607</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>51.02376849934838</v>
+        <v>50.37780696643724</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>10.28516684375406</v>
+        <v>9.522897567707421</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>30.5655562304666</v>
+        <v>29.77840195267577</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>38.92236409115376</v>
+        <v>35.06299434816746</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>1.443572775555452</v>
+        <v>4.30031824410235</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>23.17377410637758</v>
+        <v>24.23392226343255</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>36.76900005748131</v>
+        <v>33.84494060020968</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>7.042432278679005</v>
+        <v>7.453388605559084</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>40.52573823186937</v>
+        <v>41.14893474898763</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>55.47515827521317</v>
+        <v>54.11754307889382</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>44.52248142724557</v>
+        <v>45.83486336857982</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>55.6059617084798</v>
+        <v>53.20586611687087</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>62.04956509402378</v>
+        <v>60.66901930868499</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>6.790911362940244</v>
+        <v>6.728225221007666</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>45.77202555330217</v>
+        <v>47.94300103407697</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>54.17063956339308</v>
+        <v>52.8523914290318</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>9.172485220913314</v>
+        <v>9.025880656858142</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>30.08789142343435</v>
+        <v>30.25419654172144</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>43.11436272202756</v>
+        <v>40.49205244568363</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>-0.8332141611270032</v>
+        <v>3.62575783406248</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>26.89843068371169</v>
+        <v>29.36001455926148</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>41.10129826205165</v>
+        <v>39.14316328789391</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>5.888381119600858</v>
+        <v>7.332788817598981</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>47.09189315727944</v>
+        <v>47.84883972038155</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>66.96468768928207</v>
+        <v>66.25952315458447</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>56.21359240974895</v>
+        <v>56.70077628365756</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>68.14874726539658</v>
+        <v>68.36593178842047</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>83.41112802419991</v>
+        <v>83.15427613521241</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>5.367544536557418</v>
+        <v>5.715743634037075</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>55.20389414952098</v>
+        <v>56.69690205341553</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>67.38519436834095</v>
+        <v>67.4320656770593</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>8.565784467053287</v>
+        <v>8.352096976873408</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>26.92025290709483</v>
+        <v>23.86041350058439</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>35.95559495560819</v>
+        <v>34.69818425061943</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>3.492361497807188</v>
+        <v>4.850863484560954</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>41.23208721344176</v>
+        <v>41.39949841290097</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>45.50463609842524</v>
+        <v>47.51070456274768</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>9.902312159541161</v>
+        <v>8.209699479747151</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>59.62253834072216</v>
+        <v>66.77833394672646</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>63.88672248938635</v>
+        <v>67.14267142752244</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>54.85624935860538</v>
+        <v>62.4040924992441</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>61.54125914069221</v>
+        <v>63.24828649198246</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>63.32352025603329</v>
+        <v>63.50477436760836</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>9.183859673145232</v>
+        <v>9.636328997485805</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>34.89386855406132</v>
+        <v>33.7498858635234</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>53.02502050849915</v>
+        <v>64.62018038460474</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>11.04853527597965</v>
+        <v>10.32337252330978</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>32.70837677362243</v>
+        <v>33.01407782739221</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>39.01931369790831</v>
+        <v>37.10492233816422</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>-1.35209367762948</v>
+        <v>1.619681317611715</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>25.46016514951754</v>
+        <v>26.22496927364684</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>34.41700547216331</v>
+        <v>35.18266132351891</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>2.848061173236811</v>
+        <v>1.079680220841372</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>44.6442937991086</v>
+        <v>47.58829546770347</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>56.13207075461051</v>
+        <v>55.67529436037933</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>45.32147185121386</v>
+        <v>45.3056225640949</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>59.75756070319786</v>
+        <v>55.50552120620053</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>66.23831286370708</v>
+        <v>63.63528428430094</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>8.414218819571502</v>
+        <v>7.24806868513053</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>49.97112011988713</v>
+        <v>50.65268929478498</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>55.57496330150237</v>
+        <v>57.40045460236033</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>11.15169262179335</v>
+        <v>12.75786302539452</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>34.93277292852582</v>
+        <v>34.6282818960058</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>42.30219443799139</v>
+        <v>43.85956867659642</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>-0.7045625018783355</v>
+        <v>2.967833874534154</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>33.3736344484871</v>
+        <v>33.91926492242028</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>38.69058312853332</v>
+        <v>42.63589590947034</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>4.279614558538103</v>
+        <v>4.268560447442376</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>55.58756374026469</v>
+        <v>56.75703172769883</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>67.00646029707431</v>
+        <v>69.1069543798059</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>67.93845134790701</v>
+        <v>68.92007383770355</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>79.56111745516186</v>
+        <v>80.84304456682807</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>83.21033229868634</v>
+        <v>84.09430314657949</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>10.81832901539184</v>
+        <v>8.88077984767887</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>64.49172042215322</v>
+        <v>65.10100103982319</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>72.32766207026171</v>
+        <v>72.43762089825167</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>14.40037984611437</v>
+        <v>16.1891195708055</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.99269661704643</v>
+        <v>23.91209739686795</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>34.7854302869857</v>
+        <v>37.40573972894249</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>15.15872483256355</v>
+        <v>12.97834756307813</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>47.44817469315251</v>
+        <v>50.22898596562315</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>50.08139326233666</v>
+        <v>54.96964115525246</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>17.98853659913619</v>
+        <v>16.16857531702244</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>60.17633327111295</v>
+        <v>67.8672230583462</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>62.14253755980452</v>
+        <v>73.39209608066548</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>49.62508762196796</v>
+        <v>59.70691638580466</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>54.62273598146763</v>
+        <v>59.82721103905513</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>59.27094930289197</v>
+        <v>60.87794372489807</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>17.93882642760897</v>
+        <v>16.86644490409213</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>35.5466267168737</v>
+        <v>30.56900909936305</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>52.57326452258165</v>
+        <v>50.89578961349565</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>20.11227340827991</v>
+        <v>22.84101569590795</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>37.20575706051073</v>
+        <v>35.34990172254521</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>41.97577919119824</v>
+        <v>41.30859649864343</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>24.13369319530496</v>
+        <v>34.66030005851265</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>45.34363095125008</v>
+        <v>49.24566953725008</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>53.53485228731673</v>
+        <v>59.72034220051059</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>14.75789361608441</v>
+        <v>12.57831438766121</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>49.58845558513222</v>
+        <v>49.10818628508358</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>59.46396410261237</v>
+        <v>61.96344369073731</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>47.91549654250622</v>
+        <v>47.62719110566018</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>61.01373835234462</v>
+        <v>55.41632734404727</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>68.49477241361754</v>
+        <v>61.21696047535251</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>20.54335910760733</v>
+        <v>25.08153471698659</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>52.47012225333196</v>
+        <v>52.28750248402285</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>57.0408463207013</v>
+        <v>59.14453108967844</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>19.93890657448635</v>
+        <v>23.17468530400662</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>38.64063785697005</v>
+        <v>38.97196406057517</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>42.72689827873398</v>
+        <v>44.39108181569589</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>25.30391788644946</v>
+        <v>35.97106700743318</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>51.8112356993968</v>
+        <v>56.62675506608828</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>55.36591592435543</v>
+        <v>61.06690761496964</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>17.57099162238484</v>
+        <v>16.77510115054672</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>60.49260751608737</v>
+        <v>65.18011516894641</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>69.24563547704537</v>
+        <v>72.32780905483244</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>71.34912817417016</v>
+        <v>78.09231275335391</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>79.10567010905308</v>
+        <v>80.53480653187724</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>85.01405527782759</v>
+        <v>84.01713345752525</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>26.28642077229904</v>
+        <v>26.46531905911718</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>66.62015744692512</v>
+        <v>66.80360303045519</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>74.54870294267437</v>
+        <v>76.58906198032432</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>8.639953266967165</v>
+        <v>8.242151420355118</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>28.4054212369178</v>
+        <v>26.85257203348371</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>35.87339260716182</v>
+        <v>35.64736080923718</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>0.01684583147623187</v>
+        <v>3.033209223959116</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>29.17251605640271</v>
+        <v>27.70723684209124</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>32.99370897672829</v>
+        <v>34.57407038923076</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>9.000312787081143</v>
+        <v>8.634754635518131</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>53.68104248447398</v>
+        <v>53.74443889454724</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>57.14403626344728</v>
+        <v>57.33528378500317</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>57.52688553345535</v>
+        <v>60.8496400747551</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>62.33007900484849</v>
+        <v>61.92439229221465</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>63.63029107076444</v>
+        <v>62.26800612566655</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>6.456327768630477</v>
+        <v>6.696023475485923</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>37.86645547276868</v>
+        <v>40.99000496944693</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>44.49264922438266</v>
+        <v>44.34874299547585</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>11.14417084893308</v>
+        <v>10.42729925940642</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>32.96850096315193</v>
+        <v>32.42316173338467</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>38.36393356563581</v>
+        <v>35.82796594742564</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>0.2909904618741166</v>
+        <v>3.629854809947652</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>24.44286607695253</v>
+        <v>26.37883155974009</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>33.05016241177903</v>
+        <v>33.46907460228419</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>4.630149156271113</v>
+        <v>5.715916536913273</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>42.38706731222692</v>
+        <v>44.90745079328414</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>54.189843468349</v>
+        <v>55.00475441727581</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>43.55315067215965</v>
+        <v>45.59961848676935</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>56.60828151661246</v>
+        <v>55.45267299285491</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>60.92147967196757</v>
+        <v>61.55154872120268</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>4.067124614985444</v>
+        <v>7.079120311099345</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>43.86735842856543</v>
+        <v>46.41220083292861</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>50.82827871016449</v>
+        <v>54.42798000810208</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>10.73057586358149</v>
+        <v>9.627921124353332</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>32.50347520996134</v>
+        <v>31.22686400774086</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>43.35986033050484</v>
+        <v>41.6598469216111</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>-2.418053713168284</v>
+        <v>1.042730428665369</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>26.56142339584485</v>
+        <v>28.43058544161246</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>36.40677213981871</v>
+        <v>36.65077001831435</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>3.12858224597484</v>
+        <v>3.881046424400424</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>47.76447368203879</v>
+        <v>47.47882872744019</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>64.86892671780819</v>
+        <v>65.8095716827798</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>58.17650179112682</v>
+        <v>59.93789158231669</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>73.43033736974945</v>
+        <v>73.69726524535918</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>83.05315468993689</v>
+        <v>83.13854611389125</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>5.41399262926403</v>
+        <v>5.421591523564651</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>57.56461268954964</v>
+        <v>59.80849809768114</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>69.55977427333775</v>
+        <v>69.2790218664866</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>12.22465572388977</v>
+        <v>10.10972419965033</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>11.73550830178331</v>
+        <v>14.04226380683982</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>15.69203562436149</v>
+        <v>17.48669061750709</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>3.194126616387692</v>
+        <v>2.371302908721233</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>11.33782524841185</v>
+        <v>15.14160846070392</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>12.36372323654004</v>
+        <v>16.90515740321723</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>8.010255103290778</v>
+        <v>7.472675692199225</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>26.53346373315375</v>
+        <v>25.09997321198227</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>28.08309056493593</v>
+        <v>27.63955542877822</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>23.63690998801263</v>
+        <v>24.66941580578674</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>27.47858378889336</v>
+        <v>28.15472977934402</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>30.04261730551418</v>
+        <v>31.67173695154586</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>9.940751478178424</v>
+        <v>11.15751341299467</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>13.2330491494694</v>
+        <v>18.08956015363158</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>19.91246227706609</v>
+        <v>22.54640590365774</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>9.295862563343732</v>
+        <v>7.82147407704614</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>18.90405304795046</v>
+        <v>20.2326825188785</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>32.00422904832362</v>
+        <v>29.68574894842518</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-1.066624533733904</v>
+        <v>1.545457848044943</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>8.074886311128676</v>
+        <v>13.78033476672718</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>25.86783905376539</v>
+        <v>26.60941525037344</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>2.449749331533845</v>
+        <v>3.726237126015629</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>23.08640521146571</v>
+        <v>24.57751936918646</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>43.30387547333252</v>
+        <v>44.43140701816693</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>26.54624990176892</v>
+        <v>27.54499302086781</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>39.0172931499546</v>
+        <v>38.92256149791359</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>50.64939134709095</v>
+        <v>52.07926572165647</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>5.141255099080549</v>
+        <v>5.009587732332268</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.93682304786173</v>
+        <v>33.54678098117977</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>44.02872688253578</v>
+        <v>44.92233570606928</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>15.57863923574494</v>
+        <v>14.36446192776355</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>27.68528167266833</v>
+        <v>28.47536040492914</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>41.77724972310236</v>
+        <v>39.62809509982807</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>2.358537320218204</v>
+        <v>3.174048821076958</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>19.63965796099889</v>
+        <v>23.12278729921429</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>33.98525791424166</v>
+        <v>35.47323756191751</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>7.212724570070783</v>
+        <v>8.686013793668589</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>37.8833192176754</v>
+        <v>39.22298727099092</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>57.62314466947985</v>
+        <v>57.63150311411928</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>47.09865832094879</v>
+        <v>48.67974866382749</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>55.81928712435903</v>
+        <v>56.65818552351867</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>67.41920033425042</v>
+        <v>68.27175003704878</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>7.290567125494238</v>
+        <v>4.999275220369441</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>42.51864717327233</v>
+        <v>40.50561774655635</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>61.50792052550883</v>
+        <v>63.16632974161418</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>12.58575900971285</v>
+        <v>14.38431172773054</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>23.33316511020894</v>
+        <v>20.29959764420749</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>27.59978978934834</v>
+        <v>26.23208994215098</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>2.641019741426071</v>
+        <v>1.766005035186947</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>27.90548983601078</v>
+        <v>29.37191926462703</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>30.52820112467333</v>
+        <v>31.17699467595006</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>9.978951796465914</v>
+        <v>12.90576792906525</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>45.12075929602275</v>
+        <v>46.76373453273465</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>47.19148785877968</v>
+        <v>48.53711109922838</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>35.68342175832557</v>
+        <v>36.32283342789886</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>41.89043593470778</v>
+        <v>40.93693538990006</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>46.98942609635892</v>
+        <v>44.27169889191232</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>13.72625466303087</v>
+        <v>10.68163804381852</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.60737684384485</v>
+        <v>37.82342478967838</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>44.29297032414307</v>
+        <v>42.94031162201507</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>10.36607052094711</v>
+        <v>10.01656357764547</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>23.9159642044137</v>
+        <v>24.35736479825854</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>34.21817460029087</v>
+        <v>34.37907267355521</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>4.101190385776576</v>
+        <v>3.323925835482431</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>19.7630088689127</v>
+        <v>20.85917793531917</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>34.54588049396406</v>
+        <v>40.82973410303455</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>2.220455953120442</v>
+        <v>0.9760566862673308</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>31.24970647391419</v>
+        <v>31.85829610350299</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>47.3702725669815</v>
+        <v>50.91156996732489</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>30.40927596610432</v>
+        <v>29.51010512435601</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>44.53257357428576</v>
+        <v>41.46996637584624</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>56.16422262710226</v>
+        <v>58.00185991149388</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>6.214313304404694</v>
+        <v>6.5606464140944</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>36.62840046353595</v>
+        <v>39.18318890482201</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>45.76805358873865</v>
+        <v>50.00159053750575</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>9.80593140172312</v>
+        <v>13.46571481053702</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>25.243502301819</v>
+        <v>27.2594559078486</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>33.87994735692499</v>
+        <v>34.86470874681197</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>2.990770115215518</v>
+        <v>3.758007032113774</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>24.74799456959822</v>
+        <v>25.56121526892096</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>33.5696774314725</v>
+        <v>36.09518725133844</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>2.17765277693313</v>
+        <v>6.375110791528385</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>39.89101534942297</v>
+        <v>43.65225061312415</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>53.74746489025559</v>
+        <v>54.37248509261225</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>50.65022719876002</v>
+        <v>53.69741427942753</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>58.06094864359444</v>
+        <v>58.86284802327587</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>67.88008896884077</v>
+        <v>70.56938868362083</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>8.042031932573419</v>
+        <v>4.720442834371855</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>45.57930828144742</v>
+        <v>38.87290349956248</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>58.47521437179942</v>
+        <v>58.31825947631255</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>14.18981501620774</v>
+        <v>16.02003371324501</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>28.30454962041413</v>
+        <v>27.65394746847773</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>38.01175599042027</v>
+        <v>36.2943365884378</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>5.571464577546525</v>
+        <v>5.631528828947374</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>42.21884845241642</v>
+        <v>41.36642479236038</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>47.37071301964851</v>
+        <v>46.73929360033984</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>15.31577274389405</v>
+        <v>14.81251760473698</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>61.90966052348856</v>
+        <v>63.52392017552674</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>67.45122241797722</v>
+        <v>65.2863401982319</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>63.79383032711346</v>
+        <v>60.4955290877444</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>62.2319357345058</v>
+        <v>59.27330203392418</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>67.37322014572945</v>
+        <v>63.11556214899801</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>11.65180150708714</v>
+        <v>15.66376958061465</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>26.71068171228436</v>
+        <v>22.10933343878164</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>54.99945342596828</v>
+        <v>65.64160060791455</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>21.76775834507983</v>
+        <v>21.5324169842144</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>38.65303858075672</v>
+        <v>37.0861412903631</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>39.78793274114856</v>
+        <v>39.8631163530477</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>5.73597479799885</v>
+        <v>5.342712602216707</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>31.41422274144774</v>
+        <v>29.29903039242576</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>35.91912878430828</v>
+        <v>35.6231206427924</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>11.75098320240687</v>
+        <v>11.1370460699696</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>50.47915973390118</v>
+        <v>48.96233361365363</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>56.88715323572822</v>
+        <v>55.7699188741872</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>51.68001438940755</v>
+        <v>51.60016799879047</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>60.65364577089951</v>
+        <v>56.9620081223562</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>63.91936987441459</v>
+        <v>61.03716350975881</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>19.77466187394782</v>
+        <v>19.59528656447594</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>51.29635715031536</v>
+        <v>52.65443222193954</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>56.99696944412991</v>
+        <v>56.99993396523055</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>20.19427521558839</v>
+        <v>22.48265917697793</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>39.07023065471179</v>
+        <v>39.63696819757131</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>43.79491867244199</v>
+        <v>44.3013937819961</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>4.514747352620034</v>
+        <v>4.470642428012408</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>37.01851151176271</v>
+        <v>34.76376926627455</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>40.76506251170723</v>
+        <v>39.64502861191987</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>11.9424114879699</v>
+        <v>12.53550633870156</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>59.72499812248837</v>
+        <v>60.59048308410712</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>68.68150797864476</v>
+        <v>68.98278757860705</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>70.01382319234091</v>
+        <v>68.49313903618483</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>75.78829805046774</v>
+        <v>73.95577328449259</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>80.44849833835016</v>
+        <v>81.78814310868458</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>15.2444866311114</v>
+        <v>17.17453724788838</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>58.25407812018946</v>
+        <v>60.61181696278014</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>68.45695518786627</v>
+        <v>70.54223746489424</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>8.051187398159122</v>
+        <v>7.666226499455046</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>25.61251996091561</v>
+        <v>24.54481377886885</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>32.49084176232962</v>
+        <v>32.21301460637151</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>1.962369385596777</v>
+        <v>2.627575223005319</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>30.45585531653956</v>
+        <v>30.68727976652916</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>33.52327496879394</v>
+        <v>32.77934734774168</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>8.498873932027283</v>
+        <v>8.049949875912748</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>51.5768560892941</v>
+        <v>51.0553246824514</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>54.92789477528576</v>
+        <v>55.33908890459166</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>55.86269381479689</v>
+        <v>56.57482156228182</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>62.87898447565599</v>
+        <v>61.96192872451539</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>59.99742628462479</v>
+        <v>58.79894784029646</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>5.742894777618284</v>
+        <v>6.131955677796888</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>36.69584573691458</v>
+        <v>37.72358193741781</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>41.90283015647772</v>
+        <v>40.16293678684717</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>11.21318641510043</v>
+        <v>10.92109296084547</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>32.57437120445346</v>
+        <v>31.99478428189778</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>38.57980783559438</v>
+        <v>35.69407756561905</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>1.871029948387047</v>
+        <v>3.88289668830631</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>25.74289883040107</v>
+        <v>26.20984019422738</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>35.95556800101399</v>
+        <v>34.69166807812616</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>7.587352996112044</v>
+        <v>7.777887998270344</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>45.1279415403071</v>
+        <v>45.66860691946609</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>58.51948792146472</v>
+        <v>58.8232416519737</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>47.48959271204548</v>
+        <v>47.53476122945893</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>61.11819211316784</v>
+        <v>56.95993797104104</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>65.43104724292874</v>
+        <v>63.24748002726487</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>7.239151410665841</v>
+        <v>6.762797086610004</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>49.08870356820286</v>
+        <v>55.1275458982179</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>54.44233705529442</v>
+        <v>54.5444663618693</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>12.47843991302634</v>
+        <v>10.99494171745688</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>31.15744800682982</v>
+        <v>30.46397213348732</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>42.61008014315961</v>
+        <v>41.14867553845627</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>-1.127671965717855</v>
+        <v>2.136989390542748</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>23.5166402863652</v>
+        <v>26.92141524543567</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>35.35209525339082</v>
+        <v>36.50764845191371</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>4.28151930232427</v>
+        <v>5.553292320375778</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>44.81805111546727</v>
+        <v>45.04435009970558</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>63.59012598604438</v>
+        <v>65.1951525230179</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>58.72986702787246</v>
+        <v>61.48581878579014</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>69.66058153849517</v>
+        <v>70.22916352599364</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>80.90522881409744</v>
+        <v>81.91316407660342</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>5.222908166645766</v>
+        <v>5.28138512676605</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>50.28483359386204</v>
+        <v>52.24297085323032</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>64.82113162332642</v>
+        <v>66.69336345306377</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.552</v>
+        <v>0.526</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.283</v>
+        <v>16.876</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.791</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.875</v>
+        <v>12.578</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.978</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.958</v>
+        <v>0.949</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7.331640484547403</v>
+        <v>7.978745248977479</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10.5718291687096</v>
+        <v>11.72465669206577</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>15.39646883431155</v>
+        <v>12.38629858293744</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-3.16319088726415</v>
+        <v>0.7128876097773187</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>13.65445504032358</v>
+        <v>12.13366355593707</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>16.39096769432227</v>
+        <v>12.85565548100206</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.3697965952303264</v>
+        <v>4.523010478745093</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>23.07317280289212</v>
+        <v>19.30088002010525</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>26.01153102095969</v>
+        <v>22.25220457042766</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>23.76041556339117</v>
+        <v>22.17318440501121</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>27.86245696366375</v>
+        <v>26.19601826754561</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>32.72013192865131</v>
+        <v>30.95768400685575</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4.622177866061467</v>
+        <v>6.677897939413924</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>17.45792605592864</v>
+        <v>14.5883913137903</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>19.64978616849088</v>
+        <v>15.82500455690749</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10.04930579236768</v>
+        <v>7.357305692251231</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.74311372265146</v>
+        <v>27.74741389911248</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>38.59566619793678</v>
+        <v>42.49628020272133</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.09741438607361275</v>
+        <v>-0.3000876950101663</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>15.87404284107282</v>
+        <v>13.45384942965671</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>34.20585468823955</v>
+        <v>32.41539405951222</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.5006023311300005</v>
+        <v>1.150158220348139</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>27.44692853287225</v>
+        <v>25.97576321146019</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>56.03609833262924</v>
+        <v>59.50699460565045</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>32.60036601791973</v>
+        <v>30.40246748530402</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>53.20227779526195</v>
+        <v>52.07856007513826</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>73.38560546078088</v>
+        <v>76.78969624613241</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5.952607213108923</v>
+        <v>3.818062393661471</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>45.21993674155998</v>
+        <v>46.0923921796016</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>63.4833421463253</v>
+        <v>65.83017905572974</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>14.31096839174656</v>
+        <v>11.99479749045536</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>34.014804705674</v>
+        <v>34.33664263613883</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>43.23275796958185</v>
+        <v>44.61626598870579</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2.019093936478409</v>
+        <v>0.6857010672591137</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>28.58994314520276</v>
+        <v>27.57956752662753</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>38.88444871429088</v>
+        <v>41.8402297217029</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3.50005649422603</v>
+        <v>1.63696402309181</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>46.86340027213895</v>
+        <v>47.20414296446612</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>60.70281087478327</v>
+        <v>62.1816979042395</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>60.92374288726513</v>
+        <v>58.30681844978612</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>77.12777399681404</v>
+        <v>75.08491639060749</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>83.98216682501256</v>
+        <v>82.34756610451204</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>14.84779857063634</v>
+        <v>17.39908187049043</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>64.35595974024028</v>
+        <v>65.11396355190881</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>70.10547106930947</v>
+        <v>73.03713291354624</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6.023610029064365</v>
+        <v>2.736258612421896</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>31.11536089266174</v>
+        <v>30.50902920096037</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>39.01521671458619</v>
+        <v>39.74071908229241</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2.83726084197653</v>
+        <v>1.117849242484969</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>41.56557156926489</v>
+        <v>38.38313890855827</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>42.59109938562268</v>
+        <v>40.91926564043644</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6.571941930889501</v>
+        <v>2.334936755062007</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>64.91236334095603</v>
+        <v>61.05224736405671</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>66.59605033311976</v>
+        <v>67.58023127307575</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>62.04047664271125</v>
+        <v>66.24852171704437</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>76.39868616067305</v>
+        <v>78.72539672616269</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>64.51942335118788</v>
+        <v>62.64682947548667</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6.438347043581906</v>
+        <v>4.058588378172139</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>45.88722414328579</v>
+        <v>43.65230084892296</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>53.41630692036611</v>
+        <v>50.02875722242597</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>8.620189870229229</v>
+        <v>5.285057826217091</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>34.02882274530781</v>
+        <v>37.46941318690376</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>40.84785149616233</v>
+        <v>43.49611992732015</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1.148126911704885</v>
+        <v>-0.5685674998224783</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>24.88574174261297</v>
+        <v>22.2236024845176</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>37.50482647111085</v>
+        <v>34.83863173413618</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>2.662852809872401</v>
+        <v>0.9828296189859635</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>45.25975432184528</v>
+        <v>46.64153833862023</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>60.9667164149113</v>
+        <v>62.71649223901856</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>51.08809896322317</v>
+        <v>50.09219539815797</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>65.57397545418699</v>
+        <v>69.43167232553975</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>73.91152093833453</v>
+        <v>77.37954024389013</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>5.97797668212095</v>
+        <v>3.505792459757107</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>57.60126459755082</v>
+        <v>59.81849263181184</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>62.39824142467424</v>
+        <v>62.92828484396293</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>9.33204690282442</v>
+        <v>5.781895901516382</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>36.28157178076535</v>
+        <v>38.25466486786286</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>46.7368237139801</v>
+        <v>45.7573444734322</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1.29887454731664</v>
+        <v>-0.6246799600592681</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>34.61683568442975</v>
+        <v>37.62412298900915</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>44.52157468926403</v>
+        <v>41.33315809335328</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4.951498857044882</v>
+        <v>1.535136840259671</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>59.69105861076041</v>
+        <v>62.65909600120321</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>77.77918754711649</v>
+        <v>77.47985689121987</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>68.00653614639504</v>
+        <v>66.34152651809869</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>84.93609746950064</v>
+        <v>86.57715766823927</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>91.54610165963322</v>
+        <v>90.87441959746538</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6.672527096048267</v>
+        <v>4.416483585976639</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>71.59898415189618</v>
+        <v>74.02040197909899</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>76.54379050537831</v>
+        <v>76.96570668366731</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>11.72287058379703</v>
+        <v>13.7861586799108</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.99346390855226</v>
+        <v>30.19890903291178</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>34.64688419418625</v>
+        <v>38.01180437322601</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1.9021548339093</v>
+        <v>1.250810708932843</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>35.91252929670019</v>
+        <v>35.83279226052422</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>35.22373502336168</v>
+        <v>37.69153440149199</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6.33083290057429</v>
+        <v>3.186083649169909</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>60.8168452716309</v>
+        <v>63.36321684191522</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>56.85341090751993</v>
+        <v>61.09464322941159</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>51.24168904229917</v>
+        <v>52.71394104778831</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>61.24768267246787</v>
+        <v>63.6043209516716</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>57.97412866121743</v>
+        <v>60.4888477598205</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>11.33763944136903</v>
+        <v>9.218529707487114</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>37.04666018237226</v>
+        <v>36.06459665064684</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>41.84332062811119</v>
+        <v>37.91776723394209</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>18.59325061285893</v>
+        <v>22.98291137741313</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>42.2521886556095</v>
+        <v>42.23922763263297</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>45.17978651651937</v>
+        <v>45.03611587576057</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>4.007233956641436</v>
+        <v>1.39106496282491</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>32.6793562470568</v>
+        <v>33.91588791443088</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>39.64331716691666</v>
+        <v>37.5863935476695</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>5.110057545614644</v>
+        <v>3.001586787610869</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>56.55813530024614</v>
+        <v>60.1093183851751</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>64.60715503252852</v>
+        <v>65.16277295988475</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>58.97875857282534</v>
+        <v>61.23203245465774</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>70.17858334542895</v>
+        <v>73.57044419520952</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>74.24475092555906</v>
+        <v>77.85125370047483</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>17.16390492144764</v>
+        <v>20.08480956033063</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>62.57433594050234</v>
+        <v>61.28013166753728</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>62.83118795342048</v>
+        <v>66.85849974228459</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>17.95034244619464</v>
+        <v>21.32364668989576</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>43.26338542691258</v>
+        <v>43.6668919599908</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>50.12914265533726</v>
+        <v>46.49497753239297</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>2.246247226156143</v>
+        <v>0.1080060664887341</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>40.64236352566967</v>
+        <v>39.13331163609081</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>44.23285078682644</v>
+        <v>41.06471783849516</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>4.476269954945675</v>
+        <v>2.280463447556382</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>66.53508205327044</v>
+        <v>68.27486900644176</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>76.84447936498061</v>
+        <v>75.61765342499746</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>75.49253641794357</v>
+        <v>73.52291808521628</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>83.0192751645429</v>
+        <v>81.10510702063247</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>91.44943449510255</v>
+        <v>88.93220074995098</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>16.12871142569387</v>
+        <v>21.05146866390665</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>71.9780668131571</v>
+        <v>72.79520737458061</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>77.69045161608365</v>
+        <v>77.1904276455987</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>10.15523003922658</v>
+        <v>9.881961313459893</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>12.91898250118987</v>
+        <v>14.04771288939115</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>17.64422923563438</v>
+        <v>14.32776297949896</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-0.786584360663106</v>
+        <v>0.8564394994564388</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>13.59633279831317</v>
+        <v>10.44053839560421</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>13.84006002632893</v>
+        <v>10.72995384745428</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>4.009681081595062</v>
+        <v>5.694985632006503</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>26.39343460064001</v>
+        <v>24.47192747708566</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>27.49710956610816</v>
+        <v>23.79157169581874</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>23.43333819286238</v>
+        <v>21.8741319965809</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>26.33751328037468</v>
+        <v>24.65085942073087</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>34.40868624230827</v>
+        <v>32.70568798683159</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>63.10516281410872</v>
+        <v>64.52870189954142</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>63.90654928808281</v>
+        <v>67.53832565424085</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>60.98146156633396</v>
+        <v>64.59003937502743</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>9.093075255707685</v>
+        <v>6.926502176578037</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>24.66255962158558</v>
+        <v>29.21679096847166</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>38.92478735949834</v>
+        <v>42.10466413182427</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.1230770057859552</v>
+        <v>-0.7447256411996293</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>12.24137713017099</v>
+        <v>9.405848526441485</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.87477633706671</v>
+        <v>26.21994799047758</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>31.7381100541552</v>
+        <v>30.57467020456881</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>58.96330109496067</v>
+        <v>61.52372047590559</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>31.95233914786923</v>
+        <v>29.8030862156056</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>47.90168356920368</v>
+        <v>51.66596948685022</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>69.69999910354024</v>
+        <v>72.7419826801969</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>7.107629243112211</v>
+        <v>4.923846220389322</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>45.04331325757353</v>
+        <v>47.60182131181791</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>54.52899521837129</v>
+        <v>56.98067241200123</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>20.06380312691451</v>
+        <v>23.00198648745417</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>32.54873034509576</v>
+        <v>36.14380823092671</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>44.34979768734046</v>
+        <v>47.00226045035555</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>3.383800056721306</v>
+        <v>0.8335617078280997</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>18.89103811647854</v>
+        <v>16.95449746203172</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>31.68153926831557</v>
+        <v>29.16832901094248</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>9.970745482123309</v>
+        <v>7.840615634822978</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>44.83416266208711</v>
+        <v>44.09738482042084</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>64.62662078626231</v>
+        <v>67.79676523308014</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>44.39613583147941</v>
+        <v>42.74983984616076</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>62.67872916807161</v>
+        <v>61.11053835690755</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>80.86925226939582</v>
+        <v>83.51668627982376</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>24.79037000685685</v>
+        <v>25.97369983626269</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>60.93355148412331</v>
+        <v>64.81713433323324</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>68.12459848179145</v>
+        <v>71.99727296935575</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>7.097108276854303</v>
+        <v>5.479859471381626</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>22.83371547637279</v>
+        <v>23.81695901858365</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>30.67972756785075</v>
+        <v>31.57107981909754</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>3.06838973193398</v>
+        <v>1.654469629201891</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>33.43765229384184</v>
+        <v>31.69940850124305</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>38.26383272090757</v>
+        <v>40.83859814676589</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>8.762202406654893</v>
+        <v>7.160686063919691</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>62.12822177257242</v>
+        <v>63.36251936039881</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>62.41698516767175</v>
+        <v>66.55657959976112</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>52.84171989425141</v>
+        <v>53.17953918268701</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>65.40516933024027</v>
+        <v>68.28590210698583</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>66.01752544638731</v>
+        <v>69.11780538622064</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>12.02952835147851</v>
+        <v>10.26626343601552</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>10.41570872223791</v>
+        <v>8.550865976650336</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>11.0340656550054</v>
+        <v>9.116623568470285</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>20.44621796506354</v>
+        <v>24.53035172481468</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>42.05307599032424</v>
+        <v>44.12001086603011</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>43.91183021421735</v>
+        <v>43.40737455075022</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>4.957311457306655</v>
+        <v>2.120584642476967</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>34.13947702082901</v>
+        <v>33.98820201459915</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>42.79548155628801</v>
+        <v>41.25548020720582</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>60.67768654984498</v>
+        <v>63.46748058081215</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>66.45678961103016</v>
+        <v>67.67983547976662</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>65.16726287121048</v>
+        <v>66.9582510543034</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>75.51150483741976</v>
+        <v>77.82973422540124</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>81.46862202672465</v>
+        <v>83.0560081138066</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>32.22414199356317</v>
+        <v>34.68963474054917</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>68.25524618517295</v>
+        <v>66.34961183328008</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>70.64916067999457</v>
+        <v>68.92496432956807</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>21.88632917637961</v>
+        <v>24.6825276166243</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>41.54893937366916</v>
+        <v>43.4596780465657</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>48.75777986728788</v>
+        <v>45.83728443616771</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>3.569950873503416</v>
+        <v>1.786734287738785</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>32.26307893495841</v>
+        <v>28.5903155452949</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>41.8196480741647</v>
+        <v>37.01934791785802</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>10.85516198633741</v>
+        <v>7.930051083525768</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>62.75222233072212</v>
+        <v>62.76081005959523</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>74.75839610613794</v>
+        <v>72.98371257721557</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>74.38528884998981</v>
+        <v>71.38969854011066</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>84.62493609098109</v>
+        <v>80.71903818277298</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>86.66559395571204</v>
+        <v>84.87242159297598</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>32.73113694094718</v>
+        <v>35.01778690396147</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>71.05691353265702</v>
+        <v>73.74565548811016</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>77.42013640601375</v>
+        <v>77.60209544265187</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>3.541142219855939</v>
+        <v>3.316080765653513</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>19.10304613376753</v>
+        <v>20.34770674405284</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>31.12073265697061</v>
+        <v>30.22878758167034</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>2.949972351492505</v>
+        <v>0.9247764337010054</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>37.26045265171745</v>
+        <v>39.58434360969168</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>38.15835806008175</v>
+        <v>36.25699159492871</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>10.24944633610839</v>
+        <v>8.055133102200472</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>66.69369463312576</v>
+        <v>66.48312956492639</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>65.08034867681087</v>
+        <v>67.86628733808656</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>53.8116934920386</v>
+        <v>53.73950190152836</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>66.54103164200359</v>
+        <v>69.48100749513198</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>69.22662620270816</v>
+        <v>72.29203728940328</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>5.903559168495185</v>
+        <v>5.185463967252158</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>6.722269109012746</v>
+        <v>4.983502745068435</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>7.259039978750891</v>
+        <v>5.419172246431366</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>14.57717789750521</v>
+        <v>15.94148689559695</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>44.24771287359304</v>
+        <v>46.26373533894873</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>45.92763434991402</v>
+        <v>47.6044268183513</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>4.598055158127298</v>
+        <v>1.390236929393119</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>39.15516869922585</v>
+        <v>41.09529828989442</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>45.16383549440253</v>
+        <v>48.45779417598786</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>4.645002693526038</v>
+        <v>1.745976112515883</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>66.90791227271245</v>
+        <v>69.85285841257146</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>69.91734721649976</v>
+        <v>72.54304241423539</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>53.29052032912696</v>
+        <v>57.52697074946441</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>69.62165388567166</v>
+        <v>72.41929554280757</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>79.50178539605633</v>
+        <v>82.82964073069741</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>17.48166515971829</v>
+        <v>14.84583403793593</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>68.66767996909293</v>
+        <v>70.71708007563281</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>71.62105341199343</v>
+        <v>73.75389426164075</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>17.73829728742775</v>
+        <v>18.35641205801389</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>3.861880953765876</v>
+        <v>1.396539361594655</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>38.35363539270017</v>
+        <v>39.26204418897458</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>43.31396360918268</v>
+        <v>39.85840258768292</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>8.533343314250853</v>
+        <v>5.127335494569106</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>67.71570443549716</v>
+        <v>69.08906248936835</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>74.74383894537254</v>
+        <v>74.05489832624113</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>72.34096303691196</v>
+        <v>74.73696297609149</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>82.43378139829049</v>
+        <v>84.62148132167343</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>88.30049645807337</v>
+        <v>89.98414351454558</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>16.57729707380731</v>
+        <v>14.80810564756619</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>76.03587259176992</v>
+        <v>78.64581710333707</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>78.72705317879773</v>
+        <v>80.85955889863384</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>3.608901035719736</v>
+        <v>5.980418581440993</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>6.907146464946784</v>
+        <v>5.344148716835836</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>8.687922521370528</v>
+        <v>6.287630909729852</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-2.746060590343752</v>
+        <v>1.274167165505553</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>12.2432653888557</v>
+        <v>9.780726818120616</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>12.0269438135546</v>
+        <v>9.45855169893008</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0.1890665929729813</v>
+        <v>3.551525476359718</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>18.90989195193668</v>
+        <v>15.63345805930167</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>20.29254969446326</v>
+        <v>18.07006418523153</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>22.53375123848223</v>
+        <v>24.44400462413027</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>28.8574916525975</v>
+        <v>28.55518939068024</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.95200294243347</v>
+        <v>34.31139031995673</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>3.24228175549694</v>
+        <v>5.151149153793224</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>7.919193562923322</v>
+        <v>6.294410738585924</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>9.915131829884242</v>
+        <v>8.197213686833454</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>8.620232808549591</v>
+        <v>6.651452265306254</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>24.49547082919938</v>
+        <v>28.13058194287055</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>33.4849743707281</v>
+        <v>35.53262299127621</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>2.178118992592328</v>
+        <v>1.397518236816651</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>19.03917356024853</v>
+        <v>18.15169910200552</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>30.533001128918</v>
+        <v>31.86321590714199</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>6.936576905207566</v>
+        <v>6.454251688387728</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>32.19249991712732</v>
+        <v>34.85481593970447</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>52.03845296204163</v>
+        <v>55.22944101692481</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>34.11319755996443</v>
+        <v>37.62208348656424</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>50.16885769107603</v>
+        <v>53.36310044943843</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>57.33087585665969</v>
+        <v>59.47089660355501</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>7.911923416143818</v>
+        <v>5.952249059544108</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>41.97825016122271</v>
+        <v>45.74723511299581</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>50.59806683822011</v>
+        <v>54.1169387577431</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>9.376979435503486</v>
+        <v>7.514837009547232</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.99737253565649</v>
+        <v>27.76666673321993</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>38.60150825778366</v>
+        <v>40.10703042149754</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>2.16502053594558</v>
+        <v>0.851257096229503</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>30.76424754264234</v>
+        <v>28.22347241962595</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>36.83872757148418</v>
+        <v>38.63430915474897</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>6.02849390549569</v>
+        <v>5.936733110128138</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>49.45891278527888</v>
+        <v>52.0903347905312</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>60.30944257613443</v>
+        <v>63.45733164298692</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>62.34025195870105</v>
+        <v>64.58419451492412</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>73.90140350376264</v>
+        <v>77.95427986726739</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>78.55125001336401</v>
+        <v>76.63036967149085</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>10.41671837856313</v>
+        <v>9.015051604360245</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>61.38019651141568</v>
+        <v>64.11406538918799</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>72.75284490500782</v>
+        <v>75.36151318145838</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>1.801929432483576</v>
+        <v>2.798909051482429</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>5.935390424114825</v>
+        <v>11.88415074791009</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>10.34774531065372</v>
+        <v>11.82332439223392</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-3.691148155493156</v>
+        <v>-0.02317420216602528</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>8.942106605529865</v>
+        <v>9.453936766318069</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>11.11324129552486</v>
+        <v>14.42717016780153</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-1.967940779107138</v>
+        <v>0.7084053819503815</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>16.09079746600011</v>
+        <v>15.69672952643515</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>15.11261770479399</v>
+        <v>11.34697297299011</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>14.75285288777547</v>
+        <v>13.07475812033976</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>16.72756590527896</v>
+        <v>14.92233659406994</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>16.63179189357467</v>
+        <v>14.82757833021737</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>4.253804621875386</v>
+        <v>6.19634614893647</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>12.0308069190443</v>
+        <v>13.84944899651082</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>11.93899885665196</v>
+        <v>13.79477424758355</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>2.469562281732742</v>
+        <v>0.8497190680635285</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>7.588712626384179</v>
+        <v>5.388294899770848</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>17.81819671017794</v>
+        <v>15.81629574050403</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-3.583353126480077</v>
+        <v>-0.1775895515603736</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>1.438327291136609</v>
+        <v>3.525656881868674</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>12.57904386997186</v>
+        <v>13.39060413074046</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-0.5849338775045361</v>
+        <v>2.685350495684546</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>9.815161696182933</v>
+        <v>6.994850349278707</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>28.44321214833787</v>
+        <v>33.38428304533674</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>14.17477005256263</v>
+        <v>10.07104098611861</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>24.3734302080213</v>
+        <v>21.25173215264993</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>41.39825632103047</v>
+        <v>43.50264096506604</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-2.184113754530159</v>
+        <v>0.9671738030033552</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>13.24676253853919</v>
+        <v>11.23977380795386</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>14.11448647053504</v>
+        <v>12.46876189761012</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>5.354784200818145</v>
+        <v>1.61794396735543</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>10.50386985065072</v>
+        <v>9.27723171442511</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>30.38313536282797</v>
+        <v>28.29208663396862</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-5.04058227824553</v>
+        <v>-0.1770553112392754</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>4.336261789722172</v>
+        <v>6.347068483808727</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>22.9338230807574</v>
+        <v>25.95312022252099</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-0.7872859759111641</v>
+        <v>1.912364354854482</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>14.86231389446253</v>
+        <v>13.4879946964634</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>51.93595517469797</v>
+        <v>54.92221600845963</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>20.65931588033348</v>
+        <v>19.12616602141829</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>48.43909235415042</v>
+        <v>48.2326478798193</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>66.33310516243701</v>
+        <v>69.59399793894703</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>-4.827243430798255</v>
+        <v>0.8078770775260651</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>12.272210425038</v>
+        <v>11.02860653603275</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>23.24798624202206</v>
+        <v>21.09979193653181</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>8.49366053723331</v>
+        <v>10.24398203529168</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>22.36110045910185</v>
+        <v>19.89898023888964</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>36.29646035697527</v>
+        <v>38.44685517817825</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>5.544497986733866</v>
+        <v>1.670970088794704</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>44.62861122687102</v>
+        <v>46.07595258107106</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>46.77176881180896</v>
+        <v>45.39434875510823</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>7.912798055306872</v>
+        <v>4.481237735879059</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>66.92296811908935</v>
+        <v>64.6976438783075</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>69.10040568896009</v>
+        <v>70.71647551025418</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>61.66490588639154</v>
+        <v>60.46561291206817</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>70.50566296672288</v>
+        <v>66.40354004661727</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>65.66912842469179</v>
+        <v>68.22783111670446</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>22.65720340842894</v>
+        <v>19.83531305559441</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>41.08289669868353</v>
+        <v>43.44736908306711</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>66.95365278875076</v>
+        <v>70.22833710145316</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>9.91793875665163</v>
+        <v>12.15322717184376</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>33.95991343938658</v>
+        <v>33.23004013390489</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>36.8672661063642</v>
+        <v>35.75778679288432</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>2.471686166331711</v>
+        <v>1.251088758990086</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>30.12386405770276</v>
+        <v>32.2937820302179</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>35.03260900943079</v>
+        <v>34.33625254573885</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>3.522317211279887</v>
+        <v>5.588119212858487</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>51.20894376863236</v>
+        <v>52.51584447405367</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>55.76386656396267</v>
+        <v>56.69933094460386</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>48.93546809923094</v>
+        <v>50.22258768527269</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>57.93014253539151</v>
+        <v>59.33735067640302</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>62.66826300366208</v>
+        <v>61.56694275506355</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>15.52550437494607</v>
+        <v>19.56146407898726</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>56.20690821056803</v>
+        <v>52.49784182692446</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>57.51904641270293</v>
+        <v>56.17702325345212</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>12.88372329057033</v>
+        <v>14.6228365882531</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>35.84605709190657</v>
+        <v>32.34470639884299</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>43.76505547115426</v>
+        <v>43.48696964615851</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>3.978061942343903</v>
+        <v>1.292754965040533</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>39.42914515791661</v>
+        <v>41.89759922234705</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>43.68522002158137</v>
+        <v>42.51168479386936</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>7.796109836898019</v>
+        <v>7.700381679733642</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>62.35715324643901</v>
+        <v>64.58892778862399</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>72.16701890771402</v>
+        <v>74.40391634353922</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>68.64956895104973</v>
+        <v>67.56509931812846</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>79.15327980508714</v>
+        <v>77.02505409025272</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>82.49662196439195</v>
+        <v>80.63195474683097</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>14.24431804729308</v>
+        <v>18.66628186613026</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>69.56808739709295</v>
+        <v>71.31600325914171</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>78.89157730776932</v>
+        <v>81.05800087844254</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>4.38234876437615</v>
+        <v>6.929691486589231</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>11.35394736631312</v>
+        <v>10.00516937778312</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>12.92774727308299</v>
+        <v>10.44238627990908</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-1.598225298904563</v>
+        <v>1.597713162920588</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>9.798045604321683</v>
+        <v>9.428370824196708</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>11.08256834437046</v>
+        <v>10.1452827983735</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>1.242095942980995</v>
+        <v>4.200609089701818</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>17.42813570766885</v>
+        <v>15.26373972973863</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>20.04748662133889</v>
+        <v>16.58167018470107</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>18.07322276827095</v>
+        <v>15.2697926467623</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>22.22272954195841</v>
+        <v>19.08004782635098</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>25.67295401709308</v>
+        <v>22.69818513858703</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>3.056791345642026</v>
+        <v>6.333941815885836</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>13.4244148524029</v>
+        <v>10.55570323273167</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>13.71403769628763</v>
+        <v>13.15722386215833</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>5.671001532673237</v>
+        <v>3.805401038293549</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>15.29383730682146</v>
+        <v>13.10194099233808</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>28.40045116441199</v>
+        <v>28.71293870919098</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-0.7841994622878161</v>
+        <v>1.097171882908562</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>7.458563389332735</v>
+        <v>4.752293845163159</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>24.29420415779192</v>
+        <v>27.37860723709549</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>1.322728427531491</v>
+        <v>3.997887232965844</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>12.43957481588445</v>
+        <v>10.2327216175233</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>41.96926550184507</v>
+        <v>44.59380146152907</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>16.77247531280666</v>
+        <v>14.41721569255559</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>29.01467652923309</v>
+        <v>26.68938894660285</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>41.37661973422311</v>
+        <v>45.45581257839607</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>0.7548174640250949</v>
+        <v>1.657379783241392</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>25.9941552843635</v>
+        <v>22.32387044837817</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>36.54474556666214</v>
+        <v>33.40738051306354</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>11.6739849657421</v>
+        <v>8.797624883602928</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>23.04763081874802</v>
+        <v>21.95285220669739</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>37.15705639329279</v>
+        <v>39.56803609444011</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>3.120871211239876</v>
+        <v>1.788164306696018</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>16.13163754493429</v>
+        <v>14.65251913424459</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>30.59742017619346</v>
+        <v>33.24859656713451</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>8.765124929274538</v>
+        <v>9.960478481310822</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.1938143061385</v>
+        <v>27.81894582091369</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>54.45925344924395</v>
+        <v>57.11668030592337</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>33.17059152626474</v>
+        <v>31.48175194435191</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>43.01868890479217</v>
+        <v>40.97613252685263</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>68.9135618141529</v>
+        <v>71.29832935012706</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>15.8673396757072</v>
+        <v>20.58328999293877</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>39.45379251897494</v>
+        <v>37.60537634539246</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>54.43083434585589</v>
+        <v>55.32532604066483</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>2.67702966205599</v>
+        <v>1.158748344533755</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>2.72629998746288</v>
+        <v>0.8819065354065749</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>7.653089934241056</v>
+        <v>7.51118862397302</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-4.958468363822803</v>
+        <v>-0.1769278627584647</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>2.485534856124417</v>
+        <v>0.8084192048578132</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>3.926732704411286</v>
+        <v>2.274200397456092</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>3.160481321647929</v>
+        <v>6.650764157599117</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>12.58132118086789</v>
+        <v>9.008393167637376</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>12.43519879632862</v>
+        <v>8.825039417993178</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>3.566238424209221</v>
+        <v>2.146729056234662</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>3.967014167264793</v>
+        <v>2.538039612571229</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>17.91976240616111</v>
+        <v>20.0824349456892</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-3.432166716311205</v>
+        <v>-0.1773928410056556</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-3.412374365994999</v>
+        <v>-0.6438601372199884</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>3.496553978405668</v>
+        <v>0.3318138557899317</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>16.89310361875567</v>
+        <v>16.16101164510307</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>36.55595940009467</v>
+        <v>33.81389093567953</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>38.61188093617972</v>
+        <v>35.85087198904964</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>4.670330100902678</v>
+        <v>1.491076582316268</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>27.15499413855223</v>
+        <v>26.91785757212977</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>34.07615793479248</v>
+        <v>31.62926042676158</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>8.279043816332738</v>
+        <v>7.09109869591088</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>51.44188503045874</v>
+        <v>55.20917468756043</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>56.85017467807167</v>
+        <v>59.00810749200805</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>48.61386486286797</v>
+        <v>50.45368550837649</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>57.28199954368932</v>
+        <v>58.76677004918432</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>62.73760899903702</v>
+        <v>59.10602466456478</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>14.3973019441921</v>
+        <v>16.65468133172842</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>52.7573975778094</v>
+        <v>51.33209095869503</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>53.3530531702083</v>
+        <v>57.18142367678676</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>17.17906253397965</v>
+        <v>18.64077760967042</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>39.28400082250866</v>
+        <v>37.04519694146354</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>46.24857946417659</v>
+        <v>48.480306400692</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>2.691267025526251</v>
+        <v>1.308176359883028</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>35.07848205655479</v>
+        <v>35.35411917947811</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>38.85165517609153</v>
+        <v>38.78659729092927</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>8.079499889147307</v>
+        <v>7.22290975100427</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>62.57125003160797</v>
+        <v>65.03751002866143</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>69.34441323044875</v>
+        <v>72.11736223364781</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>67.54857525272094</v>
+        <v>70.0152300982914</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>77.59418318791846</v>
+        <v>78.55779508461748</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>83.43329224973071</v>
+        <v>81.49002484955732</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>14.6589353701513</v>
+        <v>13.15930991995774</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>66.6137268433074</v>
+        <v>69.45842260113706</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>70.44670498062257</v>
+        <v>73.08310283935056</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>9.862561819964682</v>
+        <v>11.22030589932228</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>15.15256954315342</v>
+        <v>12.74226683060751</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>17.05447278052269</v>
+        <v>13.34455273044235</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>0.4927532305908287</v>
+        <v>2.979818406037651</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>15.06595644013701</v>
+        <v>14.19250249642359</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>13.97448515431347</v>
+        <v>15.90246995691572</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>8.3561040415719</v>
+        <v>10.89967846164727</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>26.37855319264748</v>
+        <v>23.83345983696429</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>23.94121748210866</v>
+        <v>25.94411325812974</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>25.14412991759371</v>
+        <v>22.71863422573749</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.90358774210307</v>
+        <v>27.38336255055828</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>30.07171543377712</v>
+        <v>31.1490161709213</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>10.22710626328655</v>
+        <v>14.17028477168432</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>16.58043023718236</v>
+        <v>13.79170792341104</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>18.29913889204255</v>
+        <v>17.60979738177531</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>4.683070454799278</v>
+        <v>2.816348326559616</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>12.14336302064825</v>
+        <v>9.381181482750897</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>20.37827053892116</v>
+        <v>20.99875506101385</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-5.077298581922186</v>
+        <v>-0.442327036086251</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>2.193714354239152</v>
+        <v>3.513186310087853</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>13.84145390327916</v>
+        <v>17.94402256366684</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-3.834832856681629</v>
+        <v>-0.06746270631219176</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>9.586398078029692</v>
+        <v>7.478261679445605</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>28.17684148395264</v>
+        <v>31.04003014083741</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>13.03577224335207</v>
+        <v>10.96028015801658</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>20.18182566895004</v>
+        <v>18.10997154049193</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>28.50758149503723</v>
+        <v>32.65437781503927</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>-2.997088939562371</v>
+        <v>1.794401107584175</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>14.7180563644227</v>
+        <v>12.96174155721215</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>20.83924878566922</v>
+        <v>21.77936151096185</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>14.88635529635733</v>
+        <v>18.0909452166907</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>28.82397602740063</v>
+        <v>29.202710688082</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>33.96174219359227</v>
+        <v>34.62183506454922</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>0.5379797347862905</v>
+        <v>1.629560286687479</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>20.74482047754575</v>
+        <v>21.35630360479827</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>24.7132037019305</v>
+        <v>24.45985544663965</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>5.402574604615761</v>
+        <v>7.701618655053707</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>39.29341310372789</v>
+        <v>39.95223396890962</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>48.56643040374328</v>
+        <v>52.30577212091772</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>45.51507731026389</v>
+        <v>42.72254400171413</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>48.46044495454568</v>
+        <v>45.66086319224594</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>63.05908457500864</v>
+        <v>65.47569571386563</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>12.86655527423755</v>
+        <v>12.98242412343219</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>40.88237911664383</v>
+        <v>39.316573015626</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>44.6635972737559</v>
+        <v>43.18387004163122</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>4.784374573764598</v>
+        <v>2.450513421791904</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>5.990586867736297</v>
+        <v>4.459482570651438</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>6.393543046457911</v>
+        <v>4.343578305793731</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-2.293595905392987</v>
+        <v>1.363629592625262</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>3.949336465174465</v>
+        <v>3.575120689826267</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>2.641827610555172</v>
+        <v>5.444442827957456</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>4.892035780357357</v>
+        <v>7.541795084609163</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>10.17568520289646</v>
+        <v>10.57152623845132</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>8.047507477836465</v>
+        <v>8.946594235467224</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>6.719404202482579</v>
+        <v>4.679207287720107</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>6.132561666590263</v>
+        <v>3.305749806721277</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>11.14826068219608</v>
+        <v>10.61934710175507</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>5.256600356292598</v>
+        <v>1.344516422672438</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>7.039024358878894</v>
+        <v>5.09512026661411</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>7.879167429714567</v>
+        <v>5.859344067034986</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>2.217337671165133</v>
+        <v>0.9597644947726245</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>5.846810253457793</v>
+        <v>3.06460650646817</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>7.270146519961354</v>
+        <v>4.275686973461273</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-4.497596995457595</v>
+        <v>-0.1768061532782781</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-3.194031611829406</v>
+        <v>0.4365539820304321</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>1.862639527417748</v>
+        <v>2.870830300608336</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-3.809077608741898</v>
+        <v>0.5122989849831221</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>2.445753912153179</v>
+        <v>3.484985593102969</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>7.079984537363387</v>
+        <v>5.647265834993227</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>4.53672286027782</v>
+        <v>1.384662256479391</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>7.273281578218544</v>
+        <v>3.076516439897393</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>7.293206247735018</v>
+        <v>3.902862108080853</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-4.564659463345517</v>
+        <v>-0.177496522642258</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>3.673971255518769</v>
+        <v>2.20378532162994</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>4.277121691551727</v>
+        <v>2.869005122511233</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>15.45792144420608</v>
+        <v>18.60379399624769</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>23.29188138987208</v>
+        <v>23.13490455728248</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>25.84858919600548</v>
+        <v>22.53071409433927</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>2.458455225664199</v>
+        <v>2.006196796740348</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>13.86440091669778</v>
+        <v>13.71071535051409</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>15.95800399557211</v>
+        <v>14.57595629134424</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>7.258120372986966</v>
+        <v>11.25158352010013</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.9432955166855</v>
+        <v>28.14133412896856</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>33.20075474161123</v>
+        <v>31.35105687498859</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>32.55298610761024</v>
+        <v>31.58455004507069</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>34.56235056075273</v>
+        <v>33.37020872266461</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>42.2407274795182</v>
+        <v>38.54618191368907</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>20.92310230351728</v>
+        <v>23.00111921940126</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.44997266538559</v>
+        <v>28.02470111625128</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>31.51759274266576</v>
+        <v>29.89606831438939</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>20.14213511711252</v>
+        <v>17.79833580444994</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.95071278940825</v>
+        <v>30.82446710330334</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>36.53019329848067</v>
+        <v>40.6602898085597</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>4.022158850066063</v>
+        <v>1.998777905758136</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>24.00887488483856</v>
+        <v>21.04929118598817</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>29.27688035790069</v>
+        <v>26.45318532140217</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>13.50769337219681</v>
+        <v>10.43852513821815</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>45.71272787083265</v>
+        <v>48.60785832399668</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>48.81533431900137</v>
+        <v>52.53868938102206</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>43.33472619450495</v>
+        <v>47.70801914762994</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>50.46184295309192</v>
+        <v>54.71077499674933</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>53.04798597655959</v>
+        <v>57.67642669876697</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.3758050389639</v>
+        <v>31.70758340620533</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>56.97109436084084</v>
+        <v>59.24263545908346</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>58.70019280706644</v>
+        <v>61.10091972163013</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>11.33509345940654</v>
+        <v>15.27707505270611</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>24.2140888662685</v>
+        <v>28.01038537592073</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>29.6338643997744</v>
+        <v>32.63574233628773</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-2.721856566897991</v>
+        <v>-0.2276597122794719</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>9.346480825966218</v>
+        <v>10.05276316701637</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>15.77793508657811</v>
+        <v>14.48257833300974</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>3.128302464295619</v>
+        <v>7.648406987986128</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>26.73490660108278</v>
+        <v>31.10112475822453</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>37.80320214916122</v>
+        <v>36.4599998610751</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.61746069352816</v>
+        <v>30.04649152191782</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>37.10165187935483</v>
+        <v>36.8653323028195</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>45.18831679002429</v>
+        <v>41.0980316673197</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>15.73055280609728</v>
+        <v>19.938126551247</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>41.9419495112504</v>
+        <v>42.64331422397564</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>48.42875768614687</v>
+        <v>46.6594118150922</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>20.96801974893531</v>
+        <v>21.92039905045507</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>36.26273117640437</v>
+        <v>35.21345267760657</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>45.54997435853954</v>
+        <v>45.84046159174279</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>3.213166786958706</v>
+        <v>1.382480948679156</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>24.25549433435886</v>
+        <v>23.47922873825378</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>30.50595204512447</v>
+        <v>27.81470632976693</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>11.9701655411622</v>
+        <v>11.20919302393622</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>49.0260124578427</v>
+        <v>51.65570175673257</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>61.05326854210188</v>
+        <v>59.44994426360364</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>62.55923122433018</v>
+        <v>64.55210321205172</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>69.82789882272294</v>
+        <v>70.70358155697073</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>75.44119506353347</v>
+        <v>73.53670966741262</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.02469880844034</v>
+        <v>33.11814557145762</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>58.89144508385517</v>
+        <v>63.04654773954263</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>68.75456761922624</v>
+        <v>67.31104107130348</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>14.09990115005182</v>
+        <v>12.09700663539383</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>33.32834671854272</v>
+        <v>28.98443479708028</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>38.80469141842328</v>
+        <v>36.81186952563124</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>5.608099264500922</v>
+        <v>1.940618524753113</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>37.66115104349083</v>
+        <v>34.24444286243852</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>39.13515260139961</v>
+        <v>38.7394614453351</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>12.59783273374878</v>
+        <v>8.683007343169812</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>58.5281677134542</v>
+        <v>55.65452253681079</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>62.17557742406235</v>
+        <v>65.90702334727528</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>60.78525565362914</v>
+        <v>60.88162144149182</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>68.9587463793666</v>
+        <v>66.09977827427305</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>67.50170099375126</v>
+        <v>69.49954240894623</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>12.9619871927921</v>
+        <v>11.12504652854198</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>41.45486166709607</v>
+        <v>41.83038928838791</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>50.37780696643724</v>
+        <v>50.55383662830482</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>9.522897567707421</v>
+        <v>7.5124605564658</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.77840195267577</v>
+        <v>33.7779323992157</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>35.06299434816746</v>
+        <v>37.78190835111245</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>4.30031824410235</v>
+        <v>1.304366417847437</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>24.23392226343255</v>
+        <v>22.93835128695398</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>33.84494060020968</v>
+        <v>35.38690537419757</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>7.453388605559084</v>
+        <v>4.420017536003176</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>41.14893474898763</v>
+        <v>45.37348712732174</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>54.11754307889382</v>
+        <v>54.17037366427258</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>45.83486336857982</v>
+        <v>48.88285177485974</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>53.20586611687087</v>
+        <v>53.99494099919931</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>60.66901930868499</v>
+        <v>62.98132654010212</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>6.728225221007666</v>
+        <v>5.084002071824724</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>47.94300103407697</v>
+        <v>47.26676149078759</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>52.8523914290318</v>
+        <v>55.13422121696912</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>9.025880656858142</v>
+        <v>5.574498655761971</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>30.25419654172144</v>
+        <v>31.65621413289954</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>40.49205244568363</v>
+        <v>39.92743795013757</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>3.62575783406248</v>
+        <v>1.061748384777861</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>29.36001455926148</v>
+        <v>27.05738287657143</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>39.14316328789391</v>
+        <v>41.86131893641372</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>7.332788817598981</v>
+        <v>4.684075327805605</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>47.84883972038155</v>
+        <v>47.09765735870877</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>66.25952315458447</v>
+        <v>67.14575152720117</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>56.70077628365756</v>
+        <v>59.41975452150891</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>68.36593178842047</v>
+        <v>71.77429151373305</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>83.15427613521241</v>
+        <v>83.65372245377991</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>5.715743634037075</v>
+        <v>3.701642245692746</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>56.69690205341553</v>
+        <v>59.48370712107574</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>67.4320656770593</v>
+        <v>70.75891534618223</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>8.352096976873408</v>
+        <v>6.320919939053116</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>23.86041350058439</v>
+        <v>22.54730016444798</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>34.69818425061943</v>
+        <v>34.8966664976613</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>4.850863484560954</v>
+        <v>1.35305098970149</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>41.39949841290097</v>
+        <v>43.76633469494679</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>47.51070456274768</v>
+        <v>47.7994834845303</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>8.209699479747151</v>
+        <v>6.882285314098624</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>66.77833394672646</v>
+        <v>66.07734516997385</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>67.14267142752244</v>
+        <v>67.86323280098813</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>62.4040924992441</v>
+        <v>64.88800679413298</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>63.24828649198246</v>
+        <v>63.23775479560936</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>63.50477436760836</v>
+        <v>66.21112443064439</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>9.636328997485805</v>
+        <v>5.283401339172961</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>33.7498858635234</v>
+        <v>32.30554638762057</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>64.62018038460474</v>
+        <v>61.99078581639728</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>10.32337252330978</v>
+        <v>13.36544453609889</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>33.01407782739221</v>
+        <v>35.55116670623227</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>37.10492233816422</v>
+        <v>36.86639599314374</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>1.619681317611715</v>
+        <v>1.415256780562689</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>26.22496927364684</v>
+        <v>28.923799763547</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>35.18266132351891</v>
+        <v>33.50698869762559</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>1.079680220841372</v>
+        <v>3.888153604863014</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>47.58829546770347</v>
+        <v>50.31194664009114</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>55.67529436037933</v>
+        <v>52.95848423182818</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>45.3056225640949</v>
+        <v>48.48109176368949</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>55.50552120620053</v>
+        <v>55.38425947067309</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>63.63528428430094</v>
+        <v>59.74762223693048</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>7.24806868513053</v>
+        <v>9.353351562775696</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>50.65268929478498</v>
+        <v>47.71711328860197</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>57.40045460236033</v>
+        <v>53.22417085647752</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>12.75786302539452</v>
+        <v>11.43786631845551</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>34.6282818960058</v>
+        <v>33.89260809470471</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>43.85956867659642</v>
+        <v>41.56707990723027</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>2.967833874534154</v>
+        <v>1.309652359787876</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>33.91926492242028</v>
+        <v>36.72958761879065</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>42.63589590947034</v>
+        <v>42.13143971360073</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>4.268560447442376</v>
+        <v>4.322108275652859</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>56.75703172769883</v>
+        <v>59.06750080733898</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>69.1069543798059</v>
+        <v>67.27870484412389</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>68.92007383770355</v>
+        <v>71.23234805125237</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>80.84304456682807</v>
+        <v>76.43027671985693</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>84.09430314657949</v>
+        <v>82.27244195918522</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>8.88077984767887</v>
+        <v>6.93289636423107</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>65.10100103982319</v>
+        <v>63.80639428407051</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>72.43762089825167</v>
+        <v>73.50259910250293</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>16.1891195708055</v>
+        <v>18.24007258862382</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>23.91209739686795</v>
+        <v>25.22275725958784</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>37.40573972894249</v>
+        <v>38.14879075064897</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>12.97834756307813</v>
+        <v>9.033263359846579</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>50.22898596562315</v>
+        <v>52.72807129415588</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>54.96964115525246</v>
+        <v>56.76567474528942</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>16.16857531702244</v>
+        <v>12.02760410346893</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>67.8672230583462</v>
+        <v>65.24679535228577</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>73.39209608066548</v>
+        <v>71.82851209372507</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>59.70691638580466</v>
+        <v>62.41099997528835</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>59.82721103905513</v>
+        <v>62.45135950716725</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>60.87794372489807</v>
+        <v>63.10414819649493</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>16.86644490409213</v>
+        <v>14.50724198231213</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>30.56900909936305</v>
+        <v>30.93084729483942</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>50.89578961349565</v>
+        <v>50.87697612352974</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>22.84101569590795</v>
+        <v>25.53491113000113</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>35.34990172254521</v>
+        <v>35.78986594065985</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>41.30859649864343</v>
+        <v>38.61493268700853</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>34.66030005851265</v>
+        <v>38.57638292108592</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>49.24566953725008</v>
+        <v>53.20468253621824</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>59.72034220051059</v>
+        <v>57.78757646019867</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>12.57831438766121</v>
+        <v>8.6477805061037</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>49.10818628508358</v>
+        <v>48.90284817825548</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>61.96344369073731</v>
+        <v>56.84104770625743</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>47.62719110566018</v>
+        <v>51.15514501519763</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>55.41632734404727</v>
+        <v>54.79977441573072</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>61.21696047535251</v>
+        <v>57.93620738988464</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>25.08153471698659</v>
+        <v>27.58083410948382</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>52.28750248402285</v>
+        <v>49.73938854745812</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>59.14453108967844</v>
+        <v>55.76495683514399</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>23.17468530400662</v>
+        <v>25.42606737210506</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>38.97196406057517</v>
+        <v>34.89422546671452</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>44.39108181569589</v>
+        <v>41.33561369915499</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>35.97106700743318</v>
+        <v>39.95001239688076</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>56.62675506608828</v>
+        <v>60.95125318108592</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>61.06690761496964</v>
+        <v>60.70671748611804</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>16.77510115054672</v>
+        <v>12.43294667669638</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>65.18011516894641</v>
+        <v>63.55961536966429</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>72.32780905483244</v>
+        <v>70.37814188059238</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>78.09231275335391</v>
+        <v>75.69958059630781</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>80.53480653187724</v>
+        <v>77.06263868236763</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>84.01713345752525</v>
+        <v>82.25659552076476</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>26.46531905911718</v>
+        <v>29.02279017186014</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>66.80360303045519</v>
+        <v>63.06072156742729</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>76.58906198032432</v>
+        <v>74.95516363857199</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>8.242151420355118</v>
+        <v>4.315726624814733</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>26.85257203348371</v>
+        <v>24.95784132881575</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>35.64736080923718</v>
+        <v>33.74107120485169</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>3.033209223959116</v>
+        <v>0.940116592474677</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>27.70723684209124</v>
+        <v>32.01912055398324</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>34.57407038923076</v>
+        <v>32.60429106765312</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>8.634754635518131</v>
+        <v>5.38051207378302</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>53.74443889454724</v>
+        <v>56.11259994262105</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>57.33528378500317</v>
+        <v>59.23740885378763</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>60.8496400747551</v>
+        <v>63.24691195853183</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>61.92439229221465</v>
+        <v>62.47313689928221</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>62.26800612566655</v>
+        <v>64.99512063035515</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>6.696023475485923</v>
+        <v>2.815297124262486</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>40.99000496944693</v>
+        <v>39.70454989894388</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>44.34874299547585</v>
+        <v>43.73621059040518</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>10.42729925940642</v>
+        <v>7.318767232460242</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>32.42316173338467</v>
+        <v>33.25020225659986</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>35.82796594742564</v>
+        <v>33.98862176629726</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>3.629854809947652</v>
+        <v>0.8858468009557612</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>26.37883155974009</v>
+        <v>28.71388091258451</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>33.46907460228419</v>
+        <v>33.48861447943064</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>5.715916536913273</v>
+        <v>3.985941039106297</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>44.90745079328414</v>
+        <v>44.8086208386034</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>55.00475441727581</v>
+        <v>52.26703149609071</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>45.59961848676935</v>
+        <v>45.45588788385759</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>55.45267299285491</v>
+        <v>55.01989893006625</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>61.55154872120268</v>
+        <v>57.35399267949867</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>7.079120311099345</v>
+        <v>4.569582034033861</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>46.41220083292861</v>
+        <v>50.13201686689381</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>54.42798000810208</v>
+        <v>54.50349548161071</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>9.627921124353332</v>
+        <v>6.128623065549728</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>31.22686400774086</v>
+        <v>32.71159033428462</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>41.6598469216111</v>
+        <v>40.25829446584551</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>1.042730428665369</v>
+        <v>0.9286885337220276</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>28.43058544161246</v>
+        <v>29.20983769011045</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>36.65077001831435</v>
+        <v>38.39230767511579</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>3.881046424400424</v>
+        <v>4.822583505458489</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>47.47882872744019</v>
+        <v>48.26671835871355</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>65.8095716827798</v>
+        <v>64.36038368350694</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>59.93789158231669</v>
+        <v>62.6522081126934</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>73.69726524535918</v>
+        <v>77.83281633224225</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>83.13854611389125</v>
+        <v>80.83355860278854</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>5.421591523564651</v>
+        <v>3.539145937462663</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>59.80849809768114</v>
+        <v>62.05757582684994</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>69.2790218664866</v>
+        <v>70.66949223803009</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>10.10972419965033</v>
+        <v>12.06794959771959</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>14.04226380683982</v>
+        <v>14.18706900032881</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>17.48669061750709</v>
+        <v>14.82130388161571</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>2.371302908721233</v>
+        <v>2.462248627331107</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>15.14160846070392</v>
+        <v>12.66770722219517</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>16.90515740321723</v>
+        <v>13.75980896719173</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>7.472675692199225</v>
+        <v>11.2023624643195</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>25.09997321198227</v>
+        <v>22.92623042237809</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>27.63955542877822</v>
+        <v>25.12950582249345</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>24.66941580578674</v>
+        <v>22.96804701578576</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>28.15472977934402</v>
+        <v>26.36232924513856</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>31.67173695154586</v>
+        <v>29.79419000461269</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>11.15751341299467</v>
+        <v>10.33427052332056</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>18.08956015363158</v>
+        <v>15.2212930600084</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>22.54640590365774</v>
+        <v>19.21704791249404</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>7.82147407704614</v>
+        <v>5.70826416993614</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>20.2326825188785</v>
+        <v>20.90353743891692</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.68574894842518</v>
+        <v>31.05850194149393</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>1.545457848044943</v>
+        <v>1.032870746546326</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>13.78033476672718</v>
+        <v>10.62384366297591</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.60941525037344</v>
+        <v>26.64496902628341</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>3.726237126015629</v>
+        <v>2.842810491185347</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>24.57751936918646</v>
+        <v>22.13253577786221</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>44.43140701816693</v>
+        <v>47.08574061107904</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>27.54499302086781</v>
+        <v>27.8779239375202</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>38.92256149791359</v>
+        <v>39.44442899374461</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>52.07926572165647</v>
+        <v>52.39470691625681</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>5.009587732332268</v>
+        <v>2.591164433972352</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>33.54678098117977</v>
+        <v>32.92001581954187</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>44.92233570606928</v>
+        <v>43.7256606802875</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>14.36446192776355</v>
+        <v>13.9936745965121</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>28.47536040492914</v>
+        <v>32.31265202322948</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>39.62809509982807</v>
+        <v>38.97506341340837</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>3.174048821076958</v>
+        <v>1.249318667088232</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>23.12278729921429</v>
+        <v>24.88210748735522</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>35.47323756191751</v>
+        <v>35.36655731370824</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>8.686013793668589</v>
+        <v>6.599713708863785</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>39.22298727099092</v>
+        <v>42.69172179830596</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>57.63150311411928</v>
+        <v>59.68471720755105</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>48.67974866382749</v>
+        <v>53.27836778281348</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>56.65818552351867</v>
+        <v>60.92916952354986</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>68.27175003704878</v>
+        <v>67.59009808608231</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>4.999275220369441</v>
+        <v>3.264849884204899</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>40.50561774655635</v>
+        <v>45.29733124831587</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>63.16632974161418</v>
+        <v>65.80674316444239</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>14.38431172773054</v>
+        <v>15.05258227429885</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>20.29959764420749</v>
+        <v>24.67012491901325</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>26.23208994215098</v>
+        <v>27.99197158765723</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>1.766005035186947</v>
+        <v>1.854258284633186</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>29.37191926462703</v>
+        <v>29.41141883199026</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>31.17699467595006</v>
+        <v>30.23584493861473</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>12.90576792906525</v>
+        <v>14.21081177331628</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>46.76373453273465</v>
+        <v>49.0613395444946</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>48.53711109922838</v>
+        <v>50.80189933495618</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>36.32283342789886</v>
+        <v>34.86411383496159</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>40.93693538990006</v>
+        <v>39.53478467086727</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>44.27169889191232</v>
+        <v>46.58936165169042</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>10.68163804381852</v>
+        <v>11.37275951638305</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>37.82342478967838</v>
+        <v>40.55994607034694</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>42.94031162201507</v>
+        <v>45.57121237506366</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>10.01656357764547</v>
+        <v>6.209102411995474</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>24.35736479825854</v>
+        <v>25.58048920625005</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>34.37907267355521</v>
+        <v>35.58139699547747</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>3.323925835482431</v>
+        <v>0.8080319737482782</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>20.85917793531917</v>
+        <v>17.36336443024733</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>40.82973410303455</v>
+        <v>43.47708165369487</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>0.9760566862673308</v>
+        <v>4.693816854962641</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>31.85829610350299</v>
+        <v>31.3899958777397</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>50.91156996732489</v>
+        <v>51.61230594377476</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.51010512435601</v>
+        <v>27.30414285431038</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>41.46996637584624</v>
+        <v>38.58866151559607</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>58.00185991149388</v>
+        <v>58.00062809152715</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>6.5606464140944</v>
+        <v>3.955283212797791</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>39.18318890482201</v>
+        <v>37.18939458886706</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>50.00159053750575</v>
+        <v>46.03583801875459</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>13.46571481053702</v>
+        <v>11.54246009733571</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>27.2594559078486</v>
+        <v>26.95378959700385</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>34.86470874681197</v>
+        <v>35.41326279822014</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>3.758007032113774</v>
+        <v>1.237667876667217</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>25.56121526892096</v>
+        <v>27.86061099776914</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>36.09518725133844</v>
+        <v>34.77560285613365</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>6.375110791528385</v>
+        <v>6.422506160290158</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>43.65225061312415</v>
+        <v>48.44786787889507</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>54.37248509261225</v>
+        <v>54.64309943744127</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>53.69741427942753</v>
+        <v>58.29527801260909</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>58.86284802327587</v>
+        <v>62.09033924375319</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>70.56938868362083</v>
+        <v>71.5683339142571</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>4.720442834371855</v>
+        <v>2.840769226166337</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>38.87290349956248</v>
+        <v>37.48052315005641</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>58.31825947631255</v>
+        <v>61.16371316718072</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>16.02003371324501</v>
+        <v>15.70543949828637</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>27.65394746847773</v>
+        <v>24.14595405853775</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>36.2943365884378</v>
+        <v>34.29260620472834</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>5.631528828947374</v>
+        <v>1.929781448222119</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>41.36642479236038</v>
+        <v>43.93338212460713</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>46.73929360033984</v>
+        <v>45.72929966296976</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>14.81251760473698</v>
+        <v>12.03949116683844</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>63.52392017552674</v>
+        <v>67.06664352717172</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>65.2863401982319</v>
+        <v>67.49541376855291</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>60.4955290877444</v>
+        <v>63.07323474082364</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>59.27330203392418</v>
+        <v>61.81015673698533</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>63.11556214899801</v>
+        <v>65.83467072252648</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>15.66376958061465</v>
+        <v>13.23139289513293</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>22.10933343878164</v>
+        <v>20.24942997683944</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>65.64160060791455</v>
+        <v>63.49915335067313</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>21.5324169842144</v>
+        <v>25.21609339276367</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>37.0861412903631</v>
+        <v>36.44251786345299</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>39.8631163530477</v>
+        <v>36.52382833471673</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>5.342712602216707</v>
+        <v>2.245961403530611</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>29.29903039242576</v>
+        <v>31.39133967429082</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>35.6231206427924</v>
+        <v>35.46750277927006</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>11.1370460699696</v>
+        <v>9.384538373884538</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>48.96233361365363</v>
+        <v>52.07724478214101</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>55.7699188741872</v>
+        <v>57.36701572529817</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>51.60016799879047</v>
+        <v>54.17950825656657</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>56.9620081223562</v>
+        <v>59.89602307142594</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>61.03716350975881</v>
+        <v>60.12526894807594</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>19.59528656447594</v>
+        <v>22.4731086752141</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>52.65443222193954</v>
+        <v>50.74531214603051</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>56.99993396523055</v>
+        <v>55.80267290828463</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>22.48265917697793</v>
+        <v>26.50132244607831</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>39.63696819757131</v>
+        <v>36.95289926931398</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>44.3013937819961</v>
+        <v>41.32373666735371</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>4.470642428012408</v>
+        <v>2.169368887335871</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>34.76376926627455</v>
+        <v>37.32635786633378</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>39.64502861191987</v>
+        <v>40.5761579222138</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>12.53550633870156</v>
+        <v>9.616252724021464</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>60.59048308410712</v>
+        <v>62.81600857432468</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>68.98278757860705</v>
+        <v>69.0183248654505</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>68.49313903618483</v>
+        <v>70.4203455875211</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>73.95577328449259</v>
+        <v>73.77048739294779</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>81.78814310868458</v>
+        <v>78.8357924948359</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>17.17453724788838</v>
+        <v>19.84908976688615</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>60.61181696278014</v>
+        <v>64.0460462430751</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>70.54223746489424</v>
+        <v>70.18739996279015</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>7.666226499455046</v>
+        <v>4.616957989840508</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>24.54481377886885</v>
+        <v>24.26315122984942</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>32.21301460637151</v>
+        <v>32.15723176068998</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>2.627575223005319</v>
+        <v>0.8079895644822379</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>30.68727976652916</v>
+        <v>32.94757626243899</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>32.77934734774168</v>
+        <v>32.24771683607523</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>8.049949875912748</v>
+        <v>5.595696179671172</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>51.0553246824514</v>
+        <v>53.0288046712909</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>55.33908890459166</v>
+        <v>57.49018422330283</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>56.57482156228182</v>
+        <v>60.18641901552702</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>61.96192872451539</v>
+        <v>65.78600288314856</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>58.79894784029646</v>
+        <v>60.78755392625406</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>6.131955677796888</v>
+        <v>2.651812258218545</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>37.72358193741781</v>
+        <v>39.93909523938422</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>40.16293678684717</v>
+        <v>42.74194674740335</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>10.92109296084547</v>
+        <v>8.139412240170124</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>31.99478428189778</v>
+        <v>35.30470923729914</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>35.69407756561905</v>
+        <v>33.6971031855327</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>3.88289668830631</v>
+        <v>1.06536013884304</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>26.20984019422738</v>
+        <v>28.35879357179983</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>34.69166807812616</v>
+        <v>33.9009003234549</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>7.777887998270344</v>
+        <v>4.985625423086443</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>45.66860691946609</v>
+        <v>48.91285477401783</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>58.8232416519737</v>
+        <v>58.96313641736911</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>47.53476122945893</v>
+        <v>50.24989421367899</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>56.95993797104104</v>
+        <v>57.0397263522528</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>63.24748002726487</v>
+        <v>60.37591838329065</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>6.762797086610004</v>
+        <v>4.229876125040438</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>55.1275458982179</v>
+        <v>50.64009033648563</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>54.5444663618693</v>
+        <v>54.09960875460764</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>10.99494171745688</v>
+        <v>7.822671510450569</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>30.46397213348732</v>
+        <v>34.7324212758124</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>41.14867553845627</v>
+        <v>41.95482250738802</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>2.136989390542748</v>
+        <v>0.8978932966634368</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>26.92141524543567</v>
+        <v>28.69235143093506</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>36.50764845191371</v>
+        <v>35.66270592168468</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>5.553292320375778</v>
+        <v>4.530650217764133</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>45.04435009970558</v>
+        <v>48.94139169341695</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>65.1951525230179</v>
+        <v>63.1569070619137</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>61.48581878579014</v>
+        <v>65.70888724471753</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>70.22916352599364</v>
+        <v>71.93194934514131</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>81.91316407660342</v>
+        <v>79.55833138797779</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>5.28138512676605</v>
+        <v>3.25501064346717</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>52.24297085323032</v>
+        <v>53.15724584275126</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>66.69336345306377</v>
+        <v>70.13026488263598</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.526</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.876</v>
+        <v>16.129</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.578</v>
+        <v>12.889</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.949</v>
+        <v>3.915</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7.978745248977479</v>
+        <v>8.670510314787697</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>11.72465669206577</v>
+        <v>10.99983022789345</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>12.38629858293744</v>
+        <v>15.56910140186804</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.7128876097773187</v>
+        <v>-2.747877908200728</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>12.13366355593707</v>
+        <v>12.60417189306311</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>12.85565548100206</v>
+        <v>16.02552190020478</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4.523010478745093</v>
+        <v>0.7886495591487446</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>19.30088002010525</v>
+        <v>23.16610392573318</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>22.25220457042766</v>
+        <v>25.94780628906651</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>22.17318440501121</v>
+        <v>23.59280667955368</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>26.19601826754561</v>
+        <v>27.71652247879316</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>30.95768400685575</v>
+        <v>32.60489573591684</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6.677897939413924</v>
+        <v>4.702567920245954</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>14.5883913137903</v>
+        <v>13.92765977806908</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>15.82500455690749</v>
+        <v>19.18267731996844</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>7.357305692251231</v>
+        <v>9.929630797182149</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>27.74741389911248</v>
+        <v>24.67867422653572</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>42.49628020272133</v>
+        <v>39.28806829609125</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.3000876950101663</v>
+        <v>-1.516718779599465</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>13.45384942965671</v>
+        <v>14.33013959675654</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>32.41539405951222</v>
+        <v>33.04057870432197</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.150158220348139</v>
+        <v>0.6896570985208328</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>25.97576321146019</v>
+        <v>27.17714465037815</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>59.50699460565045</v>
+        <v>55.85167321386118</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>30.40246748530402</v>
+        <v>32.90991883029177</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>52.07856007513826</v>
+        <v>52.82655727338316</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>76.78969624613241</v>
+        <v>73.53110794131823</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3.818062393661471</v>
+        <v>5.813365422499182</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>46.0923921796016</v>
+        <v>45.62147972101643</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>65.83017905572974</v>
+        <v>63.11257628433935</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>11.99479749045536</v>
+        <v>14.32236175238152</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>34.33664263613883</v>
+        <v>33.93885901941889</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>44.61626598870579</v>
+        <v>42.88562253102718</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.6857010672591137</v>
+        <v>0.2185175144102125</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>27.57956752662753</v>
+        <v>26.65782344910911</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>41.8402297217029</v>
+        <v>38.1349231848481</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1.63696402309181</v>
+        <v>3.270419709286351</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>47.20414296446612</v>
+        <v>44.77750847754378</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>62.1816979042395</v>
+        <v>60.0586144569891</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>58.30681844978612</v>
+        <v>60.51977042955853</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>75.08491639060749</v>
+        <v>76.37396562226856</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>82.34756610451204</v>
+        <v>83.49723447441598</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>17.39908187049043</v>
+        <v>14.98089209423752</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>65.11396355190881</v>
+        <v>63.82365570744926</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>73.03713291354624</v>
+        <v>69.28016016006006</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2.736258612421896</v>
+        <v>4.894474174103134</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>30.50902920096037</v>
+        <v>31.16523169582793</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>39.74071908229241</v>
+        <v>39.14794504991289</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1.117849242484969</v>
+        <v>1.984114027060496</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>38.38313890855827</v>
+        <v>42.83374558169675</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>40.91926564043644</v>
+        <v>43.77655807703768</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2.334936755062007</v>
+        <v>6.726332261407507</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>61.05224736405671</v>
+        <v>66.71534236979741</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>67.58023127307575</v>
+        <v>67.05423699809752</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>66.24852171704437</v>
+        <v>61.70094001541234</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>78.72539672616269</v>
+        <v>76.37421242201893</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>62.64682947548667</v>
+        <v>64.28570392248439</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4.058588378172139</v>
+        <v>5.585794853030272</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>43.65230084892296</v>
+        <v>47.34612752543222</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>50.02875722242597</v>
+        <v>52.95414362803838</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>5.285057826217091</v>
+        <v>8.192746048299718</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>37.46941318690376</v>
+        <v>34.72948539902203</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>43.49611992732015</v>
+        <v>41.21145909970714</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-0.5685674998224783</v>
+        <v>-0.7922492105789694</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>22.2236024845176</v>
+        <v>24.41265429633989</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>34.83863173413618</v>
+        <v>37.21353337513455</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.9828296189859635</v>
+        <v>1.53918943617321</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>46.64153833862023</v>
+        <v>44.76825641714441</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>62.71649223901856</v>
+        <v>61.00115999262</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>50.09219539815797</v>
+        <v>51.95508378704159</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>69.43167232553975</v>
+        <v>66.65577423913196</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>77.37954024389013</v>
+        <v>74.30627486235758</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>3.505792459757107</v>
+        <v>5.911079694768617</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>59.81849263181184</v>
+        <v>58.99708376819476</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>62.92828484396293</v>
+        <v>62.22221778002432</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>5.781895901516382</v>
+        <v>9.058677751757669</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>38.25466486786286</v>
+        <v>35.96420009170062</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>45.7573444734322</v>
+        <v>48.08653771475088</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-0.6246799600592681</v>
+        <v>0.1233747988861893</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>37.62412298900915</v>
+        <v>34.39025302887997</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>41.33315809335328</v>
+        <v>44.77962638349567</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1.535136840259671</v>
+        <v>4.74345418078007</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>62.65909600120321</v>
+        <v>59.42487905119732</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>77.47985689121987</v>
+        <v>79.69827885540727</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>66.34152651809869</v>
+        <v>68.85474458622775</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>86.57715766823927</v>
+        <v>87.405008781704</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>90.87441959746538</v>
+        <v>93.50651841756246</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>4.416483585976639</v>
+        <v>6.686501252933823</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>74.02040197909899</v>
+        <v>71.13594428794573</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>76.96570668366731</v>
+        <v>76.20303708635615</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>13.7861586799108</v>
+        <v>11.64525100132942</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>30.19890903291178</v>
+        <v>32.37174196433895</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>38.01180437322601</v>
+        <v>35.60535263553992</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1.250810708932843</v>
+        <v>1.36275341522683</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>35.83279226052422</v>
+        <v>36.9785634156136</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>37.69153440149199</v>
+        <v>34.63782883479635</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>3.186083649169909</v>
+        <v>6.136096766304842</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>63.36321684191522</v>
+        <v>62.39628655720755</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>61.09464322941159</v>
+        <v>56.99413136206181</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>52.71394104778831</v>
+        <v>51.22557167650972</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>63.6043209516716</v>
+        <v>60.87288269748866</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>60.4888477598205</v>
+        <v>57.51962754762489</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>9.218529707487114</v>
+        <v>10.83136657276263</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>36.06459665064684</v>
+        <v>38.56843986244549</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>37.91776723394209</v>
+        <v>41.22543070838354</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>22.98291137741313</v>
+        <v>18.5652401702142</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>42.23922763263297</v>
+        <v>44.9461595314908</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>45.03611587576057</v>
+        <v>46.2476612266133</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1.39106496282491</v>
+        <v>3.586030898973508</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>33.91588791443088</v>
+        <v>34.16497930578759</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>37.5863935476695</v>
+        <v>39.37799836490417</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>3.001586787610869</v>
+        <v>5.134558773979517</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>60.1093183851751</v>
+        <v>56.99913250367558</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>65.16277295988475</v>
+        <v>64.90064011488336</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>61.23203245465774</v>
+        <v>58.85866056913581</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>73.57044419520952</v>
+        <v>70.14179021517864</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>77.85125370047483</v>
+        <v>74.44774474500534</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>20.08480956033063</v>
+        <v>17.48923117028064</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>61.28013166753728</v>
+        <v>63.63143174744351</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>66.85849974228459</v>
+        <v>61.90428932682219</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>21.32364668989576</v>
+        <v>18.47594561747995</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>43.6668919599908</v>
+        <v>44.37885240625705</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>46.49497753239297</v>
+        <v>50.64881831924385</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.1080060664887341</v>
+        <v>2.708420499259056</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>39.13331163609081</v>
+        <v>41.00237244324046</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>41.06471783849516</v>
+        <v>44.04774665446045</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>2.280463447556382</v>
+        <v>4.606778855792886</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>68.27486900644176</v>
+        <v>67.85714015127105</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>75.61765342499746</v>
+        <v>78.13368759684964</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>73.52291808521628</v>
+        <v>77.01542169011501</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>81.10510702063247</v>
+        <v>84.32960414364914</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>88.93220074995098</v>
+        <v>92.68090178740084</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>21.05146866390665</v>
+        <v>16.56806916420207</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>72.79520737458061</v>
+        <v>72.90541932799445</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>77.1904276455987</v>
+        <v>76.84116164137342</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>9.881961313459893</v>
+        <v>11.8818133538499</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>14.04771288939115</v>
+        <v>12.62221949850704</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>14.32776297949896</v>
+        <v>17.87126950912654</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.8564394994564388</v>
+        <v>-0.9825389574522525</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>10.44053839560421</v>
+        <v>12.55057108737802</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>10.72995384745428</v>
+        <v>13.38945144839683</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>5.694985632006503</v>
+        <v>3.958409392127773</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>24.47192747708566</v>
+        <v>24.86178044820305</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>23.79157169581874</v>
+        <v>27.35457966567071</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>21.8741319965809</v>
+        <v>23.24457142528755</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>24.65085942073087</v>
+        <v>26.20658782616582</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>32.70568798683159</v>
+        <v>34.25006233330244</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>64.52870189954142</v>
+        <v>63.23542656009884</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>67.53832565424085</v>
+        <v>63.9088297095746</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>64.59003937502743</v>
+        <v>60.96015731116871</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>6.926502176578037</v>
+        <v>9.326653866459965</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.21679096847166</v>
+        <v>24.66540953795477</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>42.10466413182427</v>
+        <v>39.72004470157492</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-0.7447256411996293</v>
+        <v>-1.313406386223928</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>9.405848526441485</v>
+        <v>11.65008865922451</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>26.21994799047758</v>
+        <v>29.40642810787051</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>30.57467020456881</v>
+        <v>31.47656342172695</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>61.52372047590559</v>
+        <v>58.50322722382796</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.8030862156056</v>
+        <v>30.99818583964713</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>51.66596948685022</v>
+        <v>48.26008872341231</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>72.7419826801969</v>
+        <v>69.59986516431883</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>4.923846220389322</v>
+        <v>6.627733934407889</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>47.60182131181791</v>
+        <v>44.6938036402871</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>56.98067241200123</v>
+        <v>54.10057135875044</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>23.00198648745417</v>
+        <v>20.14114885181626</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>36.14380823092671</v>
+        <v>32.18646620425269</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>47.00226045035555</v>
+        <v>44.05087361160765</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.8335617078280997</v>
+        <v>1.72181657503576</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>16.95449746203172</v>
+        <v>17.82629174705475</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.16832901094248</v>
+        <v>30.38899903545365</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>7.840615634822978</v>
+        <v>9.745475948669316</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>44.09738482042084</v>
+        <v>43.77295969620609</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>67.79676523308014</v>
+        <v>63.53713815233659</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>42.74983984616076</v>
+        <v>44.27051777947993</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>61.11053835690755</v>
+        <v>61.98339979656487</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>83.51668627982376</v>
+        <v>80.69316622123782</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>25.97369983626269</v>
+        <v>25.83856531530581</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>64.81713433323324</v>
+        <v>60.60887229970594</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>71.99727296935575</v>
+        <v>67.31149663208184</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>5.479859471381626</v>
+        <v>7.355105252736703</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>23.81695901858365</v>
+        <v>23.98436325104792</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>31.57107981909754</v>
+        <v>30.20510983554824</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>1.654469629201891</v>
+        <v>2.894420401043504</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>31.69940850124305</v>
+        <v>33.98830268762855</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>40.83859814676589</v>
+        <v>37.87545565852697</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>7.160686063919691</v>
+        <v>8.666581398250326</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>63.36251936039881</v>
+        <v>63.27471470328887</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>66.55657959976112</v>
+        <v>62.13565782358392</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>53.17953918268701</v>
+        <v>53.78157890967948</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>68.28590210698583</v>
+        <v>64.72137678313959</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>69.11780538622064</v>
+        <v>65.19686500747579</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>10.26626343601552</v>
+        <v>11.47048697951024</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>8.550865976650336</v>
+        <v>10.46228098470164</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>9.116623568470285</v>
+        <v>11.10375086177311</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>24.53035172481468</v>
+        <v>20.42173924393181</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>44.12001086603011</v>
+        <v>43.68525258349437</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>43.40737455075022</v>
+        <v>44.32357175318943</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>2.120584642476967</v>
+        <v>4.868459549365362</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>33.98820201459915</v>
+        <v>34.47487736524592</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>41.25548020720582</v>
+        <v>42.67454403861726</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>63.46748058081215</v>
+        <v>60.31339548412548</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>67.67983547976662</v>
+        <v>66.7119704708648</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>66.9582510543034</v>
+        <v>65.11364006167703</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>77.82973422540124</v>
+        <v>75.09385938656231</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>83.0560081138066</v>
+        <v>83.19263520463286</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>34.68963474054917</v>
+        <v>32.21448346276833</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>66.34961183328008</v>
+        <v>68.83111428094023</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>68.92496432956807</v>
+        <v>71.38871580635404</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>24.6825276166243</v>
+        <v>21.66540044915337</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>43.4596780465657</v>
+        <v>42.11807742285659</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>45.83728443616771</v>
+        <v>48.67977221805845</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>1.786734287738785</v>
+        <v>1.811718557937251</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>28.5903155452949</v>
+        <v>31.7823145092946</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>37.01934791785802</v>
+        <v>40.54673252327148</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>7.930051083525768</v>
+        <v>9.814541598079764</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>62.76081005959523</v>
+        <v>62.53439566901566</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>72.98371257721557</v>
+        <v>74.40809869413749</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>71.38969854011066</v>
+        <v>75.31456482930939</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>80.71903818277298</v>
+        <v>83.99593865617754</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>84.87242159297598</v>
+        <v>86.26986843884383</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>35.01778690396147</v>
+        <v>32.54148848702627</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>73.74565548811016</v>
+        <v>70.43280259314918</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>77.60209544265187</v>
+        <v>76.75532908462536</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>3.316080765653513</v>
+        <v>2.577528996381048</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>20.34770674405284</v>
+        <v>18.1872497408041</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>30.22878758167034</v>
+        <v>30.51233965519065</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>0.9247764337010054</v>
+        <v>2.759662495713098</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>39.58434360969168</v>
+        <v>38.02021343200428</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>36.25699159492871</v>
+        <v>37.81844030112504</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>8.055133102200472</v>
+        <v>9.800419806803374</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>66.48312956492639</v>
+        <v>69.14109933425709</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>67.86628733808656</v>
+        <v>66.67110548284924</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>53.73950190152836</v>
+        <v>55.69106053776817</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>69.48100749513198</v>
+        <v>65.80761529400442</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>72.29203728940328</v>
+        <v>68.40969702777522</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>5.185463967252158</v>
+        <v>3.842362304114921</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>4.983502745068435</v>
+        <v>6.709905890464238</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>5.419172246431366</v>
+        <v>7.302144428954893</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>15.94148689559695</v>
+        <v>14.29944300962603</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>46.26373533894873</v>
+        <v>45.08850049534768</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>47.6044268183513</v>
+        <v>46.89296548395873</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>1.390236929393119</v>
+        <v>3.533235353030708</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>41.09529828989442</v>
+        <v>39.04137491275478</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>48.45779417598786</v>
+        <v>44.82519338459153</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>1.745976112515883</v>
+        <v>4.792053971730564</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>69.85285841257146</v>
+        <v>66.84707368777879</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>72.54304241423539</v>
+        <v>69.67870774309664</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>57.52697074946441</v>
+        <v>53.97678138438135</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>72.41929554280757</v>
+        <v>70.96529441750839</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>82.82964073069741</v>
+        <v>79.29536884139117</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>14.84583403793593</v>
+        <v>17.85158556354873</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>70.71708007563281</v>
+        <v>69.60162955877706</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>73.75389426164075</v>
+        <v>71.90269477472006</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>18.35641205801389</v>
+        <v>17.40689073256817</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>1.396539361594655</v>
+        <v>2.073766122764521</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>39.26204418897458</v>
+        <v>39.05252320269834</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>39.85840258768292</v>
+        <v>42.60918923267801</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>5.127335494569106</v>
+        <v>7.975875721982636</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>69.08906248936835</v>
+        <v>69.372454453776</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>74.05489832624113</v>
+        <v>77.50508355621893</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>74.73696297609149</v>
+        <v>70.90587780703143</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>84.62148132167343</v>
+        <v>86.90914364885509</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>89.98414351454558</v>
+        <v>91.15776948938111</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>14.80810564756619</v>
+        <v>16.36664523379969</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>78.64581710333707</v>
+        <v>75.19679382631674</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>80.85955889863384</v>
+        <v>78.19654037541616</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>5.980418581440993</v>
+        <v>4.425334637221184</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>5.344148716835836</v>
+        <v>6.036532914765885</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>6.287630909729852</v>
+        <v>9.133135137192379</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>1.274167165505553</v>
+        <v>-2.832104802302858</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>9.780726818120616</v>
+        <v>10.84597405888825</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>9.45855169893008</v>
+        <v>9.94005832199743</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>3.551525476359718</v>
+        <v>0.261628631866401</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>15.63345805930167</v>
+        <v>18.89747452703864</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>18.07006418523153</v>
+        <v>19.79212032457876</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>24.44400462413027</v>
+        <v>21.64471626439826</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>28.55518939068024</v>
+        <v>27.70028633372848</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>34.31139031995673</v>
+        <v>30.75801834667262</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>5.151149153793224</v>
+        <v>1.811221395234696</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>6.294410738585924</v>
+        <v>7.839470343938569</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>8.197213686833454</v>
+        <v>9.875891564774701</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>6.651452265306254</v>
+        <v>8.924967353079035</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>28.13058194287055</v>
+        <v>23.92304650188632</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>35.53262299127621</v>
+        <v>34.57181724141652</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>1.397518236816651</v>
+        <v>-0.7414955846068345</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>18.15169910200552</v>
+        <v>16.58879011505475</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>31.86321590714199</v>
+        <v>29.48863606322814</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>6.454251688387728</v>
+        <v>4.802704024462724</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>34.85481593970447</v>
+        <v>30.841528608804</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>55.22944101692481</v>
+        <v>51.45535853525011</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>37.62208348656424</v>
+        <v>34.58734613190595</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>53.36310044943843</v>
+        <v>50.95189689789693</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>59.47089660355501</v>
+        <v>61.91889129307427</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>5.952249059544108</v>
+        <v>7.816981690871984</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>45.74723511299581</v>
+        <v>42.32961880346085</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>54.1169387577431</v>
+        <v>52.77447393762423</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>7.514837009547232</v>
+        <v>9.4763652418617</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>27.76666673321993</v>
+        <v>29.85314842547041</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>40.10703042149754</v>
+        <v>39.27339661199544</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>0.851257096229503</v>
+        <v>0.2351490446968434</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>28.22347241962595</v>
+        <v>29.38977912412732</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>38.63430915474897</v>
+        <v>37.00650491829545</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>5.936733110128138</v>
+        <v>4.167490198828286</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>52.0903347905312</v>
+        <v>48.98585607819365</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>63.45733164298692</v>
+        <v>61.55836182919077</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>64.58419451492412</v>
+        <v>62.03373768575425</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>77.95427986726739</v>
+        <v>73.62982053109482</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>76.63036967149085</v>
+        <v>77.95416075847109</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>9.015051604360245</v>
+        <v>10.64045865415457</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>64.11406538918799</v>
+        <v>60.79264681188941</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>75.36151318145838</v>
+        <v>72.17601878112185</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>2.798909051482429</v>
+        <v>2.513610345321059</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>11.88415074791009</v>
+        <v>6.087920463164028</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>11.82332439223392</v>
+        <v>9.046670801836571</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-0.02317420216602528</v>
+        <v>-3.196986374419343</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>9.453936766318069</v>
+        <v>8.660816026023113</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>14.42717016780153</v>
+        <v>9.471994304835453</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>0.7084053819503815</v>
+        <v>-0.8439679470442343</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>15.69672952643515</v>
+        <v>15.53740755662561</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>11.34697297299011</v>
+        <v>14.79270106759879</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>13.07475812033976</v>
+        <v>14.68044134845171</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>14.92233659406994</v>
+        <v>16.71994057006318</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>14.82757833021737</v>
+        <v>16.61950473629948</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>6.19634614893647</v>
+        <v>4.412560403935053</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>13.84944899651082</v>
+        <v>12.22398497652043</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>13.79477424758355</v>
+        <v>12.20446470636886</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>0.8497190680635285</v>
+        <v>1.36902745073067</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>5.388294899770848</v>
+        <v>5.858417392554568</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>15.81629574050403</v>
+        <v>17.90394408470169</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-0.1775895515603736</v>
+        <v>-2.854945107064033</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>3.525656881868674</v>
+        <v>0.2500907502497007</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>13.39060413074046</v>
+        <v>12.03910726728359</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>2.685350495684546</v>
+        <v>-0.09602711977223066</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>6.994850349278707</v>
+        <v>10.00995284287729</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>33.38428304533674</v>
+        <v>28.11224649453275</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>10.07104098611861</v>
+        <v>14.98342905340437</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>21.25173215264993</v>
+        <v>25.05848344169733</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>43.50264096506604</v>
+        <v>41.68951861482221</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>0.9671738030033552</v>
+        <v>-1.895576775863994</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>11.23977380795386</v>
+        <v>13.53682459876569</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>12.46876189761012</v>
+        <v>14.02356000255747</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>1.61794396735543</v>
+        <v>5.315293278589088</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>9.27723171442511</v>
+        <v>7.871886312302351</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>28.29208663396862</v>
+        <v>30.17356580224847</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-0.1770553112392754</v>
+        <v>-4.979303093983177</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>6.347068483808727</v>
+        <v>2.872514544848379</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>25.95312022252099</v>
+        <v>21.88684728917325</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>1.912364354854482</v>
+        <v>-0.1890574550582258</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>13.4879946964634</v>
+        <v>14.61634501901456</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>54.92221600845963</v>
+        <v>51.26044505645655</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>19.12616602141829</v>
+        <v>20.47722875074492</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>48.2326478798193</v>
+        <v>47.18575079711947</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>69.59399793894703</v>
+        <v>67.12823481330929</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>0.8078770775260651</v>
+        <v>-5.137747499418847</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>11.02860653603275</v>
+        <v>11.95468939786023</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>21.09979193653181</v>
+        <v>22.08347826922479</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>10.24398203529168</v>
+        <v>7.168385144841253</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>19.89898023888964</v>
+        <v>23.01403548084386</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>38.44685517817825</v>
+        <v>36.83214868078974</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>1.670970088794704</v>
+        <v>4.4339574370922</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>46.07595258107106</v>
+        <v>45.99489741297006</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>45.39434875510823</v>
+        <v>47.1953231213994</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>4.481237735879059</v>
+        <v>4.469285061700901</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>64.6976438783075</v>
+        <v>69.54381246195516</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>70.71647551025418</v>
+        <v>69.338592143673</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>60.46561291206817</v>
+        <v>62.98118456413143</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>66.40354004661727</v>
+        <v>70.10583062041644</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>68.22783111670446</v>
+        <v>65.12936786493418</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>19.83531305559441</v>
+        <v>23.18124090300867</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>43.44736908306711</v>
+        <v>41.28469991657879</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>70.22833710145316</v>
+        <v>67.57357066035644</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>12.15322717184376</v>
+        <v>10.01818111206819</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>33.23004013390489</v>
+        <v>34.79238386881373</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>35.75778679288432</v>
+        <v>36.64803665138597</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>1.251088758990086</v>
+        <v>-0.6880590743358006</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>32.2937820302179</v>
+        <v>29.13685201529761</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>34.33625254573885</v>
+        <v>33.01142054958913</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>5.588119212858487</v>
+        <v>1.260014436579198</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>52.51584447405367</v>
+        <v>51.97114651461595</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>56.69933094460386</v>
+        <v>55.51484020928102</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>50.22258768527269</v>
+        <v>49.58819289048122</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>59.33735067640302</v>
+        <v>59.06436808090497</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>61.56694275506355</v>
+        <v>63.41027803244923</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>19.56146407898726</v>
+        <v>16.76335055149579</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>52.49784182692446</v>
+        <v>57.24631615035808</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>56.17702325345212</v>
+        <v>57.7632413668567</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>14.6228365882531</v>
+        <v>11.63687584977954</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>32.34470639884299</v>
+        <v>35.46904727621062</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>43.48696964615851</v>
+        <v>44.22261622285633</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>1.292754965040533</v>
+        <v>2.774170995066246</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>41.89759922234705</v>
+        <v>39.16910923061282</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>42.51168479386936</v>
+        <v>43.30338184167312</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>7.700381679733642</v>
+        <v>6.201213258219482</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>64.58892778862399</v>
+        <v>64.06335507636612</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>74.40391634353922</v>
+        <v>75.33386752566268</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>67.56509931812846</v>
+        <v>71.17849072901006</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>77.02505409025272</v>
+        <v>81.83492169081489</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>80.63195474683097</v>
+        <v>85.32798891163785</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>18.66628186613026</v>
+        <v>15.31048433256611</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>71.31600325914171</v>
+        <v>70.67180299349954</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>81.05800087844254</v>
+        <v>78.6127974983325</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>6.929691486589231</v>
+        <v>4.566134902349084</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>10.00516937778312</v>
+        <v>9.348094221975742</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>10.44238627990908</v>
+        <v>12.33345497633862</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>1.597713162920588</v>
+        <v>-1.492816282050804</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>9.428370824196708</v>
+        <v>8.519281136644354</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>10.1452827983735</v>
+        <v>10.01175776895832</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>4.200609089701818</v>
+        <v>1.862239668791151</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>15.26373972973863</v>
+        <v>14.65861077547833</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>16.58167018470107</v>
+        <v>19.08543826244748</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>15.2697926467623</v>
+        <v>18.19146603779426</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>19.08004782635098</v>
+        <v>22.24613982528927</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>22.69818513858703</v>
+        <v>25.53568479962264</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>6.333941815885836</v>
+        <v>2.978731009029865</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>10.55570323273167</v>
+        <v>12.64566288292589</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>13.15722386215833</v>
+        <v>11.15131786786597</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>3.805401038293549</v>
+        <v>4.285539116624982</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>13.10194099233808</v>
+        <v>14.2913049288002</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>28.71293870919098</v>
+        <v>27.83320183627054</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>1.097171882908562</v>
+        <v>-2.270459130704328</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>4.752293845163159</v>
+        <v>6.369479459828941</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>27.37860723709549</v>
+        <v>23.22449691933261</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>3.997887232965844</v>
+        <v>0.8609108802715966</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>10.2327216175233</v>
+        <v>12.60574289518456</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>44.59380146152907</v>
+        <v>41.48450486494976</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>14.41721569255559</v>
+        <v>17.22977580108785</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>26.68938894660285</v>
+        <v>29.33146019239502</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>45.45581257839607</v>
+        <v>42.2063012115557</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>1.657379783241392</v>
+        <v>0.7592255604960023</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>22.32387044837817</v>
+        <v>24.3368161855602</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>33.40738051306354</v>
+        <v>37.02569242257562</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>8.797624883602928</v>
+        <v>11.44063845163807</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>21.95285220669739</v>
+        <v>21.93814714080639</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>39.56803609444011</v>
+        <v>36.92537458624948</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>1.788164306696018</v>
+        <v>1.505436573772965</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>14.65251913424459</v>
+        <v>15.73912054613905</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>33.24859656713451</v>
+        <v>30.62972110379325</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>9.960478481310822</v>
+        <v>7.201060783115139</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>27.81894582091369</v>
+        <v>28.86840228345998</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>57.11668030592337</v>
+        <v>53.95731943406842</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>31.48175194435191</v>
+        <v>33.09091007516597</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>40.97613252685263</v>
+        <v>42.79224919148937</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>71.29832935012706</v>
+        <v>68.49817131470903</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>20.58328999293877</v>
+        <v>16.13276478620337</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>37.60537634539246</v>
+        <v>38.55461821729261</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>55.32532604066483</v>
+        <v>56.08577475834388</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>1.158748344533755</v>
+        <v>3.221774241793476</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>0.8819065354065749</v>
+        <v>-0.7014316783565953</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>7.51118862397302</v>
+        <v>5.048319203014461</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-0.1769278627584647</v>
+        <v>-4.471120209014074</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>0.8084192048578132</v>
+        <v>2.470352740066229</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>2.274200397456092</v>
+        <v>3.267838995616362</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>6.650764157599117</v>
+        <v>3.747659745519165</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>9.008393167637376</v>
+        <v>12.0510104911991</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>8.825039417993178</v>
+        <v>12.31100570820788</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>2.146729056234662</v>
+        <v>3.396961032411294</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>2.538039612571229</v>
+        <v>3.800934658855098</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>20.0824349456892</v>
+        <v>16.28141552729026</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-0.1773928410056556</v>
+        <v>-2.365504703304723</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-0.6438601372199884</v>
+        <v>-4.356991773909328</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>0.3318138557899317</v>
+        <v>1.723237906551816</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>16.16101164510307</v>
+        <v>17.19499211973404</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>33.81389093567953</v>
+        <v>37.4639177826846</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>35.85087198904964</v>
+        <v>39.17907614783525</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>1.491076582316268</v>
+        <v>4.659043585259106</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>26.91785757212977</v>
+        <v>27.95071386229151</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>31.62926042676158</v>
+        <v>34.05067921154462</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>7.09109869591088</v>
+        <v>9.504579059710194</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>55.20917468756043</v>
+        <v>51.13486632756394</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>59.00810749200805</v>
+        <v>58.18688272656581</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>50.45368550837649</v>
+        <v>48.73694809897572</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>58.76677004918432</v>
+        <v>57.08368430646595</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>59.10602466456478</v>
+        <v>62.89861957671429</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>16.65468133172842</v>
+        <v>14.55948734835262</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>51.33209095869503</v>
+        <v>54.34094873535999</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>57.18142367678676</v>
+        <v>53.5071047884767</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>18.64077760967042</v>
+        <v>17.07962845200611</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>37.04519694146354</v>
+        <v>38.63605698593244</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>48.480306400692</v>
+        <v>45.94236058077467</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>1.308176359883028</v>
+        <v>2.502397911865849</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>35.35411917947811</v>
+        <v>34.72800408165922</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>38.78659729092927</v>
+        <v>38.52083512013672</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>7.22290975100427</v>
+        <v>8.208446792054968</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>65.03751002866143</v>
+        <v>62.13388866948964</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>72.11736223364781</v>
+        <v>70.6838405409799</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>70.0152300982914</v>
+        <v>67.08017408176849</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>78.55779508461748</v>
+        <v>77.93022891164108</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>81.49002484955732</v>
+        <v>83.43021751859774</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>13.15930991995774</v>
+        <v>14.4772205950544</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>69.45842260113706</v>
+        <v>65.93106395433909</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>73.08310283935056</v>
+        <v>69.76717184740983</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>11.22030589932228</v>
+        <v>10.61804255102636</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>12.74226683060751</v>
+        <v>14.51156376780138</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>13.34455273044235</v>
+        <v>15.34456518516252</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>2.979818406037651</v>
+        <v>0.9731454865488018</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>14.19250249642359</v>
+        <v>14.0660471210479</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>15.90246995691572</v>
+        <v>12.22815898150752</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>10.89967846164727</v>
+        <v>9.502157909941847</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>23.83345983696429</v>
+        <v>26.96676576715084</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>25.94411325812974</v>
+        <v>23.5881347988541</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>22.71863422573749</v>
+        <v>23.45854594963293</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>27.38336255055828</v>
+        <v>28.58224200066196</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>31.1490161709213</v>
+        <v>28.58372837024028</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>14.17028477168432</v>
+        <v>10.3641453642975</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>13.79170792341104</v>
+        <v>16.02445215292403</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>17.60979738177531</v>
+        <v>14.78612021413626</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>2.816348326559616</v>
+        <v>5.067184266922045</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>9.381181482750897</v>
+        <v>11.56205944984371</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>20.99875506101385</v>
+        <v>19.13172390613955</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-0.442327036086251</v>
+        <v>-4.831809997133462</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>3.513186310087853</v>
+        <v>1.106635173006442</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>17.94402256366684</v>
+        <v>13.27892362824811</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-0.06746270631219176</v>
+        <v>-3.182864922999268</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>7.478261679445605</v>
+        <v>9.537146669564375</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>31.04003014083741</v>
+        <v>27.82972296761886</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>10.96028015801658</v>
+        <v>13.29387912329308</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>18.10997154049193</v>
+        <v>20.5057661170888</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>32.65437781503927</v>
+        <v>28.91592713595266</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>1.794401107584175</v>
+        <v>-2.790215412889268</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>12.96174155721215</v>
+        <v>14.40237230312801</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>21.77936151096185</v>
+        <v>19.12814665140423</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>18.0909452166907</v>
+        <v>15.56611010138402</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.202710688082</v>
+        <v>27.71438229943814</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>34.62183506454922</v>
+        <v>32.23060538329362</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>1.629560286687479</v>
+        <v>0.1360349126021454</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>21.35630360479827</v>
+        <v>18.97148595257917</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>24.45985544663965</v>
+        <v>23.21529379998027</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>7.701618655053707</v>
+        <v>5.423142044142768</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>39.95223396890962</v>
+        <v>39.02603074835181</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>52.30577212091772</v>
+        <v>48.27522666841611</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>42.72254400171413</v>
+        <v>45.22576228423696</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>45.66086319224594</v>
+        <v>48.58249561119376</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>65.47569571386563</v>
+        <v>62.80843356839334</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>12.98242412343219</v>
+        <v>13.60708912810993</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>39.316573015626</v>
+        <v>40.5940980677756</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>43.18387004163122</v>
+        <v>44.31422030346429</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>2.450513421791904</v>
+        <v>3.750450916146601</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>4.459482570651438</v>
+        <v>3.586342742046057</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>4.343578305793731</v>
+        <v>2.275022855297536</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>1.363629592625262</v>
+        <v>-2.26383265321137</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>3.575120689826267</v>
+        <v>2.005585259169965</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>5.444442827957456</v>
+        <v>-0.5126928490798761</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>7.541795084609163</v>
+        <v>5.331579805781296</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>10.57152623845132</v>
+        <v>8.381856981742757</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>8.946594235467224</v>
+        <v>3.960604691032554</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>4.679207287720107</v>
+        <v>0.8916114935986066</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>3.305749806721277</v>
+        <v>2.620965332642282</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>10.61934710175507</v>
+        <v>5.802493009570846</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>1.344516422672438</v>
+        <v>5.254374358171216</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>5.09512026661411</v>
+        <v>6.294453869202144</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>5.859344067034986</v>
+        <v>3.988515416899016</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>0.9597644947726245</v>
+        <v>0.8700467341549363</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>3.06460650646817</v>
+        <v>2.415808758452975</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>4.275686973461273</v>
+        <v>3.475071987213369</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-0.1768061532782781</v>
+        <v>-3.744143806178613</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>0.4365539820304321</v>
+        <v>-4.798374332747692</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>2.870830300608336</v>
+        <v>0.1721056399929495</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>0.5122989849831221</v>
+        <v>-2.896710578805386</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>3.484985593102969</v>
+        <v>0.8629675449684484</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>5.647265834993227</v>
+        <v>6.902817957163968</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>1.384662256479391</v>
+        <v>4.014826591789181</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>3.076516439897393</v>
+        <v>7.832507971755689</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>3.902862108080853</v>
+        <v>7.785095842236963</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-0.177496522642258</v>
+        <v>-4.306303996861075</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>2.20378532162994</v>
+        <v>3.696035928626877</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>2.869005122511233</v>
+        <v>3.65826737158153</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>18.60379399624769</v>
+        <v>16.62048966949997</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>23.13490455728248</v>
+        <v>21.75033831600611</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>22.53071409433927</v>
+        <v>23.37969108259665</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>2.006196796740348</v>
+        <v>3.01323749588536</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>13.71071535051409</v>
+        <v>12.18688450990465</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>14.57595629134424</v>
+        <v>14.20744596540781</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>11.25158352010013</v>
+        <v>7.639403945222579</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>28.14133412896856</v>
+        <v>29.57605623745916</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>31.35105687498859</v>
+        <v>32.37743302157845</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>31.58455004507069</v>
+        <v>29.74677274825844</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>33.37020872266461</v>
+        <v>33.33969803043031</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>38.54618191368907</v>
+        <v>41.84430411406925</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>23.00111921940126</v>
+        <v>20.9283729096601</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>28.02470111625128</v>
+        <v>29.15484132342312</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.89606831438939</v>
+        <v>31.10702349755476</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>17.79833580444994</v>
+        <v>21.52535575779841</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>30.82446710330334</v>
+        <v>31.69335760958499</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>40.6602898085597</v>
+        <v>36.57944489172987</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>1.998777905758136</v>
+        <v>4.545182351539474</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>21.04929118598817</v>
+        <v>23.80834402262814</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>26.45318532140217</v>
+        <v>28.92681857859923</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>10.43852513821815</v>
+        <v>13.82879393972917</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>48.60785832399668</v>
+        <v>45.93219979822884</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>52.53868938102206</v>
+        <v>48.63013010815023</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>47.70801914762994</v>
+        <v>43.37249201948154</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>54.71077499674933</v>
+        <v>50.53453845746574</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>57.67642669876697</v>
+        <v>53.44822022997066</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>31.70758340620533</v>
+        <v>31.28083760120018</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>59.24263545908346</v>
+        <v>56.95710951393459</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>61.10091972163013</v>
+        <v>59.89385424518114</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>15.27707505270611</v>
+        <v>12.23473358770897</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>28.01038537592073</v>
+        <v>24.41426521396439</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>32.63574233628773</v>
+        <v>28.89013984655469</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-0.2276597122794719</v>
+        <v>-3.519985051413379</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>10.05276316701637</v>
+        <v>7.863500473360038</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>14.48257833300974</v>
+        <v>15.32770847549419</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>7.648406987986128</v>
+        <v>3.111750636783</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>31.10112475822453</v>
+        <v>26.39422387125853</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>36.4599998610751</v>
+        <v>37.22277844246408</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>30.04649152191782</v>
+        <v>28.77637273496656</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>36.8653323028195</v>
+        <v>37.2091255183184</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>41.0980316673197</v>
+        <v>45.35351939616695</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>19.938126551247</v>
+        <v>15.44970306627859</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>42.64331422397564</v>
+        <v>43.30280140527344</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>46.6594118150922</v>
+        <v>48.66117793658951</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>21.92039905045507</v>
+        <v>23.27857126484739</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>35.21345267760657</v>
+        <v>37.39731440656335</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>45.84046159174279</v>
+        <v>45.43547741912129</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>1.382480948679156</v>
+        <v>3.017721903311664</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>23.47922873825378</v>
+        <v>22.69073714125773</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>27.81470632976693</v>
+        <v>29.48360151683805</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>11.20919302393622</v>
+        <v>13.14546058421733</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>51.65570175673257</v>
+        <v>48.77162197554591</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>59.44994426360364</v>
+        <v>60.36956763470172</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>64.55210321205172</v>
+        <v>64.65953673110303</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>70.70358155697073</v>
+        <v>70.59990392840164</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>73.53670966741262</v>
+        <v>75.72787872327905</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>33.11814557145762</v>
+        <v>28.67909345100537</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>63.04654773954263</v>
+        <v>57.75466253888555</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>67.31104107130348</v>
+        <v>68.59654283646037</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>12.09700663539383</v>
+        <v>13.12121773519172</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>28.98443479708028</v>
+        <v>33.79651921711108</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>36.81186952563124</v>
+        <v>40.12762994967705</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>1.940618524753113</v>
+        <v>5.527830810742131</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>34.24444286243852</v>
+        <v>38.2509427434051</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>38.7394614453351</v>
+        <v>40.99329762227221</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>8.683007343169812</v>
+        <v>12.58437531395432</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>55.65452253681079</v>
+        <v>58.59211372598054</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>65.90702334727528</v>
+        <v>61.92308382369456</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>60.88162144149182</v>
+        <v>61.99171354790957</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>66.09977827427305</v>
+        <v>70.56942768075623</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>69.49954240894623</v>
+        <v>67.28700038563693</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>11.12504652854198</v>
+        <v>12.97097292442186</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>41.83038928838791</v>
+        <v>43.49466757661787</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>50.55383662830482</v>
+        <v>51.28921108988416</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>7.5124605564658</v>
+        <v>9.548965200002407</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>33.7779323992157</v>
+        <v>30.99162510970939</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>37.78190835111245</v>
+        <v>36.16711807167466</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>1.304366417847437</v>
+        <v>3.768066577792293</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>22.93835128695398</v>
+        <v>24.96561782597102</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>35.38690537419757</v>
+        <v>34.90108591167584</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>4.420017536003176</v>
+        <v>7.001432378183235</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>45.37348712732174</v>
+        <v>41.01850159286839</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>54.17037366427258</v>
+        <v>55.46589546541111</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>48.88285177485974</v>
+        <v>45.7298613597108</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>53.99494099919931</v>
+        <v>54.34928007999579</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>62.98132654010212</v>
+        <v>62.01544894600408</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>5.084002071824724</v>
+        <v>6.717488403746419</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>47.26676149078759</v>
+        <v>49.56665811574353</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>55.13422121696912</v>
+        <v>53.19593766826403</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>5.574498655761971</v>
+        <v>9.342784331823673</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>31.65621413289954</v>
+        <v>30.15578143713989</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>39.92743795013757</v>
+        <v>42.21596626248678</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>1.061748384777861</v>
+        <v>0.7330548724125734</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>27.05738287657143</v>
+        <v>28.10371435527146</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>41.86131893641372</v>
+        <v>39.21173509008671</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>4.684075327805605</v>
+        <v>4.883714148132359</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>47.09765735870877</v>
+        <v>47.24299155316731</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>67.14575152720117</v>
+        <v>67.68008242160695</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>59.41975452150891</v>
+        <v>56.44751271433101</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>71.77429151373305</v>
+        <v>68.36269561277291</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>83.65372245377991</v>
+        <v>84.27991133614923</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>3.701642245692746</v>
+        <v>5.637131385818549</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>59.48370712107574</v>
+        <v>55.88263410302662</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>70.75891534618223</v>
+        <v>66.45022006466345</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>6.320919939053116</v>
+        <v>8.548663038671888</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>22.54730016444798</v>
+        <v>25.26073504213667</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>34.8966664976613</v>
+        <v>35.20650729696904</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>1.35305098970149</v>
+        <v>4.249775698189694</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>43.76633469494679</v>
+        <v>42.83943576436796</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>47.7994834845303</v>
+        <v>48.33455970111234</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>6.882285314098624</v>
+        <v>7.218049919972422</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>66.07734516997385</v>
+        <v>68.61757828209448</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>67.86323280098813</v>
+        <v>67.30426043905891</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>64.88800679413298</v>
+        <v>61.96027709968573</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>63.23775479560936</v>
+        <v>63.33735475569638</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>66.21112443064439</v>
+        <v>62.91869918693365</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>5.283401339172961</v>
+        <v>9.766646109849312</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>32.30554638762057</v>
+        <v>32.74521670890367</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>61.99078581639728</v>
+        <v>64.79552066850495</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>13.36544453609889</v>
+        <v>9.620130710320071</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>35.55116670623227</v>
+        <v>33.14200600279491</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>36.86639599314374</v>
+        <v>36.57516051616387</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>1.415256780562689</v>
+        <v>-0.7760785730826534</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>28.923799763547</v>
+        <v>25.82677158562893</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>33.50698869762559</v>
+        <v>33.5580022004583</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>3.888153604863014</v>
+        <v>-0.1746831411238396</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>50.31194664009114</v>
+        <v>47.75563040187571</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>52.95848423182818</v>
+        <v>55.62784754592076</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>48.48109176368949</v>
+        <v>45.34433398784998</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>55.38425947067309</v>
+        <v>55.84202563421624</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>59.74762223693048</v>
+        <v>63.06727062203596</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>9.353351562775696</v>
+        <v>6.092703546550482</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>47.71711328860197</v>
+        <v>50.79603389138197</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>53.22417085647752</v>
+        <v>57.13005964754256</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>11.43786631845551</v>
+        <v>11.16038052940397</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>33.89260809470471</v>
+        <v>34.41683580845127</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>41.56707990723027</v>
+        <v>42.79177230498209</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>1.309652359787876</v>
+        <v>0.6768230207093211</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>36.72958761879065</v>
+        <v>33.60510058830029</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>42.13143971360073</v>
+        <v>41.89309490748845</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>4.322108275652859</v>
+        <v>2.812709006637611</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>59.06750080733898</v>
+        <v>56.57671870385925</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>67.27870484412389</v>
+        <v>68.82173654871981</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>71.23234805125237</v>
+        <v>68.58675674526958</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>76.43027671985693</v>
+        <v>80.70262620480366</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>82.27244195918522</v>
+        <v>83.72794052317832</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>6.93289636423107</v>
+        <v>9.087889787802245</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>63.80639428407051</v>
+        <v>64.91477565734203</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>73.50259910250293</v>
+        <v>71.58752959914973</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>18.24007258862382</v>
+        <v>16.92426593671586</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>25.22275725958784</v>
+        <v>24.35287290215154</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>38.14879075064897</v>
+        <v>38.07471696304674</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>9.033263359846579</v>
+        <v>12.99621387023092</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>52.72807129415588</v>
+        <v>51.2888698314111</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>56.76567474528942</v>
+        <v>56.81040785011719</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>12.02760410346893</v>
+        <v>16.01952823362714</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>65.24679535228577</v>
+        <v>67.78346549890628</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>71.82851209372507</v>
+        <v>72.92247181381038</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>62.41099997528835</v>
+        <v>59.14730979046366</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>62.45135950716725</v>
+        <v>59.31081132275639</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>63.10414819649493</v>
+        <v>59.79115724550491</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>14.50724198231213</v>
+        <v>16.50935715636456</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>30.93084729483942</v>
+        <v>28.03239241840136</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>50.87697612352974</v>
+        <v>50.6618489764996</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>25.53491113000113</v>
+        <v>23.46015568041139</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>35.78986594065985</v>
+        <v>35.39015935325786</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>38.61493268700853</v>
+        <v>41.73133800520961</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>38.57638292108592</v>
+        <v>35.17695615425366</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>53.20468253621824</v>
+        <v>49.13866408231716</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>57.78757646019867</v>
+        <v>59.54557875912019</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>8.6477805061037</v>
+        <v>12.56111603129976</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>48.90284817825548</v>
+        <v>49.29260573502786</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>56.84104770625743</v>
+        <v>61.49857913520847</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>51.15514501519763</v>
+        <v>47.5950638221247</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>54.79977441573072</v>
+        <v>55.82505511937998</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>57.93620738988464</v>
+        <v>60.65005335298157</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>27.58083410948382</v>
+        <v>25.21702366929998</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>49.73938854745812</v>
+        <v>52.76857226818774</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>55.76495683514399</v>
+        <v>58.53961415318707</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>25.42606737210506</v>
+        <v>23.3879143775506</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>34.89422546671452</v>
+        <v>38.5407240673623</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>41.33561369915499</v>
+        <v>44.33535950983904</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>39.95001239688076</v>
+        <v>35.92130024554619</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>60.95125318108592</v>
+        <v>57.11183088534451</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>60.70671748611804</v>
+        <v>62.22545331642757</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>12.43294667669638</v>
+        <v>16.86587611968171</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>63.55961536966429</v>
+        <v>64.16981417607703</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>70.37814188059238</v>
+        <v>71.28589413023228</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>75.69958059630781</v>
+        <v>79.0930094606621</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>77.06263868236763</v>
+        <v>80.33224012761465</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>82.25659552076476</v>
+        <v>83.60977911793756</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.02279017186014</v>
+        <v>26.5968475321188</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>63.06072156742729</v>
+        <v>67.04000870437594</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>74.95516363857199</v>
+        <v>75.96372667403503</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>4.315726624814733</v>
+        <v>8.435361599216506</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>24.95784132881575</v>
+        <v>27.81628621449551</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>33.74107120485169</v>
+        <v>35.79821311691045</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>0.940116592474677</v>
+        <v>3.194056208846156</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>32.01912055398324</v>
+        <v>27.86230109942645</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>32.60429106765312</v>
+        <v>35.40894368131319</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>5.38051207378302</v>
+        <v>8.641012287272464</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>56.11259994262105</v>
+        <v>54.57955291737424</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>59.23740885378763</v>
+        <v>57.69464297114773</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>63.24691195853183</v>
+        <v>60.40466738103873</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>62.47313689928221</v>
+        <v>62.97562478760788</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>64.99512063035515</v>
+        <v>62.34348946409408</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>2.815297124262486</v>
+        <v>6.573055891884291</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>39.70454989894388</v>
+        <v>43.82522429567287</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>43.73621059040518</v>
+        <v>45.83539573374642</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>7.318767232460242</v>
+        <v>10.81190472350443</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>33.25020225659986</v>
+        <v>35.92291849203819</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>33.98862176629726</v>
+        <v>36.96236141427509</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>0.8858468009557612</v>
+        <v>4.142560365728972</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>28.71388091258451</v>
+        <v>30.26413219356954</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>33.48861447943064</v>
+        <v>34.80665086786459</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>3.985941039106297</v>
+        <v>5.980844635528783</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>44.8086208386034</v>
+        <v>47.8819460911329</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>52.26703149609071</v>
+        <v>56.37715715239225</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>45.45588788385759</v>
+        <v>47.22486639788358</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>55.01989893006625</v>
+        <v>57.03406176628228</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>57.35399267949867</v>
+        <v>61.72195679430056</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>4.569582034033861</v>
+        <v>7.809432518164449</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>50.13201686689381</v>
+        <v>46.83730317297491</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>54.50349548161071</v>
+        <v>55.90276904759872</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>6.128623065549728</v>
+        <v>10.12081604316395</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>32.71159033428462</v>
+        <v>32.3176286595104</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>40.25829446584551</v>
+        <v>42.46194550880259</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>0.9286885337220276</v>
+        <v>-0.08118924657451032</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>29.20983769011045</v>
+        <v>28.85846720879552</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>38.39230767511579</v>
+        <v>36.9661222288174</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>4.822583505458489</v>
+        <v>2.433117759878769</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>48.26671835871355</v>
+        <v>48.05835209885753</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>64.36038368350694</v>
+        <v>66.35552444687011</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>62.6522081126934</v>
+        <v>60.38341064599393</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>77.83281633224225</v>
+        <v>73.59109493801947</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>80.83355860278854</v>
+        <v>82.88860206422842</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>3.539145937462663</v>
+        <v>5.504617385593107</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>62.05757582684994</v>
+        <v>60.52171294443117</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>70.66949223803009</v>
+        <v>68.71700612764175</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>12.06794959771959</v>
+        <v>10.63493604213321</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>14.18706900032881</v>
+        <v>13.16111332245224</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>14.82130388161571</v>
+        <v>17.33358616040685</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>2.462248627331107</v>
+        <v>1.884351346040429</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>12.66770722219517</v>
+        <v>13.76475522804536</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>13.75980896719173</v>
+        <v>16.18086789086257</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>11.2023624643195</v>
+        <v>7.835909766438466</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>22.92623042237809</v>
+        <v>24.96072036265905</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>25.12950582249345</v>
+        <v>28.06188894083273</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>22.96804701578576</v>
+        <v>24.46693985969576</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>26.36232924513856</v>
+        <v>27.96199560517904</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.79419000461269</v>
+        <v>30.97111856679145</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>10.33427052332056</v>
+        <v>11.31201852522273</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>15.2212930600084</v>
+        <v>18.0086941514891</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>19.21704791249404</v>
+        <v>22.02837703039003</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>5.70826416993614</v>
+        <v>8.041343345110946</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>20.90353743891692</v>
+        <v>20.40034369673916</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>31.05850194149393</v>
+        <v>31.12538554378314</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>1.032870746546326</v>
+        <v>-0.1190926571002322</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>10.62384366297591</v>
+        <v>12.4904116249652</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.64496902628341</v>
+        <v>26.28470448141043</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>2.842810491185347</v>
+        <v>3.660920323087325</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>22.13253577786221</v>
+        <v>24.25511904366494</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>47.08574061107904</v>
+        <v>45.64469481547995</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>27.8779239375202</v>
+        <v>27.4902180574643</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>39.44442899374461</v>
+        <v>39.63430646658243</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>52.39470691625681</v>
+        <v>54.29207186287076</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>2.591164433972352</v>
+        <v>4.955520928714407</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>32.92001581954187</v>
+        <v>35.33962183032944</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>43.7256606802875</v>
+        <v>46.99412950834043</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>13.9936745965121</v>
+        <v>13.85883095043548</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>32.31265202322948</v>
+        <v>27.92088859696998</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>38.97506341340837</v>
+        <v>40.41165015025452</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>1.249318667088232</v>
+        <v>1.670500943177309</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>24.88210748735522</v>
+        <v>20.9633377738477</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>35.36655731370824</v>
+        <v>34.76892752201201</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>6.599713708863785</v>
+        <v>7.211382058126603</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>42.69172179830596</v>
+        <v>38.14026627344199</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>59.68471720755105</v>
+        <v>58.111433889255</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>53.27836778281348</v>
+        <v>48.56212685996006</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>60.92916952354986</v>
+        <v>56.63045574209197</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>67.59009808608231</v>
+        <v>69.02103022002288</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>3.264849884204899</v>
+        <v>5.208528623066698</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>45.29733124831587</v>
+        <v>40.31025508227027</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>65.80674316444239</v>
+        <v>62.63140997598661</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>15.05258227429885</v>
+        <v>16.23236215501069</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>24.67012491901325</v>
+        <v>21.38734223314</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>27.99197158765723</v>
+        <v>28.09896632576299</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>1.854258284633186</v>
+        <v>1.858104006078726</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>29.41141883199026</v>
+        <v>30.02542415395877</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>30.23584493861473</v>
+        <v>33.85833214570729</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>14.21081177331628</v>
+        <v>13.49008875357754</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>49.0613395444946</v>
+        <v>46.49211133028221</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>50.80189933495618</v>
+        <v>48.18571781014708</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>34.86411383496159</v>
+        <v>36.02138756513527</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>39.53478467086727</v>
+        <v>40.58031765127568</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>46.58936165169042</v>
+        <v>43.71798723027175</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>11.37275951638305</v>
+        <v>10.49859197892427</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>40.55994607034694</v>
+        <v>37.35727800863265</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>45.57121237506366</v>
+        <v>42.50819285469539</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>6.209102411995474</v>
+        <v>10.09177507282742</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>25.58048920625005</v>
+        <v>24.19339986598574</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>35.58139699547747</v>
+        <v>36.20238609455996</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>0.8080319737482782</v>
+        <v>3.273239642441354</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>17.36336443024733</v>
+        <v>20.01794096640248</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>43.47708165369487</v>
+        <v>40.40907195868385</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>4.693816854962641</v>
+        <v>2.647324474667776</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>31.3899958777397</v>
+        <v>32.39607846789885</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>51.61230594377476</v>
+        <v>52.6185938795608</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>27.30414285431038</v>
+        <v>29.80473100999124</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>38.58866151559607</v>
+        <v>41.74493948102293</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>58.00062809152715</v>
+        <v>59.28921888266387</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>3.955283212797791</v>
+        <v>6.494301303470394</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>37.18939458886706</v>
+        <v>39.73114142194726</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>46.03583801875459</v>
+        <v>48.65028226181251</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>11.54246009733571</v>
+        <v>14.48706040551636</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>26.95378959700385</v>
+        <v>26.85142605276222</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>35.41326279822014</v>
+        <v>36.60192536260917</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>1.237667876667217</v>
+        <v>3.098515188510728</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>27.86061099776914</v>
+        <v>23.837433356204</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>34.77560285613365</v>
+        <v>36.97322488455811</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>6.422506160290158</v>
+        <v>7.965816701229876</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>48.44786787889507</v>
+        <v>42.94933905163404</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>54.64309943744127</v>
+        <v>56.23474060471486</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>58.29527801260909</v>
+        <v>53.56473577762678</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>62.09033924375319</v>
+        <v>59.01052327346738</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>71.5683339142571</v>
+        <v>71.13842846837662</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>2.840769226166337</v>
+        <v>4.921401914508152</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>37.48052315005641</v>
+        <v>38.38742460021996</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>61.16371316718072</v>
+        <v>57.60145367489323</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>15.70543949828637</v>
+        <v>15.63100826248116</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>24.14595405853775</v>
+        <v>28.10575280332208</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>34.29260620472834</v>
+        <v>37.14337275463515</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>1.929781448222119</v>
+        <v>5.250771919859893</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>43.93338212460713</v>
+        <v>42.70976522427657</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>45.72929966296976</v>
+        <v>47.52391656561255</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>12.03949116683844</v>
+        <v>14.46087028740044</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>67.06664352717172</v>
+        <v>65.35542259733297</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>67.49541376855291</v>
+        <v>66.53389497483042</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>63.07323474082364</v>
+        <v>60.00682507106965</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>61.81015673698533</v>
+        <v>58.80785267206863</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>65.83467072252648</v>
+        <v>62.52345512923385</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>13.23139289513293</v>
+        <v>15.99522826994136</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>20.24942997683944</v>
+        <v>22.08828521391133</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>63.49915335067313</v>
+        <v>66.61975683020437</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>25.21609339276367</v>
+        <v>21.96861337608532</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>36.44251786345299</v>
+        <v>38.18026630267606</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>36.52382833471673</v>
+        <v>40.23849117078875</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>2.245961403530611</v>
+        <v>5.379534763100256</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>31.39133967429082</v>
+        <v>29.2832043878954</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>35.46750277927006</v>
+        <v>35.68776732919763</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>9.384538373884538</v>
+        <v>10.4568644878242</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>52.07724478214101</v>
+        <v>49.3903670128679</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>57.36701572529817</v>
+        <v>56.88627625009809</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>54.17950825656657</v>
+        <v>51.19214802437421</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>59.89602307142594</v>
+        <v>57.30682255093301</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>60.12526894807594</v>
+        <v>62.42552023508735</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>22.4731086752141</v>
+        <v>20.15665435050775</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>50.74531214603051</v>
+        <v>53.24301660898681</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>55.80267290828463</v>
+        <v>58.00405197682607</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>26.50132244607831</v>
+        <v>22.96681147049873</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>36.95289926931398</v>
+        <v>39.56389522606255</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>41.32373666735371</v>
+        <v>44.54009943078204</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>2.169368887335871</v>
+        <v>4.57980507463455</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>37.32635786633378</v>
+        <v>34.3627933483009</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>40.5761579222138</v>
+        <v>39.4032011453935</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>9.616252724021464</v>
+        <v>12.79609552149277</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>62.81600857432468</v>
+        <v>60.2984344858514</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>69.0183248654505</v>
+        <v>70.12041274515002</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>70.4203455875211</v>
+        <v>70.99354022480478</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>73.77048739294779</v>
+        <v>75.08512759199871</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>78.8357924948359</v>
+        <v>81.50957113562436</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>19.84908976688615</v>
+        <v>18.51167609042687</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>64.0460462430751</v>
+        <v>60.33177154893574</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>70.18739996279015</v>
+        <v>70.96452733396929</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>4.616957989840508</v>
+        <v>7.708597743072637</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>24.26315122984942</v>
+        <v>24.71516796312806</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>32.15723176068998</v>
+        <v>32.06426956904761</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>0.8079895644822379</v>
+        <v>2.539117057236236</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>32.94757626243899</v>
+        <v>30.84895438220375</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>32.24771683607523</v>
+        <v>32.99666070658429</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>5.595696179671172</v>
+        <v>7.860506396326929</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>53.0288046712909</v>
+        <v>50.9669724705706</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>57.49018422330283</v>
+        <v>54.96905265722841</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>60.18641901552702</v>
+        <v>55.91312972578802</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>65.78600288314856</v>
+        <v>61.2365796542308</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>60.78755392625406</v>
+        <v>59.8975269451883</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>2.651812258218545</v>
+        <v>6.056077566629021</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>39.93909523938422</v>
+        <v>37.07735982544899</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>42.74194674740335</v>
+        <v>39.64738242653741</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>8.139412240170124</v>
+        <v>9.338908400146849</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>35.30470923729914</v>
+        <v>32.18854043268507</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>33.6971031855327</v>
+        <v>35.33356087143723</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>1.06536013884304</v>
+        <v>2.355905956488193</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>28.35879357179983</v>
+        <v>26.80388755793327</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>33.9009003234549</v>
+        <v>33.66241217086883</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>4.985625423086443</v>
+        <v>7.280585080863386</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>48.91285477401783</v>
+        <v>45.48366137027766</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>58.96313641736911</v>
+        <v>60.01763400366615</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>50.24989421367899</v>
+        <v>48.08944168843615</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>57.0397263522528</v>
+        <v>58.47750235232825</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>60.37591838329065</v>
+        <v>64.09231488423272</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>4.229876125040438</v>
+        <v>7.189405525453751</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>50.64009033648563</v>
+        <v>55.02782960187155</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>54.09960875460764</v>
+        <v>54.42935662737004</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>7.822671510450569</v>
+        <v>11.61558859842613</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>34.7324212758124</v>
+        <v>30.53517065127913</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>41.95482250738802</v>
+        <v>42.09875664042903</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>0.8978932966634368</v>
+        <v>0.9771483021922265</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>28.69235143093506</v>
+        <v>25.97902783114705</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>35.66270592168468</v>
+        <v>36.779751389148</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>4.530650217764133</v>
+        <v>5.80523729408376</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>48.94139169341695</v>
+        <v>44.64331319002851</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>63.1569070619137</v>
+        <v>67.14229027109391</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>65.70888724471753</v>
+        <v>61.32390361404571</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>71.93194934514131</v>
+        <v>70.61325074455354</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>79.55833138797779</v>
+        <v>81.75798916015891</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>3.25501064346717</v>
+        <v>5.497910431763728</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>53.15724584275126</v>
+        <v>51.24512448372314</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>70.13026488263598</v>
+        <v>65.72833248914247</v>
       </c>
     </row>
   </sheetData>
